--- a/080A/ERSH_Stowage Plan Dep. LAEM CHABANG Voy. 080A.xlsx
+++ b/080A/ERSH_Stowage Plan Dep. LAEM CHABANG Voy. 080A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vasat\Desktop\stowage-plan\080A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE3B68F-3205-4360-951B-4373A8F9C32C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1E443F-74F0-46DC-8DF3-FDB6F3755B87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A5E421E7-7D8E-4854-AAE9-E0AED7362C90}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73750BF2-68AF-4BF7-9ACE-904F91CEFEA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Stowage Plan" sheetId="2" r:id="rId1"/>
@@ -4331,12 +4331,12 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{F60CF011-4CE6-466C-AA78-0475972D1D59}"/>
-    <cellStyle name="Normal 2 4" xfId="3" xr:uid="{115FFB1B-6664-4917-8C8E-ADB0AA63F873}"/>
-    <cellStyle name="Normal_05.DOVH Summary Dep SIN 033A" xfId="4" xr:uid="{88570D61-98ED-4012-B68F-923FEB75E648}"/>
-    <cellStyle name="Normal_ERSH Pre-Arr Notice - VOY 033A._04. ERSH-SOUTHAMPTON-PRE-ARRIVAL NOTICE" xfId="5" xr:uid="{42D3D9CF-8250-4FAD-BD02-094874413271}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{B1CE6E39-F9CA-4430-AA6D-2CC66A282BEB}"/>
+    <cellStyle name="Normal 2 4" xfId="3" xr:uid="{3B3DC99E-B61B-4C9B-8DFB-6A8F6DF39E6C}"/>
+    <cellStyle name="Normal_05.DOVH Summary Dep SIN 033A" xfId="4" xr:uid="{9004E457-8FF7-40CD-B1F8-B6A332DCEAC6}"/>
+    <cellStyle name="Normal_ERSH Pre-Arr Notice - VOY 033A._04. ERSH-SOUTHAMPTON-PRE-ARRIVAL NOTICE" xfId="5" xr:uid="{67D71D35-85B0-4058-BCAC-8D56B7F5EC0F}"/>
     <cellStyle name="Нормален" xfId="0" builtinId="0"/>
-    <cellStyle name="Нормален 2" xfId="1" xr:uid="{D319077D-0EA7-4B7A-BEAF-9085062BEAD0}"/>
+    <cellStyle name="Нормален 2" xfId="1" xr:uid="{38648270-BDE1-443C-B19F-B76D65A1FABD}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -4379,7 +4379,7 @@
         <xdr:cNvPr id="2" name="STOWAGE_PLAN_DEFAULT_SHAPE_705477">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4340405E-95FD-449B-9E0C-BF827249A3A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AF2D0DF-B656-4380-9570-DDDED259FF97}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4428,7 +4428,7 @@
         <xdr:cNvPr id="3" name="STOWAGE_PLAN_DEFAULT_SHAPE_533371">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96C43167-AE60-462D-BCCF-7DC68BA370E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED0F45F6-BF58-434E-89C9-C4F0A08FDF56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4477,7 +4477,7 @@
         <xdr:cNvPr id="4" name="STOWAGE_PLAN_DEFAULT_SHAPE_579461">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5AD6114-A0AE-441C-94A7-9F85C9A2C928}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E1A905D-2332-47DD-9925-F84887C0D697}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4526,7 +4526,7 @@
         <xdr:cNvPr id="5" name="STOWAGE_PLAN_DEFAULT_SHAPE_289534">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2448F717-568E-49AB-B6B1-D1061405889F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{610C2DD1-68BD-46AD-BDE1-9806C7B96C2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4575,7 +4575,7 @@
         <xdr:cNvPr id="6" name="STOWAGE_PLAN_DEFAULT_SHAPE_301918">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDA7A2D3-F350-4986-A9A0-B42B6C07DCF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B1E2D0D-D8A5-4587-8F3B-F06D33F1A38B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4624,7 +4624,7 @@
         <xdr:cNvPr id="7" name="STOWAGE_PLAN_DEFAULT_SHAPE_774663">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D97F44BB-22B4-4B2B-9AA2-65083A963085}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC9E762D-4ECE-433E-857C-AA7FE9C53F1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4673,7 +4673,7 @@
         <xdr:cNvPr id="8" name="STOWAGE_PLAN_DEFAULT_SHAPE_14017">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6F92A03-A3E9-422C-9434-A36835CA832C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90592565-080F-4C90-B81C-8F1EDE919617}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4728,7 +4728,7 @@
         <xdr:cNvPr id="9" name="STOWAGE_PLAN_DEFAULT_SHAPE_760648">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA0E11A6-B5FF-4D1E-9A92-1672A172763A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC1F693D-7945-4307-9A13-661543E77078}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4783,7 +4783,7 @@
         <xdr:cNvPr id="10" name="STOWAGE_PLAN_DEFAULT_SHAPE_814409">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6769AD52-3D2E-48DC-A779-1923F3F377FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{148B59E4-C6DD-4452-A3A5-8005B2096AC4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4838,7 +4838,7 @@
         <xdr:cNvPr id="11" name="STOWAGE_PLAN_DEFAULT_SHAPE_708967">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC53F9BF-CA7E-4837-8DE5-E71548B28296}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{931E7221-B17B-47C0-82D9-9003A2AA7E92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4893,7 +4893,7 @@
         <xdr:cNvPr id="12" name="STOWAGE_PLAN_DEFAULT_SHAPE_45349">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2AAE7BC-E0F2-4675-8273-03A3BB44F61F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4E7E47B-F1A4-4776-943B-FA990FA42025}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4948,7 +4948,7 @@
         <xdr:cNvPr id="13" name="STOWAGE_PLAN_DEFAULT_SHAPE_413992">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF26FF1B-87AC-4D46-9588-148B4DAD5C87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0D29856-3083-4A23-80BB-36B3D95000A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5003,7 +5003,7 @@
         <xdr:cNvPr id="14" name="STOWAGE_PLAN_DEFAULT_SHAPE_862534">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BE7E26F-34DE-448D-8165-28E82AA77C47}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5283E88C-62FD-487B-A529-2644AB715DF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5058,7 +5058,7 @@
         <xdr:cNvPr id="15" name="STOWAGE_PLAN_DEFAULT_SHAPE_790401">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C6D21E6-696F-4E08-BDD3-A037DCD708E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08244E6B-21D3-4678-9373-B8C75A728E17}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5113,7 +5113,7 @@
         <xdr:cNvPr id="16" name="STOWAGE_PLAN_DEFAULT_SHAPE_373499">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{257F8BDB-61F9-4D51-A6E2-E7E2EBB620E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98DC8567-BD6F-4E7C-9742-91AB434514B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5162,7 +5162,7 @@
         <xdr:cNvPr id="17" name="STOWAGE_PLAN_DEFAULT_SHAPE_961857">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31A6DC87-ED50-4E93-801C-2550FF73C258}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8132E595-CB63-459C-9892-3B6587838AF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5211,7 +5211,7 @@
         <xdr:cNvPr id="18" name="STOWAGE_PLAN_DEFAULT_SHAPE_871359">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BB0EE1A-C874-45FA-B048-EE253BC65BF2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DAB0367-FAC0-4182-9E11-A5F83ACCAEA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5266,7 +5266,7 @@
         <xdr:cNvPr id="19" name="STOWAGE_PLAN_DEFAULT_SHAPE_56232">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BDB33BE-A09A-4163-99C5-B9271B2138F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1253735D-4FB3-4F62-81F0-C3560F269A75}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5328,7 +5328,7 @@
         <xdr:cNvPr id="20" name="STOWAGE_PLAN_DEFAULT_SHAPE_949462">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A32E9582-676F-4C1B-9DB9-ED7221E3CDC9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9672E94-D8FB-477B-AA94-C4522B559884}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5383,7 +5383,7 @@
         <xdr:cNvPr id="21" name="STOWAGE_PLAN_DEFAULT_SHAPE_363983">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{769A77DD-B58B-41BB-883B-9FADDCBBCA80}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7D5D87B-5877-4489-93CA-8233F5A46071}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5438,7 +5438,7 @@
         <xdr:cNvPr id="22" name="STOWAGE_PLAN_DEFAULT_SHAPE_524816">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B423B799-A5DD-4241-9AA9-6D9E110F7F5F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72A1A268-1CF6-4F03-B92D-CD6D39F4E6F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5493,7 +5493,7 @@
         <xdr:cNvPr id="23" name="STOWAGE_PLAN_DEFAULT_SHAPE_767035">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09FA4FB9-70E1-4B85-9131-296438317DB1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{001CA324-F26D-4949-9E5D-051303C1A0D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5548,7 +5548,7 @@
         <xdr:cNvPr id="24" name="STOWAGE_PLAN_DEFAULT_SHAPE_53500">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF0C14B7-26CC-4D7E-85CE-9B11C48CFD1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0FCF514-6385-4B84-A8F8-95CC9A4A05CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5603,7 +5603,7 @@
         <xdr:cNvPr id="25" name="STOWAGE_PLAN_DEFAULT_SHAPE_592400">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98DA5323-72A9-4B58-8841-80688106954B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E95F9C6F-00EF-4EE9-A31D-4FAE414C7B67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5658,7 +5658,7 @@
         <xdr:cNvPr id="26" name="STOWAGE_PLAN_DEFAULT_SHAPE_468654">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC628AE1-C8D4-4758-9BC3-7B6882085687}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0A539F2-95A8-44C2-8E46-E228ED463909}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5713,7 +5713,7 @@
         <xdr:cNvPr id="27" name="STOWAGE_PLAN_DEFAULT_SHAPE_298136">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46BD8A09-6B43-43C1-9DE5-EC3A5F9EA0CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{435C2011-6377-431A-A9EC-B28EB071173D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5763,7 +5763,7 @@
         <xdr:cNvPr id="28" name="PKG_BOX_20201019110448_PKGS">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B55F3A55-C588-4025-B416-582BE42DA8BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66B2093F-0110-42E6-8E86-AEE00545C6F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5849,7 +5849,7 @@
         <xdr:cNvPr id="29" name="STOWAGE_PLAN_DEFAULT_SHAPE_622635">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47A6B522-73F5-4D79-9D34-DD3100E5910B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{330BE4FE-4B89-4C55-9811-5599F208CFB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5971,7 +5971,7 @@
         <xdr:cNvPr id="30" name="STOWAGE_PLAN_DEFAULT_SHAPE_829719">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEC0EE7A-3822-4104-B026-EDC885008F1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7A781BD-AE73-4A59-81DD-BC9458F61E6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6020,7 +6020,7 @@
         <xdr:cNvPr id="31" name="STOWAGE_PLAN_DEFAULT_SHAPE_824520">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B309639-F2B4-4671-BEEC-5DC7E979471D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{848ED408-3E90-49DD-8AB6-414FB895A661}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6091,7 +6091,7 @@
         <xdr:cNvPr id="32" name="STOWAGE_PLAN_DEFAULT_SHAPE_589105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{594A905F-7060-4F70-B066-BA6D24267552}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5957A9DC-F195-423F-8039-A1AB506E883C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6157,7 +6157,7 @@
         <xdr:cNvPr id="33" name="STOWAGE_PLAN_DEFAULT_SHAPE_985995">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C551FE7-D4D6-4EE0-B9C1-4DF02CA97B65}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44FE84DF-4FE7-4412-A295-2A8F98C01C9A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6270,7 +6270,7 @@
         <xdr:cNvPr id="34" name="STOWAGE_PLAN_DEFAULT_SHAPE_910874">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38DCA7AE-4BF6-40BD-B920-60B93F03EA54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85E81AB3-348B-40E5-89DA-72FAC4984AD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6336,7 +6336,7 @@
         <xdr:cNvPr id="35" name="STOWAGE_PLAN_DEFAULT_SHAPE_226844">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{086A22F7-3D2C-4C8B-9D69-9EFA08914107}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C543034C-9212-4B7F-ADA2-E6357A89BE40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6449,7 +6449,7 @@
         <xdr:cNvPr id="36" name="STOWAGE_PLAN_DEFAULT_SHAPE_695046">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45627B08-5B4E-4F49-8C6C-C4F0FBD0A29C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C23511B-89B7-4131-A5B6-D637BDA0FCC9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6515,7 +6515,7 @@
         <xdr:cNvPr id="37" name="STOWAGE_PLAN_DEFAULT_SHAPE_979906">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FCD876C-DFA2-421F-A036-770C2B73146E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{582FEF23-954F-4174-8D67-193C6F60F05B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6616,7 +6616,7 @@
         <xdr:cNvPr id="38" name="STOWAGE_PLAN_DEFAULT_SHAPE_243907">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4571D7A8-F8D6-4239-8D5E-A913FC3C187F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF899531-107F-4578-8F06-3C0F774CE5D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6682,7 +6682,7 @@
         <xdr:cNvPr id="39" name="STOWAGE_PLAN_DEFAULT_SHAPE_533820">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF7490F3-C634-418A-A30F-6888D5EBFE52}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C73ED28-39D7-4F75-9442-05533C814DAB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6810,7 +6810,7 @@
         <xdr:cNvPr id="40" name="STOWAGE_PLAN_DEFAULT_SHAPE_106360">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFC44F97-76DB-4898-A9ED-6AAF726B0A26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B75C3E6-A73F-4F1A-A6CC-89F42AC3A710}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6876,7 +6876,7 @@
         <xdr:cNvPr id="41" name="STOWAGE_PLAN_DEFAULT_SHAPE_999315">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7AA444B-D943-405D-A427-8DB36FB009D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BDF4BCE-E908-42E0-833A-973EC2D94E1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6977,7 +6977,7 @@
         <xdr:cNvPr id="42" name="STOWAGE_PLAN_DEFAULT_SHAPE_676109">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD342EE6-2086-4DC5-AB6B-2AB6F8D3EF8D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B7EAA25-04DD-4F98-BD65-5F87BFF618C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7043,7 +7043,7 @@
         <xdr:cNvPr id="43" name="STOWAGE_PLAN_DEFAULT_SHAPE_15703">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924C2C5B-4258-43E3-806B-FEE350C3789D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07DF907E-C7BD-4CB4-A885-2AFAA8C039F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7144,7 +7144,7 @@
         <xdr:cNvPr id="44" name="STOWAGE_PLAN_DEFAULT_SHAPE_575127">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{107E3FFF-DE41-4DE1-BC66-7A062F07C3FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D56FFE63-1AB5-4AEC-A821-06F456EB5822}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7198,7 +7198,7 @@
         <xdr:cNvPr id="45" name="STOWAGE_PLAN_DEFAULT_SHAPE_100043">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C6B44F8-C870-4C51-B773-692FD031EDA3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDFDB80E-5670-41D6-B5F9-A35BDC1B6DA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7252,7 +7252,7 @@
         <xdr:cNvPr id="46" name="STOWAGE_PLAN_DEFAULT_SHAPE_103013">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8106AD31-E4D7-40B2-85B2-328911B8F4C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{485C120D-DEAC-4A19-8242-CE5BC9667F25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7303,7 +7303,7 @@
         <xdr:cNvPr id="47" name="STOWAGE_PLAN_DEFAULT_SHAPE_798805">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30655D6F-0140-4F86-A439-666D269026EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A1135F2-D1E4-4203-8960-F96FE10E5684}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7354,7 +7354,7 @@
         <xdr:cNvPr id="48" name="STOWAGE_PLAN_DEFAULT_SHAPE_284452">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9023681B-D30A-41BE-A11D-A977BCB3239F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD51BD94-542A-4541-A2A9-9CB7DC76DD60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7403,7 +7403,7 @@
         <xdr:cNvPr id="49" name="STOWAGE_PLAN_DEFAULT_SHAPE_45645">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D72B12E-52FF-4919-9A4C-B2D10E8315E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{359706EC-FFBD-407B-92A8-FCA63906592A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7452,7 +7452,7 @@
         <xdr:cNvPr id="50" name="STOWAGE_PLAN_DEFAULT_SHAPE_295744">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6464909-9A52-4053-93ED-67141BFA4D48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22F1F97D-4344-44EC-9DFA-D7907081B587}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7518,7 +7518,7 @@
         <xdr:cNvPr id="51" name="STOWAGE_PLAN_DEFAULT_SHAPE_381973">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AECC4D4B-6CD5-4591-A2F8-C8E30B656077}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72AB568A-EF2A-4999-A187-0B6D5694B9EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7619,7 +7619,7 @@
         <xdr:cNvPr id="52" name="STOWAGE_PLAN_DEFAULT_SHAPE_300941">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF614ED1-B168-4685-AE97-7D90B8988032}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25B5D424-CF1A-4F0C-9FC4-7EF1C53EC9B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7685,7 +7685,7 @@
         <xdr:cNvPr id="53" name="STOWAGE_PLAN_DEFAULT_SHAPE_948477">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62F14F31-FC2C-4BF3-9DDD-7BE8D248788E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3606F34-1721-4796-A7B4-6056F395AB2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7786,7 +7786,7 @@
         <xdr:cNvPr id="54" name="STOWAGE_PLAN_DEFAULT_SHAPE_979732">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1E19945-5C7F-48C3-BC73-7DDD765F813C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10ED9D31-AF2F-46F5-9A56-3CB5A3006FE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7841,7 +7841,7 @@
         <xdr:cNvPr id="55" name="STOWAGE_PLAN_DEFAULT_SHAPE_401335">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03CBD093-F5C8-463C-8D91-7010D773949D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DD40514-F636-42C3-B0E5-2AB7063CC185}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7907,7 +7907,7 @@
         <xdr:cNvPr id="56" name="STOWAGE_PLAN_DEFAULT_SHAPE_278253">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42B40088-AE71-4126-ABFE-3E1CBA863E0A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC30EE6D-B69D-4E38-86B5-AFA882DD61D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8007,7 +8007,7 @@
         <xdr:cNvPr id="57" name="STOWAGE_PLAN_DEFAULT_SHAPE_160426">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E05A5C7-14DB-4922-B181-A2182C6478C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C1F7AAE-9627-444C-9E2E-7BB493B3BA4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8074,7 +8074,7 @@
         <xdr:cNvPr id="58" name="STOWAGE_PLAN_DEFAULT_SHAPE_162806">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F7ADC3F-036B-4ECB-AE5D-A2EA9F544676}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A38B2731-DF1E-4D3F-BC46-6548B9196E91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8140,7 +8140,7 @@
         <xdr:cNvPr id="59" name="STOWAGE_PLAN_DEFAULT_SHAPE_646523">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA3A3A5B-4C3E-4789-8736-B91FD8D32470}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC5254FE-C5BF-4B85-ADC2-EC14E41BC77D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8262,7 +8262,7 @@
         <xdr:cNvPr id="60" name="STOWAGE_PLAN_DEFAULT_SHAPE_410033">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94D454BE-4BEC-4994-BC9A-A4B391B35124}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23A9EF7A-6E9C-4706-BEAC-DD2964E2C402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8328,7 +8328,7 @@
         <xdr:cNvPr id="61" name="STOWAGE_PLAN_DEFAULT_SHAPE_412726">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B2B690C-2CE1-4583-ADD4-01B69D06FC17}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{065A2477-1584-4FA4-9E98-57295D157DBF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8422,7 +8422,7 @@
         <xdr:cNvPr id="62" name="STOWAGE_PLAN_DEFAULT_SHAPE_712660">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91695918-01FC-45C2-A65D-29C00D0C9CC5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7093DE38-E0D7-4C1C-ADE1-4C9F04765DDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8478,7 +8478,7 @@
         <xdr:cNvPr id="63" name="STOWAGE_PLAN_DEFAULT_SHAPE_326174">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A3B4CDE-C081-4731-865B-DE9B4158BF34}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{624CFC61-8141-4CC7-9F9F-268B88DC4E95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8534,7 +8534,7 @@
         <xdr:cNvPr id="64" name="STOWAGE_PLAN_DEFAULT_SHAPE_633116">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E327603-BCE3-4C7B-8A28-4739FAF50F34}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4C5518A-DB73-48A7-A71C-C3340FDE0469}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8590,7 +8590,7 @@
         <xdr:cNvPr id="65" name="STOW_DIRECTION_20201021231228_DRW">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC5236FA-6849-4931-9FBD-5F4C0E0E03C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16981ECB-9F87-4382-91EB-E03130868030}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8670,7 +8670,7 @@
         <xdr:cNvPr id="66" name="STOW_DIRECTION_20201021231242_DRW">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{539F05C2-5024-4122-982B-FF3C88BC0B3E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C924A47C-050F-4C21-B3AB-45EA96BC543C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8750,7 +8750,7 @@
         <xdr:cNvPr id="67" name="STOW_DIRECTION_20201021231253_DRW">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D459D1B-D1D8-41CD-A3AA-CE123B1FAA50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E04F389D-9BFD-489A-9D27-80E901966152}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8830,7 +8830,7 @@
         <xdr:cNvPr id="68" name="STOW_DIRECTION_20201021231242_DRW">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD244699-4BA3-49BB-8829-6B1232E7B511}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FF181E6-39E0-4AE1-9DFB-996D740E3FBF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8910,7 +8910,7 @@
         <xdr:cNvPr id="69" name="STOW_DIRECTION_20201021231228_DRW">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4F1983B-6A72-4C74-B3C0-4E8FF74730C8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AFC8376-BE9B-4DC2-850C-CF00E64EA1AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8990,7 +8990,7 @@
         <xdr:cNvPr id="70" name="STOW_DIRECTION_20201021231712_DRW">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{442FE651-16BF-4B3C-A22B-BA48C7008933}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC267351-ECC2-4FD6-8C1B-0EB98ECD9496}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9070,7 +9070,7 @@
         <xdr:cNvPr id="71" name="STOW_DIRECTION_20201021231727_DRW">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B67CE29-DE97-49EE-972C-E904195191F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D33DEB20-C57F-4DC7-89F8-22AE860A318A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9150,7 +9150,7 @@
         <xdr:cNvPr id="72" name="STOW_DIRECTION_20201021231242_DRW">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86A67ABD-C920-4220-89BE-AF1D24FBBD3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E97572BC-BBC5-4BE5-A7FF-70885244D593}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9230,7 +9230,7 @@
         <xdr:cNvPr id="73" name="STOW_DIRECTION_20201021231242_DRW">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A22F0164-AA08-41F8-9B66-B311DB28D236}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B65D3FF1-CA3E-4E37-A53D-B284B020C788}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9310,7 +9310,7 @@
         <xdr:cNvPr id="74" name="STOW_DIRECTION_20201021231242_DRW">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1508E83F-3E07-4867-8D34-5525E5E058F8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE591873-AE78-4792-9590-8CAEEE2C3DA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9390,7 +9390,7 @@
         <xdr:cNvPr id="75" name="STOWAGE_PLAN_DEFAULT_SHAPE_583301">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85743D3A-86F0-4ADF-B11F-EDA60B90BC06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B49623E6-7B85-4F77-B11B-1C59A0C8F7B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9481,7 +9481,7 @@
         <xdr:cNvPr id="76" name="STOWAGE_PLAN_DEFAULT_SHAPE_80707">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC0518BF-15E0-4733-9879-3086150332FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE0040E3-34C1-4341-B727-EC2D91528461}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9572,7 +9572,7 @@
         <xdr:cNvPr id="77" name="STOWAGE_PLAN_DEFAULT_SHAPE_457926">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBAF0324-24B7-424B-8B79-93581780C19F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BC5EF49-FD2D-4B93-BF19-5D5EDB0030D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9663,7 +9663,7 @@
         <xdr:cNvPr id="78" name="STOWAGE_PLAN_DEFAULT_SHAPE_905640">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{706384E2-93C1-4B96-8B2C-527F90D2C53D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB63C826-AE55-4945-A1E9-DC006473908E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9729,7 +9729,7 @@
         <xdr:cNvPr id="79" name="STOWAGE_PLAN_DEFAULT_SHAPE_261343">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1261DA5-DA1D-4CFB-9D2E-78625EFC7F90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BC8AD38-E026-4D46-A58A-07BB119C3ACA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9842,7 +9842,7 @@
         <xdr:cNvPr id="80" name="STOWAGE_PLAN_DEFAULT_SHAPE_785134">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87E53374-252B-4E3D-8EAC-8487F6FC4134}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{604CFA30-E628-41DA-8013-1DFA672837B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9897,7 +9897,7 @@
         <xdr:cNvPr id="81" name="STOWAGE_PLAN_DEFAULT_SHAPE_378865">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29B78D19-5958-42DF-A990-018CC6A90FF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E4A0C99-1A56-478E-8C0D-F680C00198F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9963,7 +9963,7 @@
         <xdr:cNvPr id="82" name="STOWAGE_PLAN_DEFAULT_SHAPE_289637">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2A1C0E5-95CF-413C-8041-BA1B702DCA2F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D0AF577-60D6-4CFA-9863-A7B4207E8B15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10091,7 +10091,7 @@
         <xdr:cNvPr id="83" name="STOWAGE_PLAN_DEFAULT_SHAPE_919286">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C8450C4-F738-40F1-AB02-81405E1FE64E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0387A7D3-6A93-4CF8-B40B-B16BFD8A2197}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10142,7 +10142,7 @@
         <xdr:cNvPr id="84" name="STOWAGE_PLAN_DEFAULT_SHAPE_631680">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17613DDC-98D6-4C81-B2C7-B5E90F9BE045}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3ADDE47-E4A5-4B8E-BCAB-FEDE4AC04137}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10208,7 +10208,7 @@
         <xdr:cNvPr id="85" name="STOWAGE_PLAN_DEFAULT_SHAPE_627580">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5291D86-FC8C-4577-8A2D-1C3C692B7FEE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28302359-3819-4C5D-9022-92CDF844F7AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10309,7 +10309,7 @@
         <xdr:cNvPr id="86" name="STOWAGE_PLAN_DEFAULT_SHAPE_428414">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5D13263-F537-4FAC-A1B5-F5F886E20DEF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A60CD1A1-5C8C-4678-8F20-80509826A71B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10375,7 +10375,7 @@
         <xdr:cNvPr id="87" name="STOWAGE_PLAN_DEFAULT_SHAPE_560984">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDAE9485-255F-4C69-B659-F931C5B19F73}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{575FF990-C036-4723-B656-01718FEA4FA3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10454,7 +10454,7 @@
         <xdr:cNvPr id="88" name="STOWAGE_PLAN_DEFAULT_SHAPE_694416">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DA87702-43CE-492B-98EB-E29DAC299113}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18DBE325-332A-48FE-AC84-23043FDFB380}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10509,7 +10509,7 @@
         <xdr:cNvPr id="89" name="STOWAGE_PLAN_DEFAULT_SHAPE_913627">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A9CAC8F-4B7D-429B-ABC1-676F99E9337A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E19A32E2-7AB9-43F0-863C-995D221B6E09}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10566,7 +10566,7 @@
         <xdr:cNvPr id="90" name="STOWAGE_PLAN_DEFAULT_SHAPE_834734">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A2710B2-590A-4F44-81A7-D8573B058128}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9190BAE-3324-4CE2-AE4E-3ED8790CE7B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10621,7 +10621,7 @@
         <xdr:cNvPr id="91" name="STOWAGE_PLAN_DEFAULT_SHAPE_22627">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB5842E9-4F4B-44D7-8570-089B9332E09D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F721848-C4F7-4E6E-A214-66BCB1CF936F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10678,7 +10678,7 @@
         <xdr:cNvPr id="92" name="STOWAGE_PLAN_DEFAULT_SHAPE_543307">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E962AEA9-D1AD-40AC-AEF7-CE2D6113290B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B14FC22-1D3F-45E3-AE8D-221A89ACC4F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10733,7 +10733,7 @@
         <xdr:cNvPr id="93" name="STOWAGE_PLAN_DEFAULT_SHAPE_916073">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96400732-72AA-483B-BFA4-F7D5EC8DECD5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D1D3DDC-A27F-440F-9E8E-578F6224D6D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10790,7 +10790,7 @@
         <xdr:cNvPr id="94" name="STOWAGE_PLAN_DEFAULT_SHAPE_430219">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48BC6DC1-F7DC-4586-AEFD-A1983E42769B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2360AB60-0158-4D31-BE3C-8CA83169E3CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10845,7 +10845,7 @@
         <xdr:cNvPr id="95" name="STOWAGE_PLAN_DEFAULT_SHAPE_677880">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67346225-B888-45F4-AF0F-D31044D3694D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FDF931B-BD91-4DD9-971E-353AE62571A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10902,7 +10902,7 @@
         <xdr:cNvPr id="96" name="Rectangle 710" descr="50%">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91F1FB9E-9CF1-48ED-8E36-E39CD7AB1EE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{336E41BD-A1E9-4E7C-830F-0112F123BF03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10987,7 +10987,7 @@
         <xdr:cNvPr id="97" name="Rectangle 710" descr="50%">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3011314B-6DF3-45AC-98B4-AAFC0D728AFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CD7A0F5-4D85-4B75-BE18-15B2B7B036D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11053,7 +11053,7 @@
         <xdr:cNvPr id="98" name="Rectangle 710" descr="50%">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{634B385E-2DEA-486A-BC47-FC66B1233C40}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C39128E6-9FEB-45C7-8DDD-8395FCC213F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11119,7 +11119,7 @@
         <xdr:cNvPr id="99" name="STOWAGE_PLAN_DEFAULT_SHAPE_428414">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{885723F9-A67E-4A52-81EA-013A15F4EC7A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{754E0330-B37A-443D-B7F3-A8D35B8F5CBB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11185,7 +11185,7 @@
         <xdr:cNvPr id="100" name="Rectangle 710" descr="50%">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{028854B2-8E73-4CD5-8AD8-32065E5360FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7734B0FC-8325-4D09-8A15-B99081976909}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11251,7 +11251,7 @@
         <xdr:cNvPr id="101" name="Rectangle 710" descr="50%">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C907840B-82A5-44EC-B4F0-230573A7547A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5072DF41-2D5C-4D4E-8634-F06B1504B38B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11317,7 +11317,7 @@
         <xdr:cNvPr id="102" name="STOW_DIRECTION_20201026082459_FRE">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{781E36F7-43A2-4A5E-9204-360C5401266E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{750828D0-B97F-4452-86E8-19F61E115A62}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11397,7 +11397,7 @@
         <xdr:cNvPr id="103" name="PKG_BOX_20201026232230_PKGS">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1F74C85-9AEC-4E1E-8647-2D613E2D3B81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDEAD6FD-38E6-4614-A2F1-5E3E2B4B1E81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11490,7 +11490,7 @@
         <xdr:cNvPr id="104" name="PKG_BOX_20201026232900_PKGS">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{463BF861-988D-4F5D-8B0D-B3407CE0F4DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7325C0E6-4C22-43E7-ABE6-8F0CC0798FAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11567,20 +11567,20 @@
       <xdr:col>24</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>199867</xdr:rowOff>
+      <xdr:rowOff>206568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>172644</xdr:rowOff>
+      <xdr:rowOff>165941</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="105" name="PKG_BOX_20201027052509_PKGS">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A12CC7FA-9501-4CDD-BA17-80DE09674869}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFBE972D-121A-4FF1-B9B4-DFE71B97AF70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11588,14 +11588,149 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4902200" y="3657442"/>
-          <a:ext cx="1524000" cy="468077"/>
+          <a:off x="4902200" y="3664143"/>
+          <a:ext cx="1524000" cy="454673"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
             <a:gd name="adj1" fmla="val -17157"/>
             <a:gd name="adj2" fmla="val 115422"/>
           </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="99CCFF">
+            <a:alpha val="90000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="6350">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DRW  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/ LCH</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>12 pkgs  - 25.5 kt</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>206217</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>178994</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="PKG_BOX_20201028080211_PKGS">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4667B1EE-B5A1-4890-8BBA-BFE08B7D17B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9093200" y="3911442"/>
+          <a:ext cx="1524000" cy="468077"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="99CCFF">
@@ -11648,7 +11783,7 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>12 pkgs  - 12.3 kt</a:t>
+            <a:t>3 pkgs - 434.0 kt</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -11678,7 +11813,7 @@
         <xdr:cNvPr id="2" name="STOWAGE_PLAN_DEFAULT_SHAPE_502404" descr="DK5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC2B63AF-E54D-435A-864A-EEF84AE54F5A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D502413F-1D9F-4A20-8AF8-C512EBA23D4B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11750,7 +11885,7 @@
         <xdr:cNvPr id="3" name="STOWAGE_PLAN_DEFAULT_SHAPE_513687">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01F66FCA-47BA-4C6C-86E4-F400076AA7F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{420D098D-CFE9-42C2-97C6-4051C012FBDA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11866,7 +12001,7 @@
         <xdr:cNvPr id="4" name="PKG_BOX_20201019110441_PKGS">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DED711F-4EE4-4225-9E83-9055A74E366F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4E33983-8559-4858-9B75-5B0E3C14F01D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11948,7 +12083,7 @@
         <xdr:cNvPr id="5" name="STOWAGE_PLAN_DEFAULT_SHAPE_404794">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{587F7808-E6F9-4EDC-A720-0C6C064ED13C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7883707D-2585-4A02-B355-C5F04FD8FA3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12031,7 +12166,7 @@
         <xdr:cNvPr id="6" name="STOWAGE_PLAN_DEFAULT_SHAPE_269705">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F09CE66-B4C9-4094-8A49-DF291B5CDA0A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDA7C367-5A8D-4AF0-B2AF-EC1519047227}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12114,7 +12249,7 @@
         <xdr:cNvPr id="7" name="STOWAGE_PLAN_DEFAULT_SHAPE_55588">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5666016-B2E2-4AE7-B350-953310029CAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD516E86-7184-41B1-81DA-2BBBFF24D815}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12191,7 +12326,7 @@
         <xdr:cNvPr id="8" name="STOWAGE_PLAN_DEFAULT_SHAPE_243821">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{579CC56F-7A77-4437-A0F7-CA804164FBA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35A5E96D-5BB7-4270-AC78-F2D3E8C26A5F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12240,7 +12375,7 @@
         <xdr:cNvPr id="9" name="STOWAGE_PLAN_DEFAULT_SHAPE_978981">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBED8D0F-96BC-4381-9C1F-721B4390BCBC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA6D1792-EF6B-4F0D-9029-63456AE986AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12311,7 +12446,7 @@
         <xdr:cNvPr id="10" name="STOWAGE_PLAN_DEFAULT_SHAPE_390253">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0839A52A-52BF-4762-A7D7-79E15514C0E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C4A56AB-7660-40A9-83BC-CA7ACFD9F3C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12360,7 +12495,7 @@
         <xdr:cNvPr id="11" name="STOWAGE_PLAN_DEFAULT_SHAPE_364959">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F574BC89-FD37-4438-9C5C-21305F6AC5FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{711A943D-B6D8-4609-A587-5E24C40EFBF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12445,7 +12580,7 @@
         <xdr:cNvPr id="12" name="STOWAGE_PLAN_DEFAULT_SHAPE_474412">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BF5C572-B8E2-47B7-8583-FEC8B3F433A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{445ED1C6-251C-413A-B5FD-8B73B94BA28D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12500,7 +12635,7 @@
         <xdr:cNvPr id="13" name="STOWAGE_PLAN_DEFAULT_SHAPE_257242">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDD7FB2F-BF7C-4741-8E28-40AE7D769746}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A859E9-D78B-4F85-8E4B-B4F47DD6A7FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12555,7 +12690,7 @@
         <xdr:cNvPr id="14" name="STOWAGE_PLAN_DEFAULT_SHAPE_628689">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADFD2883-02F9-4D23-A07E-E90A79B52B13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C2DE051-A533-41BB-9264-B5E3B21AD9E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12610,7 +12745,7 @@
         <xdr:cNvPr id="15" name="STOWAGE_PLAN_DEFAULT_SHAPE_542017">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A5B5852-85AD-4714-B9B4-4EDE6A0C4690}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D952A16-360B-4B00-A137-7E7F48FBDA4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12689,7 +12824,7 @@
         <xdr:cNvPr id="16" name="STOWAGE_PLAN_DEFAULT_SHAPE_428414">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{578A2322-F758-46C9-868D-D406CCC37E54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{720480D4-58EC-481C-9F19-B399C1790BF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12755,7 +12890,7 @@
         <xdr:cNvPr id="17" name="Rectangle 710" descr="50%">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39B3AA7D-58D1-42DE-9A68-0B43BA5549DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{762D25E4-F2F0-4F41-9604-F97552C5196F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12826,7 +12961,7 @@
         <xdr:cNvPr id="2" name="STOWAGE_PLAN_DEFAULT_SHAPE_156287">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{410D508A-C8B3-46E0-8258-7E58CD3161E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D3754C4-61AA-4641-BF36-F8F64D4D87F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12898,7 +13033,7 @@
         <xdr:cNvPr id="3" name="STOWAGE_PLAN_DEFAULT_SHAPE_938452">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DA4A157-0A47-4B2B-8425-4E70526D93A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74D291A7-D3D9-4681-9A2C-D58F2EAF5F58}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12972,7 +13107,7 @@
         <xdr:cNvPr id="4" name="STOWAGE_PLAN_DEFAULT_SHAPE_654434">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32C83E45-85E7-4723-A5FC-50C3EB3BDF7C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{960104DE-0644-44F4-AC1F-ACBCA885281A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13168,7 +13303,7 @@
         <xdr:cNvPr id="5" name="STOWAGE_PLAN_DEFAULT_SHAPE_506037">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B6F2B96-1759-4D73-80F5-CF7FB7AB6E55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DF00E0F-3620-4952-AF36-36F44BB67919}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13275,7 +13410,7 @@
         <xdr:cNvPr id="6" name="STOWAGE_PLAN_DEFAULT_SHAPE_390433">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2723BA6D-4BEE-48E2-8B1C-0CE0AE3CC21E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D0F53E9-0927-4CEE-B17E-2F3DB3A59234}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13343,7 +13478,7 @@
         <xdr:cNvPr id="7" name="STOWAGE_PLAN_DEFAULT_SHAPE_107365">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D862314-B7E8-4133-A678-5A9E1470004B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DAA3109-8A1A-4321-9BBC-136DD9DC237F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13411,7 +13546,7 @@
         <xdr:cNvPr id="8" name="STOWAGE_PLAN_DEFAULT_SHAPE_783917">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{763AC684-0A62-4957-9DA7-D892900427EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABA69AA1-B380-4947-BF49-0B7CBB2E33E3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13643,7 +13778,7 @@
         <xdr:cNvPr id="9" name="STOWAGE_PLAN_DEFAULT_SHAPE_459595">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE5A79F0-9614-43EB-A625-CF7524DBBA7C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36D8ED85-B16C-494E-BE79-D70222BC6056}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13768,7 +13903,7 @@
         <xdr:cNvPr id="10" name="STOWAGE_PLAN_DEFAULT_SHAPE_753613">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10097446-B523-474F-8BDB-D9EA87232CF8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0D59AD1-2068-477A-AB0D-B2428322B859}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13848,7 +13983,7 @@
         <xdr:cNvPr id="11" name="STOWAGE_PLAN_DEFAULT_SHAPE_596035">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CB88BC0-FC93-466F-9C2B-07B40A4729E5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36E6A9EE-16D6-478B-8792-9EED1DE1A5B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13921,7 +14056,7 @@
         <xdr:cNvPr id="12" name="STOWAGE_PLAN_DEFAULT_SHAPE_832647">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E136EC2D-69A2-48F2-A744-ED699F097AAC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{654EFD43-08CB-4950-9C3A-7314FEDB5983}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14091,7 +14226,7 @@
         <xdr:cNvPr id="13" name="STOWAGE_PLAN_DEFAULT_SHAPE_18757">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A96F0825-96DF-401C-959A-E94E4650F189}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F171246-ACCE-49D3-809A-059B4C3B9FBE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14159,7 +14294,7 @@
         <xdr:cNvPr id="14" name="STOWAGE_PLAN_DEFAULT_SHAPE_210348">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D13A442F-8EAC-4911-AC96-9BD9B10CF9EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CA5D3BB-A4B2-4E15-8D3D-0F7A5204FA71}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14244,7 +14379,7 @@
         <xdr:cNvPr id="2" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F51322A9-22EC-41FA-A4B7-97D6C5E3B7AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C416ABE5-401C-4BB6-A57C-4D79FB376C07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14293,7 +14428,7 @@
         <xdr:cNvPr id="3" name="Line 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13FC8013-CF48-43DF-914D-6395D77002D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D73BFD96-77B2-46B2-A6EF-E71AD86D9BBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14348,7 +14483,7 @@
         <xdr:cNvPr id="4" name="Freeform 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7635F5E5-1CDB-4677-BFA4-16E152FE7B00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{062C4006-F0D7-43DD-91BA-238B22118BCF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14472,7 +14607,7 @@
         <xdr:cNvPr id="5" name="Freeform 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48344A9E-1F2F-429E-B2FC-5857FE0D57B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5DCAFA2-4C84-4827-BD0E-F27F6847BF57}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14650,7 +14785,7 @@
         <xdr:cNvPr id="6" name="Freeform 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE54F927-1BA0-4F0F-981D-EA3D213AC750}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88F39F90-23E0-4552-9416-5A78FF8454B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14763,7 +14898,7 @@
         <xdr:cNvPr id="7" name="Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FC21EF6-5D13-4F1C-AE63-9552C30504B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DCF698E-81AC-44FE-8F30-F803FB2C5FC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14812,7 +14947,7 @@
         <xdr:cNvPr id="8" name="Rectangle 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{308AB681-67B3-4174-B299-51A47B309921}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FC5D5D3-61AD-4710-B69A-410379849D21}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14861,7 +14996,7 @@
         <xdr:cNvPr id="9" name="Line 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA0F6213-A1FF-4562-9ADC-460080FFA81C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{194570F8-FCB7-4CD2-8E4B-062E50C7822C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14915,7 +15050,7 @@
         <xdr:cNvPr id="10" name="Text Box 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF46CA00-B37F-4B16-B898-90CF402B1F82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B42C535-B393-4A6A-AE5C-E9D9FE0191D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14978,7 +15113,7 @@
         <xdr:cNvPr id="11" name="Line 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFA0564E-1C5F-4395-92B6-C149AFBEC2C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89CCF5B3-85CE-4FE6-8F97-615FB72E4C38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15033,7 +15168,7 @@
         <xdr:cNvPr id="12" name="Line 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4F6D499-C098-431A-9EAB-72C8881F2EC4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37FAC2B9-152A-43B6-8991-85CD438EF7F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15088,7 +15223,7 @@
         <xdr:cNvPr id="13" name="Line 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E0FE7FD-9BEB-4390-94F4-9CE97FAA8410}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF8F4A1F-031D-442D-8077-538BD8ADCC39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15143,7 +15278,7 @@
         <xdr:cNvPr id="14" name="Line 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEE733F3-FF5B-4198-A7E1-565B36181CA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DB62472-7F24-41F4-A4D7-5F3A70810E51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15197,7 +15332,7 @@
         <xdr:cNvPr id="15" name="Line 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{477685E9-8E44-41E5-90F0-FE89CBFE80AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E29D4EAA-4ED4-4284-B34C-15638A93C628}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15251,7 +15386,7 @@
         <xdr:cNvPr id="16" name="Text Box 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B453D369-0DC6-4922-948B-989875ECBC55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{682B1CB9-4AFD-44F1-977B-A258D92F0700}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15314,7 +15449,7 @@
         <xdr:cNvPr id="17" name="Line 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{532FECB8-01B2-47BB-81EB-F0000B84D46B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E311097-2812-402E-A7CC-EC210FEC6DDA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15368,7 +15503,7 @@
         <xdr:cNvPr id="18" name="Line 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C6A0204-A90E-44A7-BA8C-CF16AEECDDEE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FC7F831-E78E-4C74-9804-ECC7523A4CF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15422,7 +15557,7 @@
         <xdr:cNvPr id="19" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{702B73D8-E7A6-4844-8442-8938CB169710}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{171E02A2-4C5F-4F14-A288-95AA38CAAD5A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15476,7 +15611,7 @@
         <xdr:cNvPr id="20" name="Freeform 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED603C99-F33E-44BC-B388-476B49BD2313}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C2E91F-F7F7-4959-9331-2435BDBB4B2F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15600,7 +15735,7 @@
         <xdr:cNvPr id="21" name="Line 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B306AD11-45B8-462A-8C16-C00AD36DB1FC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06F782E7-876B-4D5C-AC43-B45A51DC09BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15655,7 +15790,7 @@
         <xdr:cNvPr id="22" name="Line 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32794B29-9815-420A-BB0F-3A70829B9649}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE7DBAF9-B87C-4A2E-AE83-3C05FDDD14F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15710,7 +15845,7 @@
         <xdr:cNvPr id="23" name="Line 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FF65850-03DB-4EEB-BC61-2396BC5CF57C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A6A1107-8499-4A61-99A2-A1EB81255258}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15765,7 +15900,7 @@
         <xdr:cNvPr id="24" name="Line 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63C8622A-8E25-4130-9D68-014BE7CAE6A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2173F190-DE6B-4E96-B2AC-09C4642EC6D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15820,7 +15955,7 @@
         <xdr:cNvPr id="25" name="AutoShape 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E128670-0960-4C7C-A0B6-0D6A30BD8061}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8CA2AFA-D03B-4798-96D6-368A2A0730C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15871,7 +16006,7 @@
         <xdr:cNvPr id="26" name="AutoShape 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D15DAC8A-2A03-473C-AC8C-0CB50AFFB35C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7760437-1D63-4A13-8FC5-31B0C5CA5DF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15922,7 +16057,7 @@
         <xdr:cNvPr id="27" name="Line 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B47EC189-D0A3-4634-BF62-A60BE68BC7A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B67B9EA7-0D8A-4C1B-B098-290C67B8DF92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15976,7 +16111,7 @@
         <xdr:cNvPr id="28" name="Text Box 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00F5287C-4187-41B8-90F7-76C33EFB4243}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{711BB8DE-3B74-4C8C-ABEA-8A866B68BFC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16039,7 +16174,7 @@
         <xdr:cNvPr id="29" name="Text Box 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D7AD507-3F2E-408C-864F-D1E4D986AFAC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2F7EFC5-B99F-4643-A8F1-9F6A98876133}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16102,7 +16237,7 @@
         <xdr:cNvPr id="30" name="Text Box 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB43F278-6338-4445-A610-1EF058B16E89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B514F26-2789-4F1A-960D-950F44FA1546}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16165,7 +16300,7 @@
         <xdr:cNvPr id="31" name="Text Box 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7270E0C5-A72D-4CCD-B691-3AFF3E3D4071}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CFAF573-897A-48CF-AEEC-7065DE3C81F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16228,7 +16363,7 @@
         <xdr:cNvPr id="32" name="Line 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1A605D4-58B0-47EB-85A2-806BA8127516}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{065AF27E-01C3-4E5F-8223-662E14565F2F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16282,7 +16417,7 @@
         <xdr:cNvPr id="33" name="Line 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED01027B-39D5-4E80-ABCC-69A48E00B9E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{523BD94A-8F6B-489D-87BD-532752FABEB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16337,7 +16472,7 @@
         <xdr:cNvPr id="34" name="Line 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17901C54-118D-452B-ABC2-F10B67A4D9C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61AA5D04-47B4-46E5-9D64-D6FE5DF10514}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16392,7 +16527,7 @@
         <xdr:cNvPr id="35" name="Line 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DC9693B-E60D-425D-8DBC-8ED7A09DAB04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90FE283F-FE7A-461C-8732-B5D482ECE770}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16446,7 +16581,7 @@
         <xdr:cNvPr id="36" name="Line 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAF38DAA-25EE-4420-8E44-0F9988ABC77F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3ADF58E-8B3A-410A-8699-FFAA7E6F2512}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16501,7 +16636,7 @@
         <xdr:cNvPr id="37" name="Line 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E1831C1-CB1B-48A5-B613-6BF345D1AEFC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35D44D27-19B8-4051-BBFE-2C702313D9B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16556,7 +16691,7 @@
         <xdr:cNvPr id="38" name="Line 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{573CE693-A29E-4F41-847D-7CE3CD1F20D1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27DAEA02-4275-40AD-9232-E87B32BD9259}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16610,7 +16745,7 @@
         <xdr:cNvPr id="39" name="Line 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29B7F83A-34CC-4660-943E-5D854D79A09C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4504B326-D402-4C22-8A1D-2DB5FFDAAB85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16664,7 +16799,7 @@
         <xdr:cNvPr id="40" name="Text Box 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{650DC883-3468-422B-8A10-5858041156D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{060767A8-F3A2-4FDE-B0B1-3B77A8269E1F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16727,7 +16862,7 @@
         <xdr:cNvPr id="41" name="Line 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1920C04-A3D4-4314-A037-A1C0169F2F88}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2118B793-84A3-473F-89E5-7A75D735ED2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16781,7 +16916,7 @@
         <xdr:cNvPr id="42" name="Line 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66093C0A-21F1-472D-8AB7-6E33198D1175}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4351801-5191-4EE7-B3BD-1E26D3F7ACF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16835,7 +16970,7 @@
         <xdr:cNvPr id="43" name="Text Box 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E315A06-DEC2-487F-8029-78BB6D3FC467}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93AAD6AD-B660-4E58-A012-13810054547F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16898,7 +17033,7 @@
         <xdr:cNvPr id="44" name="Line 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{289E37A1-ED5C-4AF7-B6A4-C6C6182A66D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE363993-3964-4C99-8A6D-5DA66A21F081}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16952,7 +17087,7 @@
         <xdr:cNvPr id="45" name="Line 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{175A9E6C-42C5-4B59-9F37-0C23E77916F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393C8FE0-E945-4483-875B-15B573193245}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17006,7 +17141,7 @@
         <xdr:cNvPr id="46" name="Line 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAF60489-3C23-4F15-ABB1-98A20652AD3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40CCBA2E-C66D-4647-A889-1FEB42DE734D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17061,7 +17196,7 @@
         <xdr:cNvPr id="47" name="Text Box 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FBD7520-1F46-4BD9-A817-BE83598C63F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{711DD0B6-AC63-4FBC-8A1B-AAC5F02448BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17124,7 +17259,7 @@
         <xdr:cNvPr id="48" name="AutoShape 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23387456-021D-4EFD-94F2-D6E3AFF45F51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B447A17-E542-48C3-8DEC-D8A108E9224C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17175,7 +17310,7 @@
         <xdr:cNvPr id="49" name="AutoShape 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E815B969-AAD9-467B-ACB0-26F52FA1A8EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F4F6BAA-3615-4AC5-86A2-562AE7249320}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17226,7 +17361,7 @@
         <xdr:cNvPr id="50" name="AutoShape 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF259F10-07B2-4079-ABC3-766494A933FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8F9E751-978F-4554-8F85-FB1F44646349}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17277,7 +17412,7 @@
         <xdr:cNvPr id="51" name="AutoShape 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5783464C-587A-4FD9-BB04-EC09713DB5EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58657E78-FD22-4A16-A2B9-E6D9AB7B7267}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17328,7 +17463,7 @@
         <xdr:cNvPr id="52" name="Text Box 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAA35EF2-1A6D-4821-A996-43DF2F0995A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68040AF8-245A-4AD7-BFA5-57DE3265CE07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17391,7 +17526,7 @@
         <xdr:cNvPr id="53" name="Line 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87A024B4-E0DA-4B9A-8B55-2424C4F23974}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ACC9768-EB3B-4B13-812E-46F9CBDD4EA4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17445,7 +17580,7 @@
         <xdr:cNvPr id="54" name="Text Box 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B62018C0-05AC-47B9-A3BA-A61B46AF6C43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E2AC1AC-9A5D-4FC6-9A16-5768B6EDBDCD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17506,7 +17641,7 @@
         <xdr:cNvPr id="55" name="Line 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0974D4B5-597C-485F-8314-D2CC9F5D6551}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BF507AB-45A7-4211-9580-214F82FB16C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17560,7 +17695,7 @@
         <xdr:cNvPr id="56" name="Text Box 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6A8C5EE-4100-4C34-A22B-727F73C3F338}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0603B0EC-0B68-4A2A-83FF-B2CB4D9F498B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17621,7 +17756,7 @@
         <xdr:cNvPr id="57" name="Line 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54AE8017-A30C-44E5-86B7-30B07C637D35}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{285EEBB4-8EC8-4247-A544-4C6B1C6DFF82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17724,7 +17859,7 @@
             <v>89</v>
           </cell>
           <cell r="CA40">
-            <v>45</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="41">
@@ -17735,7 +17870,7 @@
             <v>12.3</v>
           </cell>
           <cell r="BP41">
-            <v>15</v>
+            <v>25</v>
           </cell>
           <cell r="CA41">
             <v>12.3</v>
@@ -17760,6 +17895,16 @@
         <row r="44">
           <cell r="AE44">
             <v>152.30000000000001</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="CA49">
+            <v>55</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="CA50">
+            <v>12.3</v>
           </cell>
         </row>
         <row r="68">
@@ -18096,13 +18241,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82062C19-0541-49E3-83E7-6F01A6CB5B4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65BE3C76-68AF-4ABA-8D4A-FD3FD451F336}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:DF145"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11:V11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -18842,7 +18989,7 @@
       <c r="BM9" s="51"/>
       <c r="BN9" s="51"/>
       <c r="BO9" s="50">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BP9" s="50"/>
       <c r="BQ9" s="50"/>
@@ -18856,42 +19003,42 @@
       <c r="BW9" s="51"/>
       <c r="BX9" s="51"/>
       <c r="BY9" s="50">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="BZ9" s="50"/>
       <c r="CA9" s="50"/>
       <c r="CB9" s="50"/>
       <c r="CC9" s="50"/>
       <c r="CD9" s="51">
-        <v>12.3</v>
+        <v>24.6</v>
       </c>
       <c r="CE9" s="51"/>
       <c r="CF9" s="51"/>
       <c r="CG9" s="51"/>
       <c r="CH9" s="52"/>
       <c r="CI9" s="53">
-        <v>465</v>
+        <v>540</v>
       </c>
       <c r="CJ9" s="54"/>
       <c r="CK9" s="54"/>
       <c r="CL9" s="54"/>
       <c r="CM9" s="55"/>
       <c r="CN9" s="56">
-        <v>799.9</v>
+        <v>812.2</v>
       </c>
       <c r="CO9" s="57"/>
       <c r="CP9" s="57"/>
       <c r="CQ9" s="57"/>
       <c r="CR9" s="58"/>
       <c r="CS9" s="49">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="CT9" s="50"/>
       <c r="CU9" s="50"/>
       <c r="CV9" s="50"/>
       <c r="CW9" s="50"/>
       <c r="CX9" s="51">
-        <v>35.299999999999997</v>
+        <v>482.5</v>
       </c>
       <c r="CY9" s="51"/>
       <c r="CZ9" s="51"/>
@@ -19271,7 +19418,9 @@
       </c>
       <c r="O13" s="114"/>
       <c r="P13" s="117"/>
-      <c r="Q13" s="118"/>
+      <c r="Q13" s="118">
+        <v>100</v>
+      </c>
       <c r="R13" s="119"/>
       <c r="S13" s="119"/>
       <c r="T13" s="119">
@@ -20570,7 +20719,7 @@
       <c r="O25" s="315"/>
       <c r="P25" s="315"/>
       <c r="Q25" s="32">
-        <v>481</v>
+        <v>581</v>
       </c>
       <c r="R25" s="33"/>
       <c r="S25" s="34"/>
@@ -20648,7 +20797,7 @@
       <c r="BM25" s="317"/>
       <c r="BN25" s="318"/>
       <c r="BO25" s="316">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="BP25" s="317"/>
       <c r="BQ25" s="317"/>
@@ -20662,14 +20811,14 @@
       <c r="BW25" s="317"/>
       <c r="BX25" s="318"/>
       <c r="BY25" s="316">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="BZ25" s="317"/>
       <c r="CA25" s="317"/>
       <c r="CB25" s="317"/>
       <c r="CC25" s="318"/>
       <c r="CD25" s="319">
-        <v>12.3</v>
+        <v>24.6</v>
       </c>
       <c r="CE25" s="320"/>
       <c r="CF25" s="320"/>
@@ -20711,7 +20860,7 @@
       <c r="AN26" s="323"/>
       <c r="AO26" s="323"/>
       <c r="AP26" s="324">
-        <v>579</v>
+        <v>679</v>
       </c>
       <c r="AQ26" s="325"/>
       <c r="AR26" s="325"/>
@@ -20758,28 +20907,28 @@
       <c r="CG26" s="323"/>
       <c r="CH26" s="327"/>
       <c r="CI26" s="324">
-        <v>649</v>
+        <v>724</v>
       </c>
       <c r="CJ26" s="325"/>
       <c r="CK26" s="325"/>
       <c r="CL26" s="325"/>
       <c r="CM26" s="326"/>
       <c r="CN26" s="328">
-        <v>1387.4</v>
+        <v>1399.7000000000003</v>
       </c>
       <c r="CO26" s="329"/>
       <c r="CP26" s="329"/>
       <c r="CQ26" s="329"/>
       <c r="CR26" s="330"/>
       <c r="CS26" s="324">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="CT26" s="325"/>
       <c r="CU26" s="325"/>
       <c r="CV26" s="325"/>
       <c r="CW26" s="326"/>
       <c r="CX26" s="324">
-        <v>95.1</v>
+        <v>542.29999999999995</v>
       </c>
       <c r="CY26" s="325"/>
       <c r="CZ26" s="325"/>
@@ -21859,20 +22008,20 @@
       <c r="BK40" s="386"/>
       <c r="BY40" s="337"/>
       <c r="CA40" s="387">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="CB40" s="362"/>
       <c r="CC40" s="362"/>
       <c r="CD40" s="362"/>
       <c r="CW40" s="379"/>
       <c r="CY40" s="344">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="CZ40" s="345"/>
       <c r="DA40" s="345"/>
       <c r="DB40" s="346"/>
       <c r="DC40" s="1">
-        <v>244</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41" spans="2:107" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
@@ -21932,7 +22081,7 @@
       <c r="BJ41" s="377"/>
       <c r="BK41" s="377"/>
       <c r="BP41" s="387">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="BQ41" s="362"/>
       <c r="BR41" s="362"/>
@@ -22330,15 +22479,21 @@
       <c r="Z49" s="379"/>
       <c r="BB49" s="379"/>
       <c r="BY49" s="337"/>
+      <c r="CA49" s="387">
+        <v>55</v>
+      </c>
+      <c r="CB49" s="362"/>
+      <c r="CC49" s="362"/>
+      <c r="CD49" s="362"/>
       <c r="CW49" s="379"/>
       <c r="CY49" s="344">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="CZ49" s="345"/>
       <c r="DA49" s="345"/>
       <c r="DB49" s="346"/>
       <c r="DC49" s="1">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="2:107" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
@@ -22359,6 +22514,12 @@
       <c r="BL50" s="12"/>
       <c r="BM50" s="12"/>
       <c r="BY50" s="337"/>
+      <c r="CA50" s="394">
+        <v>12.3</v>
+      </c>
+      <c r="CB50" s="362"/>
+      <c r="CC50" s="362"/>
+      <c r="CD50" s="362"/>
       <c r="CG50" s="399"/>
       <c r="CH50" s="400"/>
       <c r="CI50" s="400"/>
@@ -22373,13 +22534,13 @@
       <c r="CR50" s="401"/>
       <c r="CW50" s="379"/>
       <c r="CY50" s="352">
-        <v>0</v>
+        <v>12.3</v>
       </c>
       <c r="CZ50" s="353"/>
       <c r="DA50" s="353"/>
       <c r="DB50" s="354"/>
       <c r="DC50" s="1">
-        <v>0</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="51" spans="2:107" ht="20.100000000000001" customHeight="1" thickTop="1">
@@ -24717,7 +24878,7 @@
     <row r="140" spans="5:107" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="CR140" s="477"/>
       <c r="CT140" s="478">
-        <v>649</v>
+        <v>724</v>
       </c>
       <c r="CU140" s="479"/>
       <c r="CV140" s="479"/>
@@ -24759,7 +24920,7 @@
       <c r="CK141" s="483"/>
       <c r="CR141" s="477"/>
       <c r="CT141" s="484">
-        <v>1387.4</v>
+        <v>1399.7</v>
       </c>
       <c r="CU141" s="485"/>
       <c r="CV141" s="485"/>
@@ -24792,28 +24953,28 @@
         <v>247</v>
       </c>
       <c r="BL142" s="487">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="BM142" s="488"/>
       <c r="BN142" s="488"/>
       <c r="BO142" s="488"/>
       <c r="BP142" s="489"/>
       <c r="BQ142" s="1">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="CG142" s="487">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="CH142" s="488"/>
       <c r="CI142" s="488"/>
       <c r="CJ142" s="488"/>
       <c r="CK142" s="489"/>
       <c r="CL142" s="1">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="CR142" s="490"/>
       <c r="CT142" s="491">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="CU142" s="492"/>
       <c r="CV142" s="492"/>
@@ -24864,18 +25025,18 @@
         <v>158.19999999999999</v>
       </c>
       <c r="CG143" s="496">
-        <v>12.3</v>
+        <v>24.6</v>
       </c>
       <c r="CH143" s="497"/>
       <c r="CI143" s="497"/>
       <c r="CJ143" s="497"/>
       <c r="CK143" s="498"/>
       <c r="CL143" s="1">
-        <v>12.3</v>
+        <v>24.6</v>
       </c>
       <c r="CR143" s="490"/>
       <c r="CT143" s="484">
-        <v>95.1</v>
+        <v>542.29999999999995</v>
       </c>
       <c r="CU143" s="485"/>
       <c r="CV143" s="485"/>
@@ -24933,7 +25094,7 @@
       <c r="Y145" s="494"/>
     </row>
   </sheetData>
-  <mergeCells count="530">
+  <mergeCells count="532">
     <mergeCell ref="K142:O142"/>
     <mergeCell ref="AM142:AQ142"/>
     <mergeCell ref="BL142:BP142"/>
@@ -24968,6 +25129,7 @@
     <mergeCell ref="AD107:AG107"/>
     <mergeCell ref="AV107:AY107"/>
     <mergeCell ref="CY107:DB107"/>
+    <mergeCell ref="CY88:DB88"/>
     <mergeCell ref="J92:P93"/>
     <mergeCell ref="T92:Z92"/>
     <mergeCell ref="AA92:AK92"/>
@@ -24975,38 +25137,39 @@
     <mergeCell ref="BH95:BN97"/>
     <mergeCell ref="CY96:DB96"/>
     <mergeCell ref="CY97:DB97"/>
+    <mergeCell ref="CY79:DB79"/>
     <mergeCell ref="J83:N83"/>
     <mergeCell ref="CY83:DB83"/>
     <mergeCell ref="DC83:DE83"/>
     <mergeCell ref="AO87:AV87"/>
     <mergeCell ref="CY87:DB87"/>
-    <mergeCell ref="CY88:DB88"/>
+    <mergeCell ref="CY70:DB70"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="J74:N74"/>
     <mergeCell ref="AF76:AN77"/>
     <mergeCell ref="AO76:AV76"/>
     <mergeCell ref="BH77:BX78"/>
     <mergeCell ref="BY77:CA78"/>
     <mergeCell ref="CY78:DB78"/>
-    <mergeCell ref="CY79:DB79"/>
+    <mergeCell ref="J65:N65"/>
+    <mergeCell ref="CY65:DB65"/>
     <mergeCell ref="DC65:DE65"/>
     <mergeCell ref="AN68:AV68"/>
     <mergeCell ref="BY68:CJ69"/>
     <mergeCell ref="CY69:DB69"/>
-    <mergeCell ref="CY70:DB70"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="J74:N74"/>
+    <mergeCell ref="CA50:CD50"/>
+    <mergeCell ref="CG50:CR51"/>
+    <mergeCell ref="CY50:DB50"/>
     <mergeCell ref="J56:N56"/>
     <mergeCell ref="CY58:DB58"/>
     <mergeCell ref="AL59:AV60"/>
     <mergeCell ref="CY59:DB59"/>
-    <mergeCell ref="J65:N65"/>
-    <mergeCell ref="CY65:DB65"/>
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="AE43:AG43"/>
     <mergeCell ref="AE44:AG44"/>
     <mergeCell ref="J47:N47"/>
+    <mergeCell ref="CA49:CD49"/>
     <mergeCell ref="CY49:DB49"/>
-    <mergeCell ref="CG50:CR51"/>
-    <mergeCell ref="CY50:DB50"/>
     <mergeCell ref="P41:S41"/>
     <mergeCell ref="BF41:BI41"/>
     <mergeCell ref="BP41:BS41"/>
@@ -25472,7 +25635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307341AD-24F7-48DE-9063-73ED8A35A95E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC5FF56-8B1E-4716-A936-82802384AED8}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -25859,7 +26022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996CE6CB-4BC0-493D-9FF0-F8A3580ECE1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9038FEC-6779-4B7E-AD6C-878FD2C1B66C}">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -25933,13 +26096,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB6D8ACF-5991-41F2-8377-A291BA13F74E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD3992D-3D5B-407B-B47C-4851AEEB45F2}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:BO21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="7" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P13" sqref="P13"/>
+      <selection pane="topRight" activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -26452,7 +26615,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="570">
-        <v>405</v>
+        <v>505</v>
       </c>
       <c r="E7" s="570">
         <v>737.3</v>
@@ -26491,7 +26654,9 @@
       <c r="U7" s="570"/>
       <c r="V7" s="570"/>
       <c r="W7" s="570"/>
-      <c r="X7" s="570"/>
+      <c r="X7" s="570">
+        <v>100</v>
+      </c>
       <c r="Y7" s="570"/>
       <c r="Z7" s="570"/>
       <c r="AA7" s="570"/>
@@ -27461,7 +27626,7 @@
       </c>
       <c r="C21" s="574"/>
       <c r="D21" s="575">
-        <v>503</v>
+        <v>603</v>
       </c>
       <c r="E21" s="575">
         <v>884.9</v>
@@ -27521,7 +27686,7 @@
         <v>0</v>
       </c>
       <c r="X21" s="577">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="Y21" s="577">
         <v>135.30000000000001</v>
@@ -27645,7 +27810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41FF2D1C-28A3-4B2F-B044-8023E66C07F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6918F4-16A7-4D8A-AE92-B4A1796CE8C5}">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>

--- a/080A/ERSH_Stowage Plan Dep. LAEM CHABANG Voy. 080A.xlsx
+++ b/080A/ERSH_Stowage Plan Dep. LAEM CHABANG Voy. 080A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vasat\Desktop\stowage-plan\080A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1E443F-74F0-46DC-8DF3-FDB6F3755B87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24567FF-8FAE-46FE-B939-B0C0C5B25B3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{73750BF2-68AF-4BF7-9ACE-904F91CEFEA3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7D1BF5A6-1A77-4BFC-8FC1-8AD79EE20195}"/>
   </bookViews>
   <sheets>
     <sheet name="Stowage Plan" sheetId="2" r:id="rId1"/>
@@ -285,7 +285,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="115">
   <si>
     <t>"K" LINE</t>
   </si>
@@ -374,13 +374,13 @@
     <t>PKL</t>
   </si>
   <si>
-    <t>MELBOURNE</t>
+    <t>MERLBOURNE</t>
   </si>
   <si>
     <t>MEL</t>
   </si>
   <si>
-    <t>FREMANTLE</t>
+    <t>FREMENTLE</t>
   </si>
   <si>
     <t>FRE</t>
@@ -506,6 +506,9 @@
     <t>&gt;&gt;&gt;&gt;</t>
   </si>
   <si>
+    <t>LOADING PORTS SEQUENE:</t>
+  </si>
+  <si>
     <t>HOLD 4 / MAFIS</t>
   </si>
   <si>
@@ -555,10 +558,10 @@
     <t>PORT KEMBLA (PKL)</t>
   </si>
   <si>
-    <t>MELBOURNE (MEL)</t>
+    <t>MERLBOURNE (MEL)</t>
   </si>
   <si>
-    <t>FREMANTLE (FRE)</t>
+    <t>FREMENTLE (FRE)</t>
   </si>
   <si>
     <t xml:space="preserve">EURASIAN HIGHWAY </t>
@@ -640,7 +643,7 @@
     <numFmt numFmtId="166" formatCode="0\ &quot;u/t&quot;"/>
     <numFmt numFmtId="167" formatCode="0.0\ \t"/>
     <numFmt numFmtId="168" formatCode="0&quot;U/s&quot;"/>
-    <numFmt numFmtId="169" formatCode="0.0&quot;kt&quot;"/>
+    <numFmt numFmtId="169" formatCode="0.0&quot;mt&quot;"/>
     <numFmt numFmtId="170" formatCode="0\ &quot;p'kgs&quot;"/>
     <numFmt numFmtId="171" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
@@ -3689,22 +3692,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="16" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3722,31 +3716,40 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="16" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="169" fontId="3" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="16" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4331,12 +4334,12 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{B1CE6E39-F9CA-4430-AA6D-2CC66A282BEB}"/>
-    <cellStyle name="Normal 2 4" xfId="3" xr:uid="{3B3DC99E-B61B-4C9B-8DFB-6A8F6DF39E6C}"/>
-    <cellStyle name="Normal_05.DOVH Summary Dep SIN 033A" xfId="4" xr:uid="{9004E457-8FF7-40CD-B1F8-B6A332DCEAC6}"/>
-    <cellStyle name="Normal_ERSH Pre-Arr Notice - VOY 033A._04. ERSH-SOUTHAMPTON-PRE-ARRIVAL NOTICE" xfId="5" xr:uid="{67D71D35-85B0-4058-BCAC-8D56B7F5EC0F}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{4F6B8686-8185-4E2D-80E3-0C3CA4697580}"/>
+    <cellStyle name="Normal 2 4" xfId="3" xr:uid="{9F30E383-FAE1-452B-9DB0-DC9D3AA967C0}"/>
+    <cellStyle name="Normal_05.DOVH Summary Dep SIN 033A" xfId="4" xr:uid="{B22676FA-5C64-4EA4-B6A5-D72A2EA6B51E}"/>
+    <cellStyle name="Normal_ERSH Pre-Arr Notice - VOY 033A._04. ERSH-SOUTHAMPTON-PRE-ARRIVAL NOTICE" xfId="5" xr:uid="{02A7A369-FB44-42DE-BA96-D7EE2803ADAD}"/>
     <cellStyle name="Нормален" xfId="0" builtinId="0"/>
-    <cellStyle name="Нормален 2" xfId="1" xr:uid="{38648270-BDE1-443C-B19F-B76D65A1FABD}"/>
+    <cellStyle name="Нормален 2" xfId="1" xr:uid="{F3CA4225-B0D2-4B89-824D-9108F5F05FF6}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -4379,7 +4382,7 @@
         <xdr:cNvPr id="2" name="STOWAGE_PLAN_DEFAULT_SHAPE_705477">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AF2D0DF-B656-4380-9570-DDDED259FF97}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE359308-1988-40EC-851B-85206E837F08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4389,7 +4392,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14597902" y="25774650"/>
+          <a:off x="14588377" y="25774650"/>
           <a:ext cx="201707" cy="798979"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartCollate">
@@ -4428,7 +4431,7 @@
         <xdr:cNvPr id="3" name="STOWAGE_PLAN_DEFAULT_SHAPE_533371">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED0F45F6-BF58-434E-89C9-C4F0A08FDF56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAEA657A-81AC-46EF-AA88-54D7BEA6F650}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4438,7 +4441,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="14575493" y="23541319"/>
+          <a:off x="14565968" y="23541319"/>
           <a:ext cx="201707" cy="800099"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartCollate">
@@ -4477,7 +4480,7 @@
         <xdr:cNvPr id="4" name="STOWAGE_PLAN_DEFAULT_SHAPE_579461">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E1A905D-2332-47DD-9925-F84887C0D697}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D98F202A-D4D2-419E-B425-E9E6C1A289A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4487,7 +4490,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9678520" y="24541443"/>
+          <a:off x="9668995" y="24541443"/>
           <a:ext cx="402267" cy="211281"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
@@ -4526,7 +4529,7 @@
         <xdr:cNvPr id="5" name="STOWAGE_PLAN_DEFAULT_SHAPE_289534">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{610C2DD1-68BD-46AD-BDE1-9806C7B96C2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{756EBDD0-E0CA-44D6-9ED4-16F0A96F19FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4536,7 +4539,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="9992790" y="24541443"/>
+          <a:off x="9983265" y="24541443"/>
           <a:ext cx="402267" cy="211281"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
@@ -4575,7 +4578,7 @@
         <xdr:cNvPr id="6" name="STOWAGE_PLAN_DEFAULT_SHAPE_301918">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B1E2D0D-D8A5-4587-8F3B-F06D33F1A38B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B05F9AE-3595-4E48-91EF-70C5556E1BAA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4585,7 +4588,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9712138" y="22309231"/>
+          <a:off x="9702613" y="22309231"/>
           <a:ext cx="402267" cy="211281"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
@@ -4624,7 +4627,7 @@
         <xdr:cNvPr id="7" name="STOWAGE_PLAN_DEFAULT_SHAPE_774663">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC9E762D-4ECE-433E-857C-AA7FE9C53F1A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC658C4D-E88D-4B2B-BA33-3E93FAC0A059}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4634,7 +4637,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="10026408" y="22309231"/>
+          <a:off x="10016883" y="22309231"/>
           <a:ext cx="402267" cy="211281"/>
         </a:xfrm>
         <a:prstGeom prst="rtTriangle">
@@ -4673,7 +4676,7 @@
         <xdr:cNvPr id="8" name="STOWAGE_PLAN_DEFAULT_SHAPE_14017">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90592565-080F-4C90-B81C-8F1EDE919617}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09E1E2DA-76E4-4438-8260-F7E64D5A5F21}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4683,7 +4686,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="6518462" y="28481430"/>
+          <a:off x="6508937" y="28481430"/>
           <a:ext cx="2039470" cy="2218803"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4728,7 +4731,7 @@
         <xdr:cNvPr id="9" name="STOWAGE_PLAN_DEFAULT_SHAPE_760648">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC1F693D-7945-4307-9A13-661543E77078}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF854474-0742-4551-8C7A-E3F59F90FBDA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4738,7 +4741,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="6529668" y="26229049"/>
+          <a:off x="6520143" y="26229049"/>
           <a:ext cx="2039470" cy="2218802"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4783,7 +4786,7 @@
         <xdr:cNvPr id="10" name="STOWAGE_PLAN_DEFAULT_SHAPE_814409">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{148B59E4-C6DD-4452-A3A5-8005B2096AC4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15EC6A0C-0464-43C1-82AC-E4AA0F3563E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4793,7 +4796,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="6502774" y="23984510"/>
+          <a:off x="6493249" y="23984510"/>
           <a:ext cx="2039470" cy="2218803"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4838,7 +4841,7 @@
         <xdr:cNvPr id="11" name="STOWAGE_PLAN_DEFAULT_SHAPE_708967">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{931E7221-B17B-47C0-82D9-9003A2AA7E92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C008491-2304-439B-9257-866D66336566}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4848,7 +4851,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="11661962" y="28435486"/>
+          <a:off x="11652437" y="28435486"/>
           <a:ext cx="2039470" cy="2218802"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4893,7 +4896,7 @@
         <xdr:cNvPr id="12" name="STOWAGE_PLAN_DEFAULT_SHAPE_45349">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4E7E47B-F1A4-4776-943B-FA990FA42025}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06E587E0-BA78-41C2-89EF-821807FB4204}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4903,7 +4906,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="11650756" y="26263787"/>
+          <a:off x="11641231" y="26263787"/>
           <a:ext cx="2039470" cy="2218802"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -4948,7 +4951,7 @@
         <xdr:cNvPr id="13" name="STOWAGE_PLAN_DEFAULT_SHAPE_413992">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0D29856-3083-4A23-80BB-36B3D95000A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6F92B7E-0727-4243-A137-4A9A24D67239}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4958,7 +4961,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="11668685" y="24006922"/>
+          <a:off x="11659160" y="24006922"/>
           <a:ext cx="2039470" cy="2218803"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5003,7 +5006,7 @@
         <xdr:cNvPr id="14" name="STOWAGE_PLAN_DEFAULT_SHAPE_862534">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5283E88C-62FD-487B-A529-2644AB715DF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97B2C115-658E-46E5-A0D2-BA6C75C6D33C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5013,7 +5016,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="6529667" y="21783675"/>
+          <a:off x="6520142" y="21783675"/>
           <a:ext cx="2039470" cy="2217681"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5058,7 +5061,7 @@
         <xdr:cNvPr id="15" name="STOWAGE_PLAN_DEFAULT_SHAPE_790401">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08244E6B-21D3-4678-9373-B8C75A728E17}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CFE2E5D-3673-4E99-BB52-0D671095DC38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5068,7 +5071,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="11673167" y="21783676"/>
+          <a:off x="11663642" y="21783676"/>
           <a:ext cx="2039470" cy="2217681"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5113,7 +5116,7 @@
         <xdr:cNvPr id="16" name="STOWAGE_PLAN_DEFAULT_SHAPE_373499">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98DC8567-BD6F-4E7C-9742-91AB434514B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D99B40B2-A9FF-4F92-99CE-E82B4D10FE12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5162,7 +5165,7 @@
         <xdr:cNvPr id="17" name="STOWAGE_PLAN_DEFAULT_SHAPE_961857">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8132E595-CB63-459C-9892-3B6587838AF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED71F7BA-F228-4164-94D1-ECAFF3133F02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5211,7 +5214,7 @@
         <xdr:cNvPr id="18" name="STOWAGE_PLAN_DEFAULT_SHAPE_871359">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DAB0367-FAC0-4182-9E11-A5F83ACCAEA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD48EBD8-60B5-4AA3-8322-687871988A59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5221,7 +5224,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="7269256" y="5202331"/>
+          <a:off x="7259731" y="5202331"/>
           <a:ext cx="2077925" cy="2217644"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5266,7 +5269,7 @@
         <xdr:cNvPr id="19" name="STOWAGE_PLAN_DEFAULT_SHAPE_56232">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1253735D-4FB3-4F62-81F0-C3560F269A75}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9BEA78B-A671-44FF-A54B-F7189CB5F12C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5276,7 +5279,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="7258049" y="7442388"/>
+          <a:off x="7248524" y="7442388"/>
           <a:ext cx="2077925" cy="2217643"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5328,7 +5331,7 @@
         <xdr:cNvPr id="20" name="STOWAGE_PLAN_DEFAULT_SHAPE_949462">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9672E94-D8FB-477B-AA94-C4522B559884}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7993138E-159F-439E-BF20-3F3317EA2378}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5338,7 +5341,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="7280462" y="9647703"/>
+          <a:off x="7270937" y="9647703"/>
           <a:ext cx="2077925" cy="2217644"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5383,7 +5386,7 @@
         <xdr:cNvPr id="21" name="STOWAGE_PLAN_DEFAULT_SHAPE_363983">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7D5D87B-5877-4489-93CA-8233F5A46071}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{424FEE01-A2E2-41F4-A56B-43E5C1B836A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5393,7 +5396,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="6126256" y="11877675"/>
+          <a:off x="6116731" y="11877675"/>
           <a:ext cx="3209719" cy="4221256"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5438,7 +5441,7 @@
         <xdr:cNvPr id="22" name="STOWAGE_PLAN_DEFAULT_SHAPE_524816">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72A1A268-1CF6-4F03-B92D-CD6D39F4E6F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F2E4855-3C8A-43C3-9937-C9DD79A357EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5448,7 +5451,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="5567363" y="16098929"/>
+          <a:off x="5557838" y="16098929"/>
           <a:ext cx="3768612" cy="4926318"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5493,7 +5496,7 @@
         <xdr:cNvPr id="23" name="STOWAGE_PLAN_DEFAULT_SHAPE_767035">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{001CA324-F26D-4949-9E5D-051303C1A0D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECC5731E-F3E6-423B-B58B-56D3B0CC6791}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5503,7 +5506,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="16222756" y="7419976"/>
+          <a:off x="16213231" y="7419976"/>
           <a:ext cx="2077925" cy="2216522"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5548,7 +5551,7 @@
         <xdr:cNvPr id="24" name="STOWAGE_PLAN_DEFAULT_SHAPE_53500">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0FCF514-6385-4B84-A8F8-95CC9A4A05CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C08677D2-AE8B-4D6C-BBED-3A4D7B818535}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5558,7 +5561,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="14743580" y="9660029"/>
+          <a:off x="14734055" y="9660029"/>
           <a:ext cx="3742765" cy="4422963"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5603,7 +5606,7 @@
         <xdr:cNvPr id="25" name="STOWAGE_PLAN_DEFAULT_SHAPE_592400">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E95F9C6F-00EF-4EE9-A31D-4FAE414C7B67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE3A897F-AC2B-46B7-B892-94DF4CECAF64}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5613,7 +5616,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="11449050" y="14128936"/>
+          <a:off x="11439525" y="14128936"/>
           <a:ext cx="2279632" cy="2194112"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5658,7 +5661,7 @@
         <xdr:cNvPr id="26" name="STOWAGE_PLAN_DEFAULT_SHAPE_468654">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0A539F2-95A8-44C2-8E46-E228ED463909}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6B274F6-4805-4C98-B81E-95629B11994C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5668,7 +5671,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="11493874" y="16346581"/>
+          <a:off x="11484349" y="16346581"/>
           <a:ext cx="3758807" cy="4670610"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -5713,7 +5716,7 @@
         <xdr:cNvPr id="27" name="STOWAGE_PLAN_DEFAULT_SHAPE_298136">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{435C2011-6377-431A-A9EC-B28EB071173D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{453DCBBF-A9A0-4164-AB39-8238CF905A30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5763,7 +5766,7 @@
         <xdr:cNvPr id="28" name="PKG_BOX_20201019110448_PKGS">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66B2093F-0110-42E6-8E86-AEE00545C6F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E267C324-C699-4FA9-A1AD-45D371C868C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5849,7 +5852,7 @@
         <xdr:cNvPr id="29" name="STOWAGE_PLAN_DEFAULT_SHAPE_622635">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{330BE4FE-4B89-4C55-9811-5599F208CFB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D52C785A-0D5E-4DF2-8DEC-2B723968C9C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5858,7 +5861,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2063511" y="30925318"/>
-          <a:ext cx="2142478" cy="529663"/>
+          <a:ext cx="2132953" cy="529663"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5971,7 +5974,7 @@
         <xdr:cNvPr id="30" name="STOWAGE_PLAN_DEFAULT_SHAPE_829719">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7A781BD-AE73-4A59-81DD-BC9458F61E6B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADD10AE4-D1AF-4BEB-814F-A5F8EE9C2656}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6020,7 +6023,7 @@
         <xdr:cNvPr id="31" name="STOWAGE_PLAN_DEFAULT_SHAPE_824520">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{848ED408-3E90-49DD-8AB6-414FB895A661}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84C3A25C-72DD-4AAE-A9EF-33F6FE06F096}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6091,7 +6094,7 @@
         <xdr:cNvPr id="32" name="STOWAGE_PLAN_DEFAULT_SHAPE_589105">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5957A9DC-F195-423F-8039-A1AB506E883C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B082A53-D730-4A26-8B99-8E1A46AA2B53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6157,7 +6160,7 @@
         <xdr:cNvPr id="33" name="STOWAGE_PLAN_DEFAULT_SHAPE_985995">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44FE84DF-4FE7-4412-A295-2A8F98C01C9A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DE384A7-8EE5-459A-8681-E01BD3420CE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6166,7 +6169,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2067572" y="24060745"/>
-          <a:ext cx="2142478" cy="531282"/>
+          <a:ext cx="2132953" cy="531282"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6270,7 +6273,7 @@
         <xdr:cNvPr id="34" name="STOWAGE_PLAN_DEFAULT_SHAPE_910874">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85E81AB3-348B-40E5-89DA-72FAC4984AD7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5C324A2-1844-4767-BE16-AE69FA66D4AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6336,7 +6339,7 @@
         <xdr:cNvPr id="35" name="STOWAGE_PLAN_DEFAULT_SHAPE_226844">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C543034C-9212-4B7F-ADA2-E6357A89BE40}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAC9A824-8123-451A-93F8-9B083E8EEFD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6345,7 +6348,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2067572" y="24592027"/>
-          <a:ext cx="2142478" cy="528976"/>
+          <a:ext cx="2132953" cy="528976"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6449,7 +6452,7 @@
         <xdr:cNvPr id="36" name="STOWAGE_PLAN_DEFAULT_SHAPE_695046">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C23511B-89B7-4131-A5B6-D637BDA0FCC9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84D2A4CE-25E2-4522-A435-AB4ECEC36C6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6515,7 +6518,7 @@
         <xdr:cNvPr id="37" name="STOWAGE_PLAN_DEFAULT_SHAPE_979906">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{582FEF23-954F-4174-8D67-193C6F60F05B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FB38E2F-6248-4D57-9CCA-235349E06037}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6524,7 +6527,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2067572" y="25121004"/>
-          <a:ext cx="2142478" cy="531282"/>
+          <a:ext cx="2132953" cy="531282"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6616,7 +6619,7 @@
         <xdr:cNvPr id="38" name="STOWAGE_PLAN_DEFAULT_SHAPE_243907">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF899531-107F-4578-8F06-3C0F774CE5D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E031E121-17B6-403D-A439-4A00405C4660}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6682,7 +6685,7 @@
         <xdr:cNvPr id="39" name="STOWAGE_PLAN_DEFAULT_SHAPE_533820">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C73ED28-39D7-4F75-9442-05533C814DAB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39451B9-57D5-4FD7-95F6-D7BC00788828}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6691,7 +6694,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2065753" y="26714018"/>
-          <a:ext cx="2142478" cy="533210"/>
+          <a:ext cx="2132953" cy="533210"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6810,7 +6813,7 @@
         <xdr:cNvPr id="40" name="STOWAGE_PLAN_DEFAULT_SHAPE_106360">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B75C3E6-A73F-4F1A-A6CC-89F42AC3A710}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C25413D-761D-4A60-AFDB-11290953C6F7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6876,7 +6879,7 @@
         <xdr:cNvPr id="41" name="STOWAGE_PLAN_DEFAULT_SHAPE_999315">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BDF4BCE-E908-42E0-833A-973EC2D94E1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBC8172B-9032-4A05-BEE5-6DB5A837CF08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6885,7 +6888,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2063512" y="27767164"/>
-          <a:ext cx="2142478" cy="533315"/>
+          <a:ext cx="2132953" cy="533315"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6977,7 +6980,7 @@
         <xdr:cNvPr id="42" name="STOWAGE_PLAN_DEFAULT_SHAPE_676109">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B7EAA25-04DD-4F98-BD65-5F87BFF618C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FFD55EE-DA9B-417E-A869-35E62EDC95F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7043,7 +7046,7 @@
         <xdr:cNvPr id="43" name="STOWAGE_PLAN_DEFAULT_SHAPE_15703">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07DF907E-C7BD-4CB4-A885-2AFAA8C039F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC8ACE18-636C-42EB-A79D-9CC66C66CC49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7052,7 +7055,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2063512" y="28300480"/>
-          <a:ext cx="2142478" cy="526942"/>
+          <a:ext cx="2132953" cy="526942"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7144,7 +7147,7 @@
         <xdr:cNvPr id="44" name="STOWAGE_PLAN_DEFAULT_SHAPE_575127">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D56FFE63-1AB5-4AEC-A821-06F456EB5822}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04524027-3F82-4AEC-802D-3D4B7BEE33C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7198,7 +7201,7 @@
         <xdr:cNvPr id="45" name="STOWAGE_PLAN_DEFAULT_SHAPE_100043">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDFDB80E-5670-41D6-B5F9-A35BDC1B6DA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CAE944D-2DD1-4F30-A80B-79CBC9DB99B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7252,7 +7255,7 @@
         <xdr:cNvPr id="46" name="STOWAGE_PLAN_DEFAULT_SHAPE_103013">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{485C120D-DEAC-4A19-8242-CE5BC9667F25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C65946C0-FB15-42B9-82B5-9C60118C3ED6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7303,7 +7306,7 @@
         <xdr:cNvPr id="47" name="STOWAGE_PLAN_DEFAULT_SHAPE_798805">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A1135F2-D1E4-4203-8960-F96FE10E5684}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{493DE82E-625B-412A-9B8E-7D3795203049}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7354,7 +7357,7 @@
         <xdr:cNvPr id="48" name="STOWAGE_PLAN_DEFAULT_SHAPE_284452">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD51BD94-542A-4541-A2A9-9CB7DC76DD60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63DBB71A-DBFC-4D47-AF15-985BE1ABAB11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7403,7 +7406,7 @@
         <xdr:cNvPr id="49" name="STOWAGE_PLAN_DEFAULT_SHAPE_45645">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{359706EC-FFBD-407B-92A8-FCA63906592A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F5AF102-E18A-4390-81A5-7141118F1BF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7452,7 +7455,7 @@
         <xdr:cNvPr id="50" name="STOWAGE_PLAN_DEFAULT_SHAPE_295744">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22F1F97D-4344-44EC-9DFA-D7907081B587}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBE02480-9B34-45CF-8B72-382FCEAC0453}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7518,7 +7521,7 @@
         <xdr:cNvPr id="51" name="STOWAGE_PLAN_DEFAULT_SHAPE_381973">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72AB568A-EF2A-4999-A187-0B6D5694B9EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8B09374-005E-4ED5-89A1-590683850D7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7527,7 +7530,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2064238" y="26180969"/>
-          <a:ext cx="2145811" cy="528350"/>
+          <a:ext cx="2136286" cy="528350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7619,7 +7622,7 @@
         <xdr:cNvPr id="52" name="STOWAGE_PLAN_DEFAULT_SHAPE_300941">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25B5D424-CF1A-4F0C-9FC4-7EF1C53EC9B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF4C15F3-778C-44EB-A86E-FE700999C3A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7685,7 +7688,7 @@
         <xdr:cNvPr id="53" name="STOWAGE_PLAN_DEFAULT_SHAPE_948477">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3606F34-1721-4796-A7B4-6056F395AB2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06DF01BA-25BF-4A3D-A6C5-BB85B6F685A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7694,7 +7697,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2063512" y="29354470"/>
-          <a:ext cx="2142478" cy="526941"/>
+          <a:ext cx="2132953" cy="526941"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7786,7 +7789,7 @@
         <xdr:cNvPr id="54" name="STOWAGE_PLAN_DEFAULT_SHAPE_979732">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10ED9D31-AF2F-46F5-9A56-3CB5A3006FE1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DE8EA1F-2C15-457B-AD90-944BD7B258A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7841,7 +7844,7 @@
         <xdr:cNvPr id="55" name="STOWAGE_PLAN_DEFAULT_SHAPE_401335">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DD40514-F636-42C3-B0E5-2AB7063CC185}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33C93C47-B1FB-4118-A8B9-CA31D0E17076}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7907,7 +7910,7 @@
         <xdr:cNvPr id="56" name="STOWAGE_PLAN_DEFAULT_SHAPE_278253">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC30EE6D-B69D-4E38-86B5-AFA882DD61D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C69C70C-2B43-4C8C-8DF6-F350F54F48FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7916,7 +7919,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2063512" y="29878224"/>
-          <a:ext cx="2142478" cy="526942"/>
+          <a:ext cx="2132953" cy="526942"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8007,7 +8010,7 @@
         <xdr:cNvPr id="57" name="STOWAGE_PLAN_DEFAULT_SHAPE_160426">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C1F7AAE-9627-444C-9E2E-7BB493B3BA4F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15AC6780-63A8-4461-8B46-062954BBE07F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8074,7 +8077,7 @@
         <xdr:cNvPr id="58" name="STOWAGE_PLAN_DEFAULT_SHAPE_162806">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A38B2731-DF1E-4D3F-BC46-6548B9196E91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98380968-8DBA-47BB-8760-2A9C4BA3DC51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8140,7 +8143,7 @@
         <xdr:cNvPr id="59" name="STOWAGE_PLAN_DEFAULT_SHAPE_646523">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC5254FE-C5BF-4B85-ADC2-EC14E41BC77D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{959BB59E-BE7C-4B55-9613-BFE2F019CC76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8149,7 +8152,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2063512" y="30401771"/>
-          <a:ext cx="2142478" cy="526942"/>
+          <a:ext cx="2132953" cy="526942"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8262,7 +8265,7 @@
         <xdr:cNvPr id="60" name="STOWAGE_PLAN_DEFAULT_SHAPE_410033">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23A9EF7A-6E9C-4706-BEAC-DD2964E2C402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C00B459C-7868-4C52-AB98-FD9527CB0804}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8328,7 +8331,7 @@
         <xdr:cNvPr id="61" name="STOWAGE_PLAN_DEFAULT_SHAPE_412726">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{065A2477-1584-4FA4-9E98-57295D157DBF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6E82DCC-A31B-43B6-B137-F7A0191641E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8422,7 +8425,7 @@
         <xdr:cNvPr id="62" name="STOWAGE_PLAN_DEFAULT_SHAPE_712660">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7093DE38-E0D7-4C1C-ADE1-4C9F04765DDC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F54FFDE-AC72-4672-A2F9-71051A8C3F56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8478,7 +8481,7 @@
         <xdr:cNvPr id="63" name="STOWAGE_PLAN_DEFAULT_SHAPE_326174">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{624CFC61-8141-4CC7-9F9F-268B88DC4E95}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20D804F5-146A-4AE4-8D5D-DF1A518D7C34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8534,7 +8537,7 @@
         <xdr:cNvPr id="64" name="STOWAGE_PLAN_DEFAULT_SHAPE_633116">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4C5518A-DB73-48A7-A71C-C3340FDE0469}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25A49115-7F2F-4F6E-AB85-9217CECEC548}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8590,7 +8593,7 @@
         <xdr:cNvPr id="65" name="STOW_DIRECTION_20201021231228_DRW">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16981ECB-9F87-4382-91EB-E03130868030}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2233150E-19F9-4120-A1C0-63D156A68DC8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8599,7 +8602,7 @@
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="3134285" y="5697632"/>
-          <a:ext cx="1270001" cy="190498"/>
+          <a:ext cx="1260476" cy="190498"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8670,7 +8673,7 @@
         <xdr:cNvPr id="66" name="STOW_DIRECTION_20201021231242_DRW">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C924A47C-050F-4C21-B3AB-45EA96BC543C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD73E3B3-B4BF-461C-AFB8-1064E117237C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8679,7 +8682,7 @@
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
           <a:off x="3235137" y="4234141"/>
-          <a:ext cx="1270001" cy="176679"/>
+          <a:ext cx="1260476" cy="176679"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8750,7 +8753,7 @@
         <xdr:cNvPr id="67" name="STOW_DIRECTION_20201021231253_DRW">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E04F389D-9BFD-489A-9D27-80E901966152}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49075FEF-A725-43FE-9836-6C69AE7BC3E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8830,7 +8833,7 @@
         <xdr:cNvPr id="68" name="STOW_DIRECTION_20201021231242_DRW">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FF181E6-39E0-4AE1-9DFB-996D740E3FBF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEBFEBA3-48DC-4676-90F0-A09883AB650E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8838,7 +8841,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="7057390" y="4208145"/>
+          <a:off x="7047865" y="4208145"/>
           <a:ext cx="1280160" cy="182880"/>
         </a:xfrm>
         <a:custGeom>
@@ -8910,7 +8913,7 @@
         <xdr:cNvPr id="69" name="STOW_DIRECTION_20201021231228_DRW">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AFC8376-BE9B-4DC2-850C-CF00E64EA1AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC2DDCC1-9974-4C1B-AE68-312FDD19D532}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8918,7 +8921,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6899463" y="5753661"/>
+          <a:off x="6889938" y="5753661"/>
           <a:ext cx="1270001" cy="191619"/>
         </a:xfrm>
         <a:custGeom>
@@ -8990,7 +8993,7 @@
         <xdr:cNvPr id="70" name="STOW_DIRECTION_20201021231712_DRW">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC267351-ECC2-4FD6-8C1B-0EB98ECD9496}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A24C2EBD-BAC6-4204-B6EF-AFE2DBF21FC8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8998,7 +9001,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="-5400000" flipV="1">
-          <a:off x="9554696" y="5572683"/>
+          <a:off x="9545171" y="5572683"/>
           <a:ext cx="751915" cy="168092"/>
         </a:xfrm>
         <a:custGeom>
@@ -9070,7 +9073,7 @@
         <xdr:cNvPr id="71" name="STOW_DIRECTION_20201021231727_DRW">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D33DEB20-C57F-4DC7-89F8-22AE860A318A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A9DC0EB-B209-49A3-9A37-A94DEBEECF56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9078,7 +9081,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="9510430" y="4807884"/>
+          <a:off x="9500905" y="4807884"/>
           <a:ext cx="694765" cy="135592"/>
         </a:xfrm>
         <a:custGeom>
@@ -9150,7 +9153,7 @@
         <xdr:cNvPr id="72" name="STOW_DIRECTION_20201021231242_DRW">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E97572BC-BBC5-4BE5-A7FF-70885244D593}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CC2229A-3B5A-46EF-BE2E-14A75589E5F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9158,7 +9161,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="10911167" y="5720042"/>
+          <a:off x="10901642" y="5720042"/>
           <a:ext cx="1280160" cy="182880"/>
         </a:xfrm>
         <a:custGeom>
@@ -9230,7 +9233,7 @@
         <xdr:cNvPr id="73" name="STOW_DIRECTION_20201021231242_DRW">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B65D3FF1-CA3E-4E37-A53D-B284B020C788}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1EA883E-81B8-411E-ABC7-2B0ED13D0A09}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9238,7 +9241,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="10933579" y="4256554"/>
+          <a:off x="10924054" y="4256554"/>
           <a:ext cx="1280160" cy="182880"/>
         </a:xfrm>
         <a:custGeom>
@@ -9310,7 +9313,7 @@
         <xdr:cNvPr id="74" name="STOW_DIRECTION_20201021231242_DRW">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE591873-AE78-4792-9590-8CAEEE2C3DA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91504E1A-DEA1-4A60-9B55-CC8A8155BA5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9318,7 +9321,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="12311903" y="4977093"/>
+          <a:off x="12302378" y="4977093"/>
           <a:ext cx="1280160" cy="182880"/>
         </a:xfrm>
         <a:custGeom>
@@ -9390,7 +9393,7 @@
         <xdr:cNvPr id="75" name="STOWAGE_PLAN_DEFAULT_SHAPE_583301">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B49623E6-7B85-4F77-B11B-1C59A0C8F7B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C0BD2B4-E55C-48B1-B26C-C6F3D5086502}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9465,14 +9468,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>22411</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>22411</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>7817</xdr:rowOff>
     </xdr:to>
@@ -9481,7 +9484,7 @@
         <xdr:cNvPr id="76" name="STOWAGE_PLAN_DEFAULT_SHAPE_80707">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE0040E3-34C1-4341-B727-EC2D91528461}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2177620E-9BFB-416F-AF09-4626B7CDBBC6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9489,7 +9492,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5184961" y="5381625"/>
+          <a:off x="5108201" y="5381625"/>
           <a:ext cx="1524000" cy="312617"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9572,7 +9575,7 @@
         <xdr:cNvPr id="77" name="STOWAGE_PLAN_DEFAULT_SHAPE_457926">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BC5EF49-FD2D-4B93-BF19-5D5EDB0030D6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A18703E3-D0C8-44D4-AC6D-28A8F4A1D931}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9580,7 +9583,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10754285" y="5461187"/>
+          <a:off x="10744760" y="5461187"/>
           <a:ext cx="1524000" cy="311496"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9663,7 +9666,7 @@
         <xdr:cNvPr id="78" name="STOWAGE_PLAN_DEFAULT_SHAPE_905640">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB63C826-AE55-4945-A1E9-DC006473908E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DB220BE-5FEC-40EA-97BD-F3A66AEA7AD1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9729,7 +9732,7 @@
         <xdr:cNvPr id="79" name="STOWAGE_PLAN_DEFAULT_SHAPE_261343">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BC8AD38-E026-4D46-A58A-07BB119C3ACA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F3F33C8-7188-442F-B48E-2AD50514ADE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9738,7 +9741,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2064757" y="28826795"/>
-          <a:ext cx="2142478" cy="526942"/>
+          <a:ext cx="2132953" cy="526942"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9842,7 +9845,7 @@
         <xdr:cNvPr id="80" name="STOWAGE_PLAN_DEFAULT_SHAPE_785134">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{604CFA30-E628-41DA-8013-1DFA672837B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E968584A-FD09-4474-87A4-F26576E63ED7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9897,7 +9900,7 @@
         <xdr:cNvPr id="81" name="STOWAGE_PLAN_DEFAULT_SHAPE_378865">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E4A0C99-1A56-478E-8C0D-F680C00198F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DE25A3E-C503-48F0-A5C0-910CA458E659}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9963,7 +9966,7 @@
         <xdr:cNvPr id="82" name="STOWAGE_PLAN_DEFAULT_SHAPE_289637">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D0AF577-60D6-4CFA-9863-A7B4207E8B15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1D558EE-AEC2-4D86-97B9-62B2BA8D703E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9972,7 +9975,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2070614" y="27238958"/>
-          <a:ext cx="2140058" cy="528977"/>
+          <a:ext cx="2130533" cy="528977"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10091,7 +10094,7 @@
         <xdr:cNvPr id="83" name="STOWAGE_PLAN_DEFAULT_SHAPE_919286">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0387A7D3-6A93-4CF8-B40B-B16BFD8A2197}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF24452A-A19E-452D-A949-FE1BBF3032F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10142,7 +10145,7 @@
         <xdr:cNvPr id="84" name="STOWAGE_PLAN_DEFAULT_SHAPE_631680">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3ADDE47-E4A5-4B8E-BCAB-FEDE4AC04137}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3446F6FA-F98A-49C0-997E-27398FE1B72B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10208,7 +10211,7 @@
         <xdr:cNvPr id="85" name="STOWAGE_PLAN_DEFAULT_SHAPE_627580">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28302359-3819-4C5D-9022-92CDF844F7AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D66A2357-8CD8-4639-8375-691729F8EE77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10217,7 +10220,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2072433" y="25652283"/>
-          <a:ext cx="2142478" cy="531281"/>
+          <a:ext cx="2132953" cy="531281"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10309,7 +10312,7 @@
         <xdr:cNvPr id="86" name="STOWAGE_PLAN_DEFAULT_SHAPE_428414">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A60CD1A1-5C8C-4678-8F20-80509826A71B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72CE036D-8546-49AB-B08D-563399C31AF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10375,7 +10378,7 @@
         <xdr:cNvPr id="87" name="STOWAGE_PLAN_DEFAULT_SHAPE_560984">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{575FF990-C036-4723-B656-01718FEA4FA3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF0E24E6-AB2B-4EB6-9398-0C011AC5509F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10385,7 +10388,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8903851" y="20741285"/>
+          <a:off x="8894326" y="20741285"/>
           <a:ext cx="787294" cy="211204"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10454,7 +10457,7 @@
         <xdr:cNvPr id="88" name="STOWAGE_PLAN_DEFAULT_SHAPE_694416">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18DBE325-332A-48FE-AC84-23043FDFB380}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7C61166-6774-48B2-9723-A044BF9B59C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10464,7 +10467,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="5555457" y="18316575"/>
+          <a:off x="5545932" y="18316575"/>
           <a:ext cx="3798093" cy="2730103"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -10509,7 +10512,7 @@
         <xdr:cNvPr id="89" name="STOWAGE_PLAN_DEFAULT_SHAPE_913627">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E19A32E2-7AB9-43F0-863C-995D221B6E09}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6C63CD8-5B45-4E35-8EB0-374D183D6B69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10517,7 +10520,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6162675" y="20311694"/>
+          <a:off x="6153150" y="20311694"/>
           <a:ext cx="171450" cy="137748"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -10566,7 +10569,7 @@
         <xdr:cNvPr id="90" name="STOWAGE_PLAN_DEFAULT_SHAPE_834734">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9190BAE-3324-4CE2-AE4E-3ED8790CE7B9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68F73EB5-CA8C-4EB3-9D56-BB865D3EDB3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10576,7 +10579,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="11456377" y="18571551"/>
+          <a:off x="11446852" y="18571551"/>
           <a:ext cx="3788019" cy="2461938"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -10621,7 +10624,7 @@
         <xdr:cNvPr id="91" name="STOWAGE_PLAN_DEFAULT_SHAPE_22627">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F721848-C4F7-4E6E-A214-66BCB1CF936F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C41E88F-CC81-41B6-9945-16E799602590}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10629,7 +10632,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12087225" y="20318290"/>
+          <a:off x="12077700" y="20318290"/>
           <a:ext cx="152400" cy="179510"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -10678,7 +10681,7 @@
         <xdr:cNvPr id="92" name="STOWAGE_PLAN_DEFAULT_SHAPE_543307">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B14FC22-1D3F-45E3-AE8D-221A89ACC4F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78DB9507-7097-46D7-8351-2F227D977A25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10688,7 +10691,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="6137463" y="14117730"/>
+          <a:off x="6127938" y="14117730"/>
           <a:ext cx="3216088" cy="1963620"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -10733,7 +10736,7 @@
         <xdr:cNvPr id="93" name="STOWAGE_PLAN_DEFAULT_SHAPE_916073">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D1D3DDC-A27F-440F-9E8E-578F6224D6D4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1448CF99-FC29-43F3-8E69-ABDEDC1B9E7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10741,7 +10744,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14912286" y="13675593"/>
+          <a:off x="14902761" y="13675593"/>
           <a:ext cx="265530" cy="181881"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -10790,7 +10793,7 @@
         <xdr:cNvPr id="94" name="STOWAGE_PLAN_DEFAULT_SHAPE_430219">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2360AB60-0158-4D31-BE3C-8CA83169E3CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E48BF225-59E4-48ED-9B8B-A5DB51288CE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10800,7 +10803,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="14743579" y="11845373"/>
+          <a:off x="14734054" y="11845373"/>
           <a:ext cx="2395623" cy="2243572"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -10845,7 +10848,7 @@
         <xdr:cNvPr id="95" name="STOWAGE_PLAN_DEFAULT_SHAPE_677880">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FDF931B-BD91-4DD9-971E-353AE62571A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D21989F-44D2-41F0-BF18-E944DA9783B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10853,7 +10856,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6562725" y="15554325"/>
+          <a:off x="6553200" y="15554325"/>
           <a:ext cx="182440" cy="184638"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -10902,7 +10905,7 @@
         <xdr:cNvPr id="96" name="Rectangle 710" descr="50%">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{336E41BD-A1E9-4E7C-830F-0112F123BF03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EB6CF34-5A2A-4D88-8938-AD664983313D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10987,7 +10990,7 @@
         <xdr:cNvPr id="97" name="Rectangle 710" descr="50%">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CD7A0F5-4D85-4B75-BE18-15B2B7B036D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB6D2F35-284A-43B6-9FB9-BE5DA3F28EF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11053,7 +11056,7 @@
         <xdr:cNvPr id="98" name="Rectangle 710" descr="50%">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C39128E6-9FEB-45C7-8DDD-8395FCC213F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3F1AE06-430B-44C2-A7C2-596F8B66D6AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11119,7 +11122,7 @@
         <xdr:cNvPr id="99" name="STOWAGE_PLAN_DEFAULT_SHAPE_428414">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{754E0330-B37A-443D-B7F3-A8D35B8F5CBB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B159AD07-545D-45A8-BABE-948774F1FB04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11129,7 +11132,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7295427" y="20587025"/>
+          <a:off x="7285902" y="20587025"/>
           <a:ext cx="332417" cy="182518"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11185,7 +11188,7 @@
         <xdr:cNvPr id="100" name="Rectangle 710" descr="50%">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7734B0FC-8325-4D09-8A15-B99081976909}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78883B51-4981-4060-B9FC-D96139ED7CC1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11195,7 +11198,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7291668" y="20331393"/>
+          <a:off x="7282143" y="20331393"/>
           <a:ext cx="471621" cy="252036"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11235,23 +11238,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>67235</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>145677</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>44822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>156880</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="101" name="Rectangle 710" descr="50%">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5072DF41-2D5C-4D4E-8634-F06B1504B38B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9683AF3-544E-4C9A-A585-BE137BDDC22A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11261,8 +11264,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10563785" y="16864293"/>
-          <a:ext cx="885265" cy="370912"/>
+          <a:off x="7775202" y="20342597"/>
+          <a:ext cx="829235" cy="370917"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11317,7 +11320,7 @@
         <xdr:cNvPr id="102" name="STOW_DIRECTION_20201026082459_FRE">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{750828D0-B97F-4452-86E8-19F61E115A62}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BA55FF7-DBAD-430A-8BDF-DFDF901905E5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11325,7 +11328,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3593727" y="8027334"/>
+          <a:off x="3584202" y="8027334"/>
           <a:ext cx="1270001" cy="146797"/>
         </a:xfrm>
         <a:custGeom>
@@ -11381,99 +11384,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>64620</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>239835</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>64620</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>212612</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="103" name="PKG_BOX_20201026232230_PKGS">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDEAD6FD-38E6-4614-A2F1-5E3E2B4B1E81}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9418170" y="6421560"/>
-          <a:ext cx="1524000" cy="468077"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -25980"/>
-            <a:gd name="adj2" fmla="val -180460"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="99CCFF">
-            <a:alpha val="90000"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="6350">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>DRW / LCH</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>12 pkgs - 23.0 kt</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>189379</xdr:colOff>
       <xdr:row>38</xdr:row>
@@ -11487,10 +11397,10 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="PKG_BOX_20201026232900_PKGS">
+        <xdr:cNvPr id="103" name="PKG_BOX_20201026232900_PKGS">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7325C0E6-4C22-43E7-ABE6-8F0CC0798FAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB497127-430B-4BFC-9642-2462F3AC3EF4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11555,7 +11465,7 @@
                 <a:srgbClr val="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>23 pkgs - 44.0 kt</a:t>
+            <a:t>33 pkgs - 44.0 kt</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -11564,23 +11474,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>206568</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>64620</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>139334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>165941</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>64620</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>98707</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="105" name="PKG_BOX_20201027052509_PKGS">
+        <xdr:cNvPr id="104" name="PKG_BOX_20201027052509_PKGS">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFBE972D-121A-4FF1-B9B4-DFE71B97AF70}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ACF1F02-13BD-4BE2-8E62-BDBCB2FF9805}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11588,13 +11498,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4902200" y="3664143"/>
+          <a:off x="4646145" y="3349259"/>
           <a:ext cx="1524000" cy="454673"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -17157"/>
-            <a:gd name="adj2" fmla="val 115422"/>
+            <a:gd name="adj1" fmla="val -1716"/>
+            <a:gd name="adj2" fmla="val 179819"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -11688,7 +11598,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>12 pkgs  - 25.5 kt</a:t>
+            <a:t> 12 pkgs - 12.5 kt  </a:t>
           </a:r>
           <a:endParaRPr lang="en-GB" sz="1200">
             <a:solidFill>
@@ -11702,23 +11612,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>206217</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>30507</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>178994</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>94353</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="106" name="PKG_BOX_20201028080211_PKGS">
+        <xdr:cNvPr id="105" name="20201030034148_DRW_INFO">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4667B1EE-B5A1-4890-8BBA-BFE08B7D17B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70A36DAD-4FB8-4644-B4D4-7B9A6595D6F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11726,22 +11636,34 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9093200" y="3911442"/>
-          <a:ext cx="1524000" cy="468077"/>
+          <a:off x="3200400" y="4231032"/>
+          <a:ext cx="1514475" cy="311496"/>
         </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
           <a:srgbClr val="99CCFF">
-            <a:alpha val="90000"/>
+            <a:alpha val="0"/>
           </a:srgbClr>
         </a:solidFill>
-        <a:ln w="6350">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="6350" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -11766,25 +11688,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>DRW / LCH</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1200">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>3 pkgs - 434.0 kt</a:t>
-          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1400">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -11813,7 +11721,7 @@
         <xdr:cNvPr id="2" name="STOWAGE_PLAN_DEFAULT_SHAPE_502404" descr="DK5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D502413F-1D9F-4A20-8AF8-C512EBA23D4B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{287C6A34-D5A1-455E-AF0D-BCE98B38FE8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11885,7 +11793,7 @@
         <xdr:cNvPr id="3" name="STOWAGE_PLAN_DEFAULT_SHAPE_513687">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{420D098D-CFE9-42C2-97C6-4051C012FBDA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{700FCCED-B279-4E7A-A06C-76BBFD76ACBF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12001,7 +11909,7 @@
         <xdr:cNvPr id="4" name="PKG_BOX_20201019110441_PKGS">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4E33983-8559-4858-9B75-5B0E3C14F01D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6FF8F92-A626-4AF6-89F7-6475C2E471FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12083,7 +11991,7 @@
         <xdr:cNvPr id="5" name="STOWAGE_PLAN_DEFAULT_SHAPE_404794">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7883707D-2585-4A02-B355-C5F04FD8FA3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FD89867-F1D9-43DD-B388-7AB6F8813767}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12166,7 +12074,7 @@
         <xdr:cNvPr id="6" name="STOWAGE_PLAN_DEFAULT_SHAPE_269705">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDA7C367-5A8D-4AF0-B2AF-EC1519047227}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B60AE30-BD73-4952-BD16-004D36F6BF68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12249,7 +12157,7 @@
         <xdr:cNvPr id="7" name="STOWAGE_PLAN_DEFAULT_SHAPE_55588">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD516E86-7184-41B1-81DA-2BBBFF24D815}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAB76537-1F7C-4642-A7A2-7D498A13C286}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12326,7 +12234,7 @@
         <xdr:cNvPr id="8" name="STOWAGE_PLAN_DEFAULT_SHAPE_243821">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35A5E96D-5BB7-4270-AC78-F2D3E8C26A5F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3967AFD5-8DA4-43F1-B04D-44D810A6B319}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12375,7 +12283,7 @@
         <xdr:cNvPr id="9" name="STOWAGE_PLAN_DEFAULT_SHAPE_978981">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA6D1792-EF6B-4F0D-9029-63456AE986AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8C3BB36-0FBB-4348-94BE-F213F4C2CD04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12446,7 +12354,7 @@
         <xdr:cNvPr id="10" name="STOWAGE_PLAN_DEFAULT_SHAPE_390253">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C4A56AB-7660-40A9-83BC-CA7ACFD9F3C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F31BA6C-31FB-49D3-8B4C-9EA9783FC37E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12495,7 +12403,7 @@
         <xdr:cNvPr id="11" name="STOWAGE_PLAN_DEFAULT_SHAPE_364959">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{711A943D-B6D8-4609-A587-5E24C40EFBF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47BAB3E6-477E-4F65-9738-D3D57C0D3918}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12580,7 +12488,7 @@
         <xdr:cNvPr id="12" name="STOWAGE_PLAN_DEFAULT_SHAPE_474412">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{445ED1C6-251C-413A-B5FD-8B73B94BA28D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F35801D2-E85F-4BFE-ACB1-63B32142118C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12635,7 +12543,7 @@
         <xdr:cNvPr id="13" name="STOWAGE_PLAN_DEFAULT_SHAPE_257242">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A859E9-D78B-4F85-8E4B-B4F47DD6A7FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B7C9412-90E4-4BAF-A1FC-8FC9F47CD0D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12690,7 +12598,7 @@
         <xdr:cNvPr id="14" name="STOWAGE_PLAN_DEFAULT_SHAPE_628689">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C2DE051-A533-41BB-9264-B5E3B21AD9E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3706CE0-CC18-46DB-AC74-1FA804179521}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12745,7 +12653,7 @@
         <xdr:cNvPr id="15" name="STOWAGE_PLAN_DEFAULT_SHAPE_542017">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D952A16-360B-4B00-A137-7E7F48FBDA4F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BB1A0A7-2844-4E73-96B4-6184408BB54B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12824,7 +12732,7 @@
         <xdr:cNvPr id="16" name="STOWAGE_PLAN_DEFAULT_SHAPE_428414">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{720480D4-58EC-481C-9F19-B399C1790BF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D260437-5026-4877-85B1-52ED8DF6379D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12890,7 +12798,7 @@
         <xdr:cNvPr id="17" name="Rectangle 710" descr="50%">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{762D25E4-F2F0-4F41-9604-F97552C5196F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBF65356-6269-4B03-B0E4-18B6F54A0BFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12961,7 +12869,7 @@
         <xdr:cNvPr id="2" name="STOWAGE_PLAN_DEFAULT_SHAPE_156287">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D3754C4-61AA-4641-BF36-F8F64D4D87F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{581B2FC1-BD45-456E-B4BA-D8B8B82869AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13033,7 +12941,7 @@
         <xdr:cNvPr id="3" name="STOWAGE_PLAN_DEFAULT_SHAPE_938452">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74D291A7-D3D9-4681-9A2C-D58F2EAF5F58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DE40975-2DFC-4691-8060-DBDABBE5AA3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13107,7 +13015,7 @@
         <xdr:cNvPr id="4" name="STOWAGE_PLAN_DEFAULT_SHAPE_654434">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{960104DE-0644-44F4-AC1F-ACBCA885281A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15BE67EE-DABD-4E8B-93A3-3F98DB25E2AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13303,7 +13211,7 @@
         <xdr:cNvPr id="5" name="STOWAGE_PLAN_DEFAULT_SHAPE_506037">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DF00E0F-3620-4952-AF36-36F44BB67919}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA0EF0ED-EA8B-4DD7-B4DD-BFC47163C77A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13410,7 +13318,7 @@
         <xdr:cNvPr id="6" name="STOWAGE_PLAN_DEFAULT_SHAPE_390433">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D0F53E9-0927-4CEE-B17E-2F3DB3A59234}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C56EA0BB-F518-43CB-983B-A7C4913EC3EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13478,7 +13386,7 @@
         <xdr:cNvPr id="7" name="STOWAGE_PLAN_DEFAULT_SHAPE_107365">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DAA3109-8A1A-4321-9BBC-136DD9DC237F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35FE4693-E926-43EF-B580-1E054A49E0D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13546,7 +13454,7 @@
         <xdr:cNvPr id="8" name="STOWAGE_PLAN_DEFAULT_SHAPE_783917">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABA69AA1-B380-4947-BF49-0B7CBB2E33E3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0493CD84-870D-49A4-9891-E5B79E750EE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13778,7 +13686,7 @@
         <xdr:cNvPr id="9" name="STOWAGE_PLAN_DEFAULT_SHAPE_459595">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36D8ED85-B16C-494E-BE79-D70222BC6056}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3735AC88-14D0-4312-80EE-1EE2846AA87F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13903,7 +13811,7 @@
         <xdr:cNvPr id="10" name="STOWAGE_PLAN_DEFAULT_SHAPE_753613">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0D59AD1-2068-477A-AB0D-B2428322B859}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54991707-7B7E-4722-B77B-6D547135E3C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13983,7 +13891,7 @@
         <xdr:cNvPr id="11" name="STOWAGE_PLAN_DEFAULT_SHAPE_596035">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36E6A9EE-16D6-478B-8792-9EED1DE1A5B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBDB3946-1080-4657-9EB5-C59C01CDB71A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14056,7 +13964,7 @@
         <xdr:cNvPr id="12" name="STOWAGE_PLAN_DEFAULT_SHAPE_832647">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{654EFD43-08CB-4950-9C3A-7314FEDB5983}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{300E5AF3-4F42-40C5-9A62-1A869DE8E639}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14226,7 +14134,7 @@
         <xdr:cNvPr id="13" name="STOWAGE_PLAN_DEFAULT_SHAPE_18757">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F171246-ACCE-49D3-809A-059B4C3B9FBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70F7CA59-A687-473C-8A6A-C5FEE9AA04FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14294,7 +14202,7 @@
         <xdr:cNvPr id="14" name="STOWAGE_PLAN_DEFAULT_SHAPE_210348">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CA5D3BB-A4B2-4E15-8D3D-0F7A5204FA71}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74B5D5B7-16E3-45FF-BACC-9989D5CF48CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14379,7 +14287,7 @@
         <xdr:cNvPr id="2" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C416ABE5-401C-4BB6-A57C-4D79FB376C07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90E24A6A-3AB3-49A4-BD86-9E5CBDD680BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14428,7 +14336,7 @@
         <xdr:cNvPr id="3" name="Line 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D73BFD96-77B2-46B2-A6EF-E71AD86D9BBD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1745FC27-BAC8-451B-9DEC-71B186F36221}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14483,7 +14391,7 @@
         <xdr:cNvPr id="4" name="Freeform 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{062C4006-F0D7-43DD-91BA-238B22118BCF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{459DDE22-5298-412C-BA51-623EFB17BCC3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14607,7 +14515,7 @@
         <xdr:cNvPr id="5" name="Freeform 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5DCAFA2-4C84-4827-BD0E-F27F6847BF57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4636E46E-D8E4-4220-BFB5-834713FDAACF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14785,7 +14693,7 @@
         <xdr:cNvPr id="6" name="Freeform 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88F39F90-23E0-4552-9416-5A78FF8454B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEDC430F-EBEB-4B63-9B32-1DEB5E7EE021}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14898,7 +14806,7 @@
         <xdr:cNvPr id="7" name="Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DCF698E-81AC-44FE-8F30-F803FB2C5FC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{879DEDBB-5CF1-4BC7-A109-9A83458523C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14947,7 +14855,7 @@
         <xdr:cNvPr id="8" name="Rectangle 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FC5D5D3-61AD-4710-B69A-410379849D21}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05D1EC76-AF92-4256-A7A3-FED940DB1F87}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14996,7 +14904,7 @@
         <xdr:cNvPr id="9" name="Line 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{194570F8-FCB7-4CD2-8E4B-062E50C7822C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{725C17EC-35B3-4FB9-BE11-5CADAC399BEB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15050,7 +14958,7 @@
         <xdr:cNvPr id="10" name="Text Box 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B42C535-B393-4A6A-AE5C-E9D9FE0191D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0CAEDC7-1186-401B-A384-CEF51477DD70}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15113,7 +15021,7 @@
         <xdr:cNvPr id="11" name="Line 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89CCF5B3-85CE-4FE6-8F97-615FB72E4C38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6418D398-C11A-4C70-B153-C1453802678E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15168,7 +15076,7 @@
         <xdr:cNvPr id="12" name="Line 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37FAC2B9-152A-43B6-8991-85CD438EF7F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2411CDC5-22F9-4AD8-9999-F3446466D56D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15223,7 +15131,7 @@
         <xdr:cNvPr id="13" name="Line 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF8F4A1F-031D-442D-8077-538BD8ADCC39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCF8012C-856F-4840-A9F9-45DD01D9E2D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15278,7 +15186,7 @@
         <xdr:cNvPr id="14" name="Line 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DB62472-7F24-41F4-A4D7-5F3A70810E51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8B87F9F-2D62-4A4C-941E-4A8418897443}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15332,7 +15240,7 @@
         <xdr:cNvPr id="15" name="Line 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E29D4EAA-4ED4-4284-B34C-15638A93C628}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE35589C-D926-42C2-86CB-B5B4EA8446ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15386,7 +15294,7 @@
         <xdr:cNvPr id="16" name="Text Box 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{682B1CB9-4AFD-44F1-977B-A258D92F0700}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEA5066D-F524-4702-A73C-0A88F2E00CEF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15449,7 +15357,7 @@
         <xdr:cNvPr id="17" name="Line 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E311097-2812-402E-A7CC-EC210FEC6DDA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A5B61AE-B519-4DF3-BA8B-F79E327CC239}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15503,7 +15411,7 @@
         <xdr:cNvPr id="18" name="Line 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FC7F831-E78E-4C74-9804-ECC7523A4CF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAC9C8ED-0D8A-4A6F-B01E-E0222D789877}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15557,7 +15465,7 @@
         <xdr:cNvPr id="19" name="Line 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{171E02A2-4C5F-4F14-A288-95AA38CAAD5A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB6A3649-7206-41FE-B164-A0639A1E93F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15611,7 +15519,7 @@
         <xdr:cNvPr id="20" name="Freeform 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92C2E91F-F7F7-4959-9331-2435BDBB4B2F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5B17F87-2551-4815-A873-8DDDEC3706AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15735,7 +15643,7 @@
         <xdr:cNvPr id="21" name="Line 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06F782E7-876B-4D5C-AC43-B45A51DC09BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7D4285A-11DD-4E6B-922B-7180DFB5542D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15790,7 +15698,7 @@
         <xdr:cNvPr id="22" name="Line 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE7DBAF9-B87C-4A2E-AE83-3C05FDDD14F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3077B52-97B3-4022-93A8-A9E98DB168B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15845,7 +15753,7 @@
         <xdr:cNvPr id="23" name="Line 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A6A1107-8499-4A61-99A2-A1EB81255258}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71837310-43F1-472D-97D6-DB0361E3BF99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15900,7 +15808,7 @@
         <xdr:cNvPr id="24" name="Line 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2173F190-DE6B-4E96-B2AC-09C4642EC6D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A6B2FA4-639B-4377-9738-7EE90EC2F7A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15955,7 +15863,7 @@
         <xdr:cNvPr id="25" name="AutoShape 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8CA2AFA-D03B-4798-96D6-368A2A0730C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4585090-862C-4039-B314-8145AB2327D4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16006,7 +15914,7 @@
         <xdr:cNvPr id="26" name="AutoShape 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7760437-1D63-4A13-8FC5-31B0C5CA5DF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FD9B062-2B04-4F90-A331-C4A480025391}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16057,7 +15965,7 @@
         <xdr:cNvPr id="27" name="Line 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B67B9EA7-0D8A-4C1B-B098-290C67B8DF92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F4BC110-143A-4E43-9F47-3B3B66D1FC00}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16111,7 +16019,7 @@
         <xdr:cNvPr id="28" name="Text Box 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{711BB8DE-3B74-4C8C-ABEA-8A866B68BFC5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{300FA30C-3F2A-430E-A205-8DE40D0E0329}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16174,7 +16082,7 @@
         <xdr:cNvPr id="29" name="Text Box 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2F7EFC5-B99F-4643-A8F1-9F6A98876133}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF6F4ADD-63E6-42BD-86A2-BBF6CC03CC69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16237,7 +16145,7 @@
         <xdr:cNvPr id="30" name="Text Box 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B514F26-2789-4F1A-960D-950F44FA1546}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91710ED5-9E67-4F7F-A4B7-2593F59B8F4C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16300,7 +16208,7 @@
         <xdr:cNvPr id="31" name="Text Box 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CFAF573-897A-48CF-AEEC-7065DE3C81F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19D6520D-90ED-4FA1-8B32-93C35D18D339}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16363,7 +16271,7 @@
         <xdr:cNvPr id="32" name="Line 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{065AF27E-01C3-4E5F-8223-662E14565F2F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59A67BEC-5604-4A34-8048-67974F1D45C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16417,7 +16325,7 @@
         <xdr:cNvPr id="33" name="Line 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{523BD94A-8F6B-489D-87BD-532752FABEB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6C970F6-E26B-43F0-B6AC-736617B6C7AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16472,7 +16380,7 @@
         <xdr:cNvPr id="34" name="Line 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61AA5D04-47B4-46E5-9D64-D6FE5DF10514}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA3EBF36-9610-462E-B7DA-412133C84C74}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16527,7 +16435,7 @@
         <xdr:cNvPr id="35" name="Line 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90FE283F-FE7A-461C-8732-B5D482ECE770}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7EFBA8D-5FE8-4C0D-A044-2E1E5B264645}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16581,7 +16489,7 @@
         <xdr:cNvPr id="36" name="Line 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3ADF58E-8B3A-410A-8699-FFAA7E6F2512}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82A5A156-DEE2-4F8B-A644-6AF958D32313}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16636,7 +16544,7 @@
         <xdr:cNvPr id="37" name="Line 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35D44D27-19B8-4051-BBFE-2C702313D9B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2F6128F-3048-4DAC-B4A3-468DB003464A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16691,7 +16599,7 @@
         <xdr:cNvPr id="38" name="Line 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27DAEA02-4275-40AD-9232-E87B32BD9259}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC61D891-8237-4DFF-B6A6-FF487E16EED5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16745,7 +16653,7 @@
         <xdr:cNvPr id="39" name="Line 38">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4504B326-D402-4C22-8A1D-2DB5FFDAAB85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C830345-0CA8-49E7-BE63-3CB40615BA98}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16799,7 +16707,7 @@
         <xdr:cNvPr id="40" name="Text Box 39">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{060767A8-F3A2-4FDE-B0B1-3B77A8269E1F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C4B3877-06BC-457E-A3D6-90924C32887E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16862,7 +16770,7 @@
         <xdr:cNvPr id="41" name="Line 40">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2118B793-84A3-473F-89E5-7A75D735ED2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E446736F-F636-4971-A2E1-D4C6BF993537}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16916,7 +16824,7 @@
         <xdr:cNvPr id="42" name="Line 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4351801-5191-4EE7-B3BD-1E26D3F7ACF7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF835592-55DC-4B78-9744-0CE953EC6520}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16970,7 +16878,7 @@
         <xdr:cNvPr id="43" name="Text Box 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93AAD6AD-B660-4E58-A012-13810054547F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{248E509D-3327-4CB5-BABF-067D9C83B290}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17033,7 +16941,7 @@
         <xdr:cNvPr id="44" name="Line 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE363993-3964-4C99-8A6D-5DA66A21F081}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE850C45-C8D8-4BEE-9F8A-6A3046D21A04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17087,7 +16995,7 @@
         <xdr:cNvPr id="45" name="Line 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393C8FE0-E945-4483-875B-15B573193245}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1396C4F3-EAB8-4EE4-9343-D3234005EC4A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17141,7 +17049,7 @@
         <xdr:cNvPr id="46" name="Line 45">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40CCBA2E-C66D-4647-A889-1FEB42DE734D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECAEF75D-CCB8-4366-AFD6-DD78E14BF7C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17196,7 +17104,7 @@
         <xdr:cNvPr id="47" name="Text Box 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{711DD0B6-AC63-4FBC-8A1B-AAC5F02448BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88AB82A1-B22F-451F-B85B-D29B9FB53884}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17259,7 +17167,7 @@
         <xdr:cNvPr id="48" name="AutoShape 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B447A17-E542-48C3-8DEC-D8A108E9224C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B629B629-6FE3-4BA3-9273-369FEAF613CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17310,7 +17218,7 @@
         <xdr:cNvPr id="49" name="AutoShape 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F4F6BAA-3615-4AC5-86A2-562AE7249320}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{085949D3-DF94-4254-AFA7-637E4CAEEB56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17361,7 +17269,7 @@
         <xdr:cNvPr id="50" name="AutoShape 50">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8F9E751-978F-4554-8F85-FB1F44646349}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59EDB3DC-EA99-4F32-A8D6-7F6B32343448}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17412,7 +17320,7 @@
         <xdr:cNvPr id="51" name="AutoShape 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58657E78-FD22-4A16-A2B9-E6D9AB7B7267}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44505EC7-AA7D-406A-A4DC-05D73F5A33A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17463,7 +17371,7 @@
         <xdr:cNvPr id="52" name="Text Box 53">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68040AF8-245A-4AD7-BFA5-57DE3265CE07}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{493D1FC4-1CA3-4EA5-A3BC-73BB44B95C8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17526,7 +17434,7 @@
         <xdr:cNvPr id="53" name="Line 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ACC9768-EB3B-4B13-812E-46F9CBDD4EA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC00FA45-D912-4921-8191-305C99D326C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17580,7 +17488,7 @@
         <xdr:cNvPr id="54" name="Text Box 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E2AC1AC-9A5D-4FC6-9A16-5768B6EDBDCD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88B625A4-C06D-435B-A4D3-104D9CB7B9A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17641,7 +17549,7 @@
         <xdr:cNvPr id="55" name="Line 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BF507AB-45A7-4211-9580-214F82FB16C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2BF73C4-2333-4C5F-BAD7-A60EF6C98522}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17695,7 +17603,7 @@
         <xdr:cNvPr id="56" name="Text Box 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0603B0EC-0B68-4A2A-83FF-B2CB4D9F498B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2846D99E-BAD8-4C0C-840F-2DC37E833377}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17756,7 +17664,7 @@
         <xdr:cNvPr id="57" name="Line 58">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{285EEBB4-8EC8-4247-A544-4C6B1C6DFF82}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABD2E137-CAAD-4838-A1BA-C9A207C43D6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17823,88 +17731,69 @@
         </row>
         <row r="33">
           <cell r="J33">
-            <v>119</v>
+            <v>2</v>
           </cell>
           <cell r="AC33">
-            <v>121</v>
+            <v>2</v>
           </cell>
           <cell r="BG33">
-            <v>75</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="34">
           <cell r="J34">
-            <v>175.5</v>
+            <v>33.299999999999997</v>
           </cell>
           <cell r="AC34">
-            <v>195.6</v>
+            <v>15.5</v>
           </cell>
           <cell r="BG34">
-            <v>95.6</v>
+            <v>55.6</v>
           </cell>
         </row>
-        <row r="39">
-          <cell r="AC39">
+        <row r="40">
+          <cell r="BF40">
+            <v>22</v>
+          </cell>
+          <cell r="CA40">
             <v>2</v>
           </cell>
         </row>
-        <row r="40">
-          <cell r="P40">
-            <v>25</v>
-          </cell>
-          <cell r="AC40">
-            <v>152.30000000000001</v>
-          </cell>
-          <cell r="BF40">
-            <v>89</v>
-          </cell>
-          <cell r="CA40">
-            <v>55</v>
-          </cell>
-        </row>
         <row r="41">
-          <cell r="P41">
-            <v>135.30000000000001</v>
-          </cell>
           <cell r="BF41">
-            <v>12.3</v>
-          </cell>
-          <cell r="BP41">
-            <v>25</v>
+            <v>47.5</v>
           </cell>
           <cell r="CA41">
-            <v>12.3</v>
+            <v>15.6</v>
           </cell>
         </row>
         <row r="42">
           <cell r="H42">
             <v>34</v>
           </cell>
-          <cell r="BP42">
-            <v>50.3</v>
-          </cell>
         </row>
         <row r="43">
           <cell r="H43">
-            <v>135.30000000000001</v>
+            <v>15.6</v>
           </cell>
           <cell r="AE43">
-            <v>34</v>
+            <v>15</v>
           </cell>
         </row>
         <row r="44">
           <cell r="AE44">
-            <v>152.30000000000001</v>
+            <v>78.8</v>
           </cell>
         </row>
-        <row r="49">
-          <cell r="CA49">
+        <row r="45">
+          <cell r="BD45">
             <v>55</v>
           </cell>
-        </row>
-        <row r="50">
-          <cell r="CA50">
-            <v>12.3</v>
+          <cell r="BG45">
+            <v>65.3</v>
+          </cell>
+          <cell r="BO45">
+            <v>25</v>
           </cell>
         </row>
         <row r="68">
@@ -17915,24 +17804,6 @@
         <row r="76">
           <cell r="AF76" t="str">
             <v xml:space="preserve"> </v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="AD106">
-            <v>45</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="AD107">
-            <v>135.30000000000001</v>
-          </cell>
-          <cell r="AV107">
-            <v>45</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="AV108">
-            <v>135.30000000000001</v>
           </cell>
         </row>
       </sheetData>
@@ -18241,20 +18112,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65BE3C76-68AF-4ABA-8D4A-FD3FD451F336}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45347CEA-EBF4-4AD4-9B3C-480A0FCB63FD}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:DF145"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11:V11"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6" style="2" customWidth="1"/>
-    <col min="2" max="102" width="2.85546875" style="2" customWidth="1"/>
+    <col min="2" max="16" width="2.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="2.7109375" style="2" customWidth="1"/>
+    <col min="18" max="102" width="2.85546875" style="2" customWidth="1"/>
     <col min="103" max="103" width="2.85546875" style="3" customWidth="1"/>
     <col min="104" max="120" width="2.85546875" style="2" customWidth="1"/>
     <col min="121" max="16384" width="9.140625" style="2"/>
@@ -18961,84 +18832,84 @@
       <c r="AS9" s="47"/>
       <c r="AT9" s="48"/>
       <c r="AU9" s="49">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="AV9" s="50"/>
       <c r="AW9" s="50"/>
       <c r="AX9" s="50"/>
       <c r="AY9" s="50"/>
       <c r="AZ9" s="51">
-        <v>175.5</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="BA9" s="51"/>
       <c r="BB9" s="51"/>
       <c r="BC9" s="51"/>
       <c r="BD9" s="51"/>
       <c r="BE9" s="50">
-        <v>211</v>
+        <v>2</v>
       </c>
       <c r="BF9" s="50"/>
       <c r="BG9" s="50"/>
       <c r="BH9" s="50"/>
       <c r="BI9" s="50"/>
       <c r="BJ9" s="51">
-        <v>466.2</v>
+        <v>15.5</v>
       </c>
       <c r="BK9" s="51"/>
       <c r="BL9" s="51"/>
       <c r="BM9" s="51"/>
       <c r="BN9" s="51"/>
       <c r="BO9" s="50">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BP9" s="50"/>
       <c r="BQ9" s="50"/>
       <c r="BR9" s="50"/>
       <c r="BS9" s="50"/>
       <c r="BT9" s="51">
-        <v>145.89999999999998</v>
+        <v>55.6</v>
       </c>
       <c r="BU9" s="51"/>
       <c r="BV9" s="51"/>
       <c r="BW9" s="51"/>
       <c r="BX9" s="51"/>
       <c r="BY9" s="50">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="BZ9" s="50"/>
       <c r="CA9" s="50"/>
       <c r="CB9" s="50"/>
       <c r="CC9" s="50"/>
       <c r="CD9" s="51">
-        <v>24.6</v>
+        <v>15.6</v>
       </c>
       <c r="CE9" s="51"/>
       <c r="CF9" s="51"/>
       <c r="CG9" s="51"/>
       <c r="CH9" s="52"/>
       <c r="CI9" s="53">
-        <v>540</v>
+        <v>56</v>
       </c>
       <c r="CJ9" s="54"/>
       <c r="CK9" s="54"/>
       <c r="CL9" s="54"/>
       <c r="CM9" s="55"/>
       <c r="CN9" s="56">
-        <v>812.2</v>
+        <v>120</v>
       </c>
       <c r="CO9" s="57"/>
       <c r="CP9" s="57"/>
       <c r="CQ9" s="57"/>
       <c r="CR9" s="58"/>
       <c r="CS9" s="49">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="CT9" s="50"/>
       <c r="CU9" s="50"/>
       <c r="CV9" s="50"/>
       <c r="CW9" s="50"/>
       <c r="CX9" s="51">
-        <v>482.5</v>
+        <v>12.5</v>
       </c>
       <c r="CY9" s="51"/>
       <c r="CZ9" s="51"/>
@@ -19108,28 +18979,28 @@
       <c r="BC10" s="69"/>
       <c r="BD10" s="69"/>
       <c r="BE10" s="68">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="BF10" s="68"/>
       <c r="BG10" s="68"/>
       <c r="BH10" s="68"/>
       <c r="BI10" s="68"/>
       <c r="BJ10" s="69">
-        <v>304.60000000000002</v>
+        <v>78.8</v>
       </c>
       <c r="BK10" s="69"/>
       <c r="BL10" s="69"/>
       <c r="BM10" s="69"/>
       <c r="BN10" s="69"/>
       <c r="BO10" s="68">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="BP10" s="68"/>
       <c r="BQ10" s="68"/>
       <c r="BR10" s="68"/>
       <c r="BS10" s="68"/>
       <c r="BT10" s="69">
-        <v>12.3</v>
+        <v>47.5</v>
       </c>
       <c r="BU10" s="69"/>
       <c r="BV10" s="69"/>
@@ -19146,14 +19017,14 @@
       <c r="CG10" s="69"/>
       <c r="CH10" s="70"/>
       <c r="CI10" s="71">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="CJ10" s="72"/>
       <c r="CK10" s="72"/>
       <c r="CL10" s="72"/>
       <c r="CM10" s="73"/>
       <c r="CN10" s="74">
-        <v>316.90000000000003</v>
+        <v>126.3</v>
       </c>
       <c r="CO10" s="75"/>
       <c r="CP10" s="75"/>
@@ -19453,14 +19324,14 @@
       <c r="AS13" s="119"/>
       <c r="AT13" s="120"/>
       <c r="AU13" s="121">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="AV13" s="122"/>
       <c r="AW13" s="122"/>
       <c r="AX13" s="122"/>
       <c r="AY13" s="122"/>
       <c r="AZ13" s="123">
-        <v>270.60000000000002</v>
+        <v>15.6</v>
       </c>
       <c r="BA13" s="123"/>
       <c r="BB13" s="123"/>
@@ -19476,12 +19347,16 @@
       <c r="BL13" s="123"/>
       <c r="BM13" s="123"/>
       <c r="BN13" s="123"/>
-      <c r="BO13" s="122"/>
+      <c r="BO13" s="122">
+        <v>55</v>
+      </c>
       <c r="BP13" s="122"/>
       <c r="BQ13" s="122"/>
       <c r="BR13" s="122"/>
       <c r="BS13" s="122"/>
-      <c r="BT13" s="123"/>
+      <c r="BT13" s="123">
+        <v>65.3</v>
+      </c>
       <c r="BU13" s="123"/>
       <c r="BV13" s="123"/>
       <c r="BW13" s="123"/>
@@ -19497,21 +19372,21 @@
       <c r="CG13" s="123"/>
       <c r="CH13" s="124"/>
       <c r="CI13" s="125">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="CJ13" s="126"/>
       <c r="CK13" s="126"/>
       <c r="CL13" s="126"/>
       <c r="CM13" s="127"/>
       <c r="CN13" s="128">
-        <v>270.60000000000002</v>
+        <v>80.899999999999991</v>
       </c>
       <c r="CO13" s="129"/>
       <c r="CP13" s="129"/>
       <c r="CQ13" s="129"/>
       <c r="CR13" s="130"/>
       <c r="CS13" s="121">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="CT13" s="122"/>
       <c r="CU13" s="122"/>
@@ -20769,56 +20644,56 @@
       <c r="AS25" s="33"/>
       <c r="AT25" s="34"/>
       <c r="AU25" s="316">
-        <v>178</v>
+        <v>36</v>
       </c>
       <c r="AV25" s="317"/>
       <c r="AW25" s="317"/>
       <c r="AX25" s="317"/>
       <c r="AY25" s="318"/>
       <c r="AZ25" s="316">
-        <v>446.1</v>
+        <v>48.9</v>
       </c>
       <c r="BA25" s="317"/>
       <c r="BB25" s="317"/>
       <c r="BC25" s="317"/>
       <c r="BD25" s="318"/>
       <c r="BE25" s="316">
-        <v>247</v>
+        <v>17</v>
       </c>
       <c r="BF25" s="317"/>
       <c r="BG25" s="317"/>
       <c r="BH25" s="317"/>
       <c r="BI25" s="318"/>
       <c r="BJ25" s="316">
-        <v>770.8</v>
+        <v>94.3</v>
       </c>
       <c r="BK25" s="317"/>
       <c r="BL25" s="317"/>
       <c r="BM25" s="317"/>
       <c r="BN25" s="318"/>
       <c r="BO25" s="316">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="BP25" s="317"/>
       <c r="BQ25" s="317"/>
       <c r="BR25" s="317"/>
       <c r="BS25" s="318"/>
       <c r="BT25" s="316">
-        <v>158.19999999999999</v>
+        <v>168.39999999999998</v>
       </c>
       <c r="BU25" s="317"/>
       <c r="BV25" s="317"/>
       <c r="BW25" s="317"/>
       <c r="BX25" s="318"/>
       <c r="BY25" s="316">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="BZ25" s="317"/>
       <c r="CA25" s="317"/>
       <c r="CB25" s="317"/>
       <c r="CC25" s="318"/>
       <c r="CD25" s="319">
-        <v>24.6</v>
+        <v>15.6</v>
       </c>
       <c r="CE25" s="320"/>
       <c r="CF25" s="320"/>
@@ -20907,28 +20782,28 @@
       <c r="CG26" s="323"/>
       <c r="CH26" s="327"/>
       <c r="CI26" s="324">
-        <v>724</v>
+        <v>207</v>
       </c>
       <c r="CJ26" s="325"/>
       <c r="CK26" s="325"/>
       <c r="CL26" s="325"/>
       <c r="CM26" s="326"/>
       <c r="CN26" s="328">
-        <v>1399.7000000000003</v>
+        <v>327.2</v>
       </c>
       <c r="CO26" s="329"/>
       <c r="CP26" s="329"/>
       <c r="CQ26" s="329"/>
       <c r="CR26" s="330"/>
       <c r="CS26" s="324">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="CT26" s="325"/>
       <c r="CU26" s="325"/>
       <c r="CV26" s="325"/>
       <c r="CW26" s="326"/>
       <c r="CX26" s="324">
-        <v>542.29999999999995</v>
+        <v>72.3</v>
       </c>
       <c r="CY26" s="325"/>
       <c r="CZ26" s="325"/>
@@ -21293,13 +21168,13 @@
       <c r="CJ31" s="343"/>
       <c r="CK31" s="343"/>
       <c r="CY31" s="344">
-        <v>315</v>
+        <v>54</v>
       </c>
       <c r="CZ31" s="345"/>
       <c r="DA31" s="345"/>
       <c r="DB31" s="346"/>
       <c r="DC31" s="1">
-        <v>315</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="2:107" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
@@ -21395,13 +21270,13 @@
       <c r="CJ32" s="343"/>
       <c r="CK32" s="343"/>
       <c r="CY32" s="352">
-        <v>466.70000000000005</v>
+        <v>104.4</v>
       </c>
       <c r="CZ32" s="353"/>
       <c r="DA32" s="353"/>
       <c r="DB32" s="354"/>
       <c r="DC32" s="1">
-        <v>466.70000000000005</v>
+        <v>104.4</v>
       </c>
     </row>
     <row r="33" spans="2:107" ht="20.100000000000001" customHeight="1" thickTop="1">
@@ -21414,7 +21289,7 @@
       <c r="H33" s="336"/>
       <c r="I33" s="336"/>
       <c r="J33" s="355">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="K33" s="356"/>
       <c r="L33" s="356"/>
@@ -21435,7 +21310,7 @@
       <c r="AA33" s="336"/>
       <c r="AB33" s="336"/>
       <c r="AC33" s="355">
-        <v>121</v>
+        <v>2</v>
       </c>
       <c r="AD33" s="356"/>
       <c r="AE33" s="356"/>
@@ -21467,7 +21342,7 @@
       <c r="BE33" s="336"/>
       <c r="BF33" s="336"/>
       <c r="BG33" s="355">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="BH33" s="356"/>
       <c r="BI33" s="356"/>
@@ -21499,7 +21374,7 @@
       <c r="H34" s="336"/>
       <c r="I34" s="336"/>
       <c r="J34" s="361">
-        <v>175.5</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="K34" s="356"/>
       <c r="L34" s="356"/>
@@ -21520,7 +21395,7 @@
       <c r="AA34" s="336"/>
       <c r="AB34" s="336"/>
       <c r="AC34" s="361">
-        <v>195.6</v>
+        <v>15.5</v>
       </c>
       <c r="AD34" s="356"/>
       <c r="AE34" s="356"/>
@@ -21552,7 +21427,7 @@
       <c r="BE34" s="336"/>
       <c r="BF34" s="336"/>
       <c r="BG34" s="361">
-        <v>95.6</v>
+        <v>55.6</v>
       </c>
       <c r="BH34" s="356"/>
       <c r="BI34" s="356"/>
@@ -21937,14 +21812,12 @@
       <c r="Y39" s="375"/>
       <c r="Z39" s="376"/>
       <c r="AB39" s="377"/>
-      <c r="AC39" s="378">
-        <v>2</v>
-      </c>
+      <c r="AC39" s="343"/>
       <c r="AD39" s="343"/>
       <c r="AE39" s="343"/>
       <c r="AF39" s="377"/>
       <c r="AG39" s="377"/>
-      <c r="BB39" s="379"/>
+      <c r="BB39" s="378"/>
       <c r="BD39" s="377"/>
       <c r="BE39" s="377"/>
       <c r="BF39" s="377"/>
@@ -21954,8 +21827,8 @@
       <c r="BJ39" s="377"/>
       <c r="BK39" s="377"/>
       <c r="BY39" s="337"/>
-      <c r="CW39" s="379"/>
-      <c r="CY39" s="380" t="s">
+      <c r="CW39" s="378"/>
+      <c r="CY39" s="379" t="s">
         <v>35</v>
       </c>
     </row>
@@ -21974,12 +21847,10 @@
       <c r="M40" s="375"/>
       <c r="N40" s="375"/>
       <c r="O40" s="375"/>
-      <c r="P40" s="381">
-        <v>25</v>
-      </c>
-      <c r="Q40" s="382"/>
-      <c r="R40" s="382"/>
-      <c r="S40" s="382"/>
+      <c r="P40" s="380"/>
+      <c r="Q40" s="380"/>
+      <c r="R40" s="380"/>
+      <c r="S40" s="380"/>
       <c r="T40" s="375"/>
       <c r="U40" s="375"/>
       <c r="V40" s="375"/>
@@ -21988,40 +21859,38 @@
       <c r="Y40" s="375"/>
       <c r="Z40" s="376"/>
       <c r="AB40" s="377"/>
-      <c r="AC40" s="383">
-        <v>152.30000000000001</v>
-      </c>
+      <c r="AC40" s="343"/>
       <c r="AD40" s="343"/>
       <c r="AE40" s="343"/>
       <c r="AF40" s="377"/>
       <c r="AG40" s="377"/>
-      <c r="BB40" s="379"/>
+      <c r="BB40" s="378"/>
       <c r="BD40" s="377"/>
       <c r="BE40" s="377"/>
-      <c r="BF40" s="384">
-        <v>89</v>
-      </c>
-      <c r="BG40" s="385"/>
-      <c r="BH40" s="385"/>
-      <c r="BI40" s="385"/>
+      <c r="BF40" s="381">
+        <v>22</v>
+      </c>
+      <c r="BG40" s="382"/>
+      <c r="BH40" s="382"/>
+      <c r="BI40" s="382"/>
       <c r="BJ40" s="377"/>
-      <c r="BK40" s="386"/>
+      <c r="BK40" s="383"/>
       <c r="BY40" s="337"/>
-      <c r="CA40" s="387">
-        <v>55</v>
+      <c r="CA40" s="384">
+        <v>2</v>
       </c>
       <c r="CB40" s="362"/>
       <c r="CC40" s="362"/>
       <c r="CD40" s="362"/>
-      <c r="CW40" s="379"/>
+      <c r="CW40" s="378"/>
       <c r="CY40" s="344">
-        <v>264</v>
+        <v>153</v>
       </c>
       <c r="CZ40" s="345"/>
       <c r="DA40" s="345"/>
       <c r="DB40" s="346"/>
       <c r="DC40" s="1">
-        <v>264</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="2:107" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
@@ -22036,15 +21905,13 @@
       <c r="J41" s="375"/>
       <c r="K41" s="375"/>
       <c r="L41" s="375"/>
-      <c r="M41" s="388"/>
-      <c r="N41" s="388"/>
-      <c r="O41" s="388"/>
-      <c r="P41" s="389">
-        <v>135.30000000000001</v>
-      </c>
-      <c r="Q41" s="382"/>
-      <c r="R41" s="382"/>
-      <c r="S41" s="382"/>
+      <c r="M41" s="385"/>
+      <c r="N41" s="385"/>
+      <c r="O41" s="385"/>
+      <c r="P41" s="380"/>
+      <c r="Q41" s="380"/>
+      <c r="R41" s="380"/>
+      <c r="S41" s="380"/>
       <c r="T41" s="375"/>
       <c r="U41" s="375"/>
       <c r="V41" s="375"/>
@@ -22058,60 +21925,58 @@
       <c r="AE41" s="377"/>
       <c r="AF41" s="377"/>
       <c r="AG41" s="377"/>
-      <c r="AL41" s="390"/>
-      <c r="AM41" s="391"/>
-      <c r="AN41" s="391"/>
-      <c r="AO41" s="391"/>
-      <c r="AP41" s="391"/>
-      <c r="AQ41" s="391"/>
-      <c r="AR41" s="391"/>
-      <c r="AS41" s="391"/>
-      <c r="AT41" s="391"/>
-      <c r="AU41" s="391"/>
-      <c r="AV41" s="392"/>
-      <c r="BB41" s="379"/>
+      <c r="AL41" s="386"/>
+      <c r="AM41" s="387"/>
+      <c r="AN41" s="387"/>
+      <c r="AO41" s="387"/>
+      <c r="AP41" s="387"/>
+      <c r="AQ41" s="387"/>
+      <c r="AR41" s="387"/>
+      <c r="AS41" s="387"/>
+      <c r="AT41" s="387"/>
+      <c r="AU41" s="387"/>
+      <c r="AV41" s="388"/>
+      <c r="BB41" s="378"/>
       <c r="BD41" s="377"/>
       <c r="BE41" s="377"/>
-      <c r="BF41" s="393">
-        <v>12.3</v>
-      </c>
-      <c r="BG41" s="385"/>
-      <c r="BH41" s="385"/>
-      <c r="BI41" s="385"/>
+      <c r="BF41" s="389">
+        <v>47.5</v>
+      </c>
+      <c r="BG41" s="382"/>
+      <c r="BH41" s="382"/>
+      <c r="BI41" s="382"/>
       <c r="BJ41" s="377"/>
       <c r="BK41" s="377"/>
-      <c r="BP41" s="387">
-        <v>25</v>
-      </c>
+      <c r="BP41" s="362"/>
       <c r="BQ41" s="362"/>
       <c r="BR41" s="362"/>
       <c r="BS41" s="362"/>
       <c r="BY41" s="337"/>
-      <c r="CA41" s="394">
-        <v>12.3</v>
+      <c r="CA41" s="390">
+        <v>15.6</v>
       </c>
       <c r="CB41" s="362"/>
       <c r="CC41" s="362"/>
       <c r="CD41" s="362"/>
-      <c r="CH41" s="390"/>
-      <c r="CI41" s="391"/>
-      <c r="CJ41" s="391"/>
-      <c r="CK41" s="391"/>
-      <c r="CL41" s="391"/>
-      <c r="CM41" s="391"/>
-      <c r="CN41" s="391"/>
-      <c r="CO41" s="391"/>
-      <c r="CP41" s="391"/>
-      <c r="CQ41" s="392"/>
-      <c r="CW41" s="379"/>
+      <c r="CH41" s="386"/>
+      <c r="CI41" s="387"/>
+      <c r="CJ41" s="387"/>
+      <c r="CK41" s="387"/>
+      <c r="CL41" s="387"/>
+      <c r="CM41" s="387"/>
+      <c r="CN41" s="387"/>
+      <c r="CO41" s="387"/>
+      <c r="CP41" s="387"/>
+      <c r="CQ41" s="388"/>
+      <c r="CW41" s="378"/>
       <c r="CY41" s="352">
-        <v>650.10000000000014</v>
+        <v>222.8</v>
       </c>
       <c r="CZ41" s="353"/>
       <c r="DA41" s="353"/>
       <c r="DB41" s="354"/>
       <c r="DC41" s="1">
-        <v>650.10000000000014</v>
+        <v>222.8</v>
       </c>
     </row>
     <row r="42" spans="2:107" ht="20.100000000000001" customHeight="1" thickTop="1">
@@ -22121,15 +21986,15 @@
       <c r="E42" s="375"/>
       <c r="F42" s="375"/>
       <c r="G42" s="375"/>
-      <c r="H42" s="381">
+      <c r="H42" s="391">
         <v>34</v>
       </c>
-      <c r="I42" s="382"/>
-      <c r="J42" s="382"/>
-      <c r="K42" s="382"/>
+      <c r="I42" s="380"/>
+      <c r="J42" s="380"/>
+      <c r="K42" s="380"/>
       <c r="L42" s="375"/>
       <c r="M42" s="375"/>
-      <c r="N42" s="388"/>
+      <c r="N42" s="385"/>
       <c r="O42" s="375"/>
       <c r="P42" s="375"/>
       <c r="Q42" s="375"/>
@@ -22148,18 +22013,18 @@
       <c r="AE42" s="377"/>
       <c r="AF42" s="377"/>
       <c r="AG42" s="377"/>
-      <c r="AL42" s="395"/>
-      <c r="AM42" s="396"/>
-      <c r="AN42" s="396"/>
-      <c r="AO42" s="396"/>
-      <c r="AP42" s="396"/>
-      <c r="AQ42" s="396"/>
-      <c r="AR42" s="396"/>
-      <c r="AS42" s="396"/>
-      <c r="AT42" s="396"/>
-      <c r="AU42" s="396"/>
-      <c r="AV42" s="397"/>
-      <c r="BB42" s="379"/>
+      <c r="AL42" s="392"/>
+      <c r="AM42" s="393"/>
+      <c r="AN42" s="393"/>
+      <c r="AO42" s="393"/>
+      <c r="AP42" s="393"/>
+      <c r="AQ42" s="393"/>
+      <c r="AR42" s="393"/>
+      <c r="AS42" s="393"/>
+      <c r="AT42" s="393"/>
+      <c r="AU42" s="393"/>
+      <c r="AV42" s="394"/>
+      <c r="BB42" s="378"/>
       <c r="BD42" s="377"/>
       <c r="BE42" s="377"/>
       <c r="BF42" s="377"/>
@@ -22168,24 +22033,22 @@
       <c r="BI42" s="377"/>
       <c r="BJ42" s="377"/>
       <c r="BK42" s="377"/>
-      <c r="BP42" s="394">
-        <v>50.3</v>
-      </c>
+      <c r="BP42" s="362"/>
       <c r="BQ42" s="362"/>
       <c r="BR42" s="362"/>
       <c r="BS42" s="362"/>
       <c r="BY42" s="337"/>
-      <c r="CH42" s="395"/>
-      <c r="CI42" s="396"/>
-      <c r="CJ42" s="396"/>
-      <c r="CK42" s="396"/>
-      <c r="CL42" s="396"/>
-      <c r="CM42" s="396"/>
-      <c r="CN42" s="396"/>
-      <c r="CO42" s="396"/>
-      <c r="CP42" s="396"/>
-      <c r="CQ42" s="397"/>
-      <c r="CW42" s="379"/>
+      <c r="CH42" s="392"/>
+      <c r="CI42" s="393"/>
+      <c r="CJ42" s="393"/>
+      <c r="CK42" s="393"/>
+      <c r="CL42" s="393"/>
+      <c r="CM42" s="393"/>
+      <c r="CN42" s="393"/>
+      <c r="CO42" s="393"/>
+      <c r="CP42" s="393"/>
+      <c r="CQ42" s="394"/>
+      <c r="CW42" s="378"/>
       <c r="CY42" s="360" t="s">
         <v>37</v>
       </c>
@@ -22200,12 +22063,12 @@
       <c r="E43" s="375"/>
       <c r="F43" s="375"/>
       <c r="G43" s="375"/>
-      <c r="H43" s="389">
-        <v>135.30000000000001</v>
-      </c>
-      <c r="I43" s="382"/>
-      <c r="J43" s="382"/>
-      <c r="K43" s="382"/>
+      <c r="H43" s="395">
+        <v>15.6</v>
+      </c>
+      <c r="I43" s="380"/>
+      <c r="J43" s="380"/>
+      <c r="K43" s="380"/>
       <c r="L43" s="375"/>
       <c r="M43" s="375"/>
       <c r="N43" s="375"/>
@@ -22224,12 +22087,12 @@
       <c r="AB43" s="377"/>
       <c r="AC43" s="377"/>
       <c r="AD43" s="377"/>
-      <c r="AE43" s="378">
-        <v>34</v>
+      <c r="AE43" s="396">
+        <v>15</v>
       </c>
       <c r="AF43" s="343"/>
       <c r="AG43" s="343"/>
-      <c r="BB43" s="379"/>
+      <c r="BB43" s="378"/>
       <c r="BD43" s="377"/>
       <c r="BE43" s="377"/>
       <c r="BF43" s="377"/>
@@ -22239,7 +22102,7 @@
       <c r="BJ43" s="377"/>
       <c r="BK43" s="377"/>
       <c r="BY43" s="337"/>
-      <c r="CW43" s="379"/>
+      <c r="CW43" s="378"/>
       <c r="CY43" s="363" t="s">
         <v>68</v>
       </c>
@@ -22270,20 +22133,20 @@
       <c r="U44" s="375"/>
       <c r="V44" s="375"/>
       <c r="W44" s="375"/>
-      <c r="X44" s="388"/>
+      <c r="X44" s="385"/>
       <c r="Y44" s="375"/>
       <c r="Z44" s="376"/>
       <c r="AB44" s="377"/>
       <c r="AC44" s="377"/>
       <c r="AD44" s="377"/>
-      <c r="AE44" s="383">
-        <v>152.30000000000001</v>
+      <c r="AE44" s="397">
+        <v>78.8</v>
       </c>
       <c r="AF44" s="343"/>
       <c r="AG44" s="343"/>
-      <c r="BB44" s="379"/>
+      <c r="BB44" s="378"/>
       <c r="BY44" s="337"/>
-      <c r="CW44" s="379"/>
+      <c r="CW44" s="378"/>
     </row>
     <row r="45" spans="2:107" ht="20.100000000000001" customHeight="1">
       <c r="B45" s="374"/>
@@ -22305,10 +22168,10 @@
       <c r="R45" s="375"/>
       <c r="S45" s="375"/>
       <c r="T45" s="375"/>
-      <c r="U45" s="388"/>
-      <c r="V45" s="388"/>
-      <c r="W45" s="388"/>
-      <c r="X45" s="388"/>
+      <c r="U45" s="385"/>
+      <c r="V45" s="385"/>
+      <c r="W45" s="385"/>
+      <c r="X45" s="385"/>
       <c r="Y45" s="375"/>
       <c r="Z45" s="376"/>
       <c r="AB45" s="377"/>
@@ -22316,12 +22179,27 @@
       <c r="AD45" s="377"/>
       <c r="AE45" s="377"/>
       <c r="AF45" s="377"/>
-      <c r="AG45" s="386"/>
+      <c r="AG45" s="383"/>
       <c r="AH45" s="12"/>
       <c r="AI45" s="12"/>
-      <c r="BB45" s="379"/>
+      <c r="BB45" s="378"/>
+      <c r="BD45" s="391">
+        <v>55</v>
+      </c>
+      <c r="BE45" s="380"/>
+      <c r="BF45" s="380"/>
+      <c r="BG45" s="395">
+        <v>65.3</v>
+      </c>
+      <c r="BH45" s="380"/>
+      <c r="BI45" s="380"/>
+      <c r="BO45" s="396">
+        <v>25</v>
+      </c>
+      <c r="BP45" s="343"/>
+      <c r="BQ45" s="343"/>
       <c r="BY45" s="337"/>
-      <c r="CW45" s="379"/>
+      <c r="CW45" s="378"/>
     </row>
     <row r="46" spans="2:107" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B46" s="374"/>
@@ -22355,9 +22233,10 @@
       <c r="AE46" s="377"/>
       <c r="AF46" s="377"/>
       <c r="AG46" s="377"/>
-      <c r="BB46" s="379"/>
+      <c r="BB46" s="378"/>
+      <c r="BO46" s="377"/>
       <c r="BY46" s="337"/>
-      <c r="CW46" s="379"/>
+      <c r="CW46" s="378"/>
     </row>
     <row r="47" spans="2:107" ht="20.100000000000001" customHeight="1">
       <c r="B47" s="372"/>
@@ -22466,57 +22345,53 @@
     </row>
     <row r="48" spans="2:107" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B48" s="337"/>
-      <c r="Z48" s="379"/>
-      <c r="BB48" s="379"/>
+      <c r="Z48" s="378"/>
+      <c r="BB48" s="378"/>
       <c r="BY48" s="337"/>
-      <c r="CW48" s="379"/>
+      <c r="CW48" s="378"/>
       <c r="CY48" s="398" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="49" spans="2:107" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="B49" s="337"/>
-      <c r="Z49" s="379"/>
-      <c r="BB49" s="379"/>
+      <c r="Z49" s="378"/>
+      <c r="BB49" s="378"/>
       <c r="BY49" s="337"/>
-      <c r="CA49" s="387">
-        <v>55</v>
-      </c>
+      <c r="CA49" s="362"/>
       <c r="CB49" s="362"/>
       <c r="CC49" s="362"/>
       <c r="CD49" s="362"/>
-      <c r="CW49" s="379"/>
+      <c r="CW49" s="378"/>
       <c r="CY49" s="344">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="CZ49" s="345"/>
       <c r="DA49" s="345"/>
       <c r="DB49" s="346"/>
       <c r="DC49" s="1">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:107" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="B50" s="337"/>
-      <c r="Z50" s="379"/>
-      <c r="AL50" s="390"/>
-      <c r="AM50" s="391"/>
-      <c r="AN50" s="391"/>
-      <c r="AO50" s="391"/>
-      <c r="AP50" s="391"/>
-      <c r="AQ50" s="391"/>
-      <c r="AR50" s="391"/>
-      <c r="AS50" s="391"/>
-      <c r="AT50" s="391"/>
-      <c r="AU50" s="391"/>
-      <c r="AV50" s="392"/>
-      <c r="BB50" s="379"/>
+      <c r="Z50" s="378"/>
+      <c r="AL50" s="386"/>
+      <c r="AM50" s="387"/>
+      <c r="AN50" s="387"/>
+      <c r="AO50" s="387"/>
+      <c r="AP50" s="387"/>
+      <c r="AQ50" s="387"/>
+      <c r="AR50" s="387"/>
+      <c r="AS50" s="387"/>
+      <c r="AT50" s="387"/>
+      <c r="AU50" s="387"/>
+      <c r="AV50" s="388"/>
+      <c r="BB50" s="378"/>
       <c r="BL50" s="12"/>
       <c r="BM50" s="12"/>
       <c r="BY50" s="337"/>
-      <c r="CA50" s="394">
-        <v>12.3</v>
-      </c>
+      <c r="CA50" s="362"/>
       <c r="CB50" s="362"/>
       <c r="CC50" s="362"/>
       <c r="CD50" s="362"/>
@@ -22532,32 +22407,32 @@
       <c r="CP50" s="400"/>
       <c r="CQ50" s="400"/>
       <c r="CR50" s="401"/>
-      <c r="CW50" s="379"/>
+      <c r="CW50" s="378"/>
       <c r="CY50" s="352">
-        <v>12.3</v>
+        <v>0</v>
       </c>
       <c r="CZ50" s="353"/>
       <c r="DA50" s="353"/>
       <c r="DB50" s="354"/>
       <c r="DC50" s="1">
-        <v>12.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:107" ht="20.100000000000001" customHeight="1" thickTop="1">
       <c r="B51" s="337"/>
-      <c r="Z51" s="379"/>
-      <c r="AL51" s="395"/>
-      <c r="AM51" s="396"/>
-      <c r="AN51" s="396"/>
-      <c r="AO51" s="396"/>
-      <c r="AP51" s="396"/>
-      <c r="AQ51" s="396"/>
-      <c r="AR51" s="396"/>
-      <c r="AS51" s="396"/>
-      <c r="AT51" s="396"/>
-      <c r="AU51" s="396"/>
-      <c r="AV51" s="397"/>
-      <c r="BB51" s="379"/>
+      <c r="Z51" s="378"/>
+      <c r="AL51" s="392"/>
+      <c r="AM51" s="393"/>
+      <c r="AN51" s="393"/>
+      <c r="AO51" s="393"/>
+      <c r="AP51" s="393"/>
+      <c r="AQ51" s="393"/>
+      <c r="AR51" s="393"/>
+      <c r="AS51" s="393"/>
+      <c r="AT51" s="393"/>
+      <c r="AU51" s="393"/>
+      <c r="AV51" s="394"/>
+      <c r="BB51" s="378"/>
       <c r="BL51" s="12"/>
       <c r="BY51" s="337"/>
       <c r="CG51" s="402"/>
@@ -22572,43 +22447,43 @@
       <c r="CP51" s="403"/>
       <c r="CQ51" s="403"/>
       <c r="CR51" s="404"/>
-      <c r="CW51" s="379"/>
+      <c r="CW51" s="378"/>
       <c r="CY51" s="405" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="52" spans="2:107" ht="20.100000000000001" customHeight="1">
       <c r="B52" s="337"/>
-      <c r="Z52" s="379"/>
-      <c r="BB52" s="379"/>
+      <c r="Z52" s="378"/>
+      <c r="BB52" s="378"/>
       <c r="BY52" s="337"/>
-      <c r="CW52" s="379"/>
+      <c r="CW52" s="378"/>
       <c r="CY52" s="406" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="53" spans="2:107" ht="20.100000000000001" customHeight="1">
       <c r="B53" s="337"/>
-      <c r="Z53" s="379"/>
-      <c r="BB53" s="379"/>
+      <c r="Z53" s="378"/>
+      <c r="BB53" s="378"/>
       <c r="BY53" s="337"/>
-      <c r="CW53" s="379"/>
+      <c r="CW53" s="378"/>
       <c r="CY53" s="405"/>
     </row>
     <row r="54" spans="2:107" ht="20.100000000000001" customHeight="1">
       <c r="B54" s="337"/>
-      <c r="Z54" s="379"/>
-      <c r="BB54" s="379"/>
+      <c r="Z54" s="378"/>
+      <c r="BB54" s="378"/>
       <c r="BY54" s="337"/>
-      <c r="CW54" s="379"/>
+      <c r="CW54" s="378"/>
       <c r="CY54" s="406"/>
     </row>
     <row r="55" spans="2:107" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B55" s="337"/>
-      <c r="Z55" s="379"/>
-      <c r="BB55" s="379"/>
+      <c r="Z55" s="378"/>
+      <c r="BB55" s="378"/>
       <c r="BY55" s="337"/>
-      <c r="CW55" s="379"/>
+      <c r="CW55" s="378"/>
     </row>
     <row r="56" spans="2:107" ht="20.100000000000001" customHeight="1">
       <c r="B56" s="372"/>
@@ -22717,20 +22592,20 @@
     </row>
     <row r="57" spans="2:107" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B57" s="337"/>
-      <c r="Z57" s="379"/>
-      <c r="BB57" s="379"/>
-      <c r="BX57" s="379"/>
-      <c r="CW57" s="379"/>
-      <c r="CY57" s="380" t="s">
+      <c r="Z57" s="378"/>
+      <c r="BB57" s="378"/>
+      <c r="BX57" s="378"/>
+      <c r="CW57" s="378"/>
+      <c r="CY57" s="379" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="58" spans="2:107" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="B58" s="337"/>
-      <c r="Z58" s="379"/>
-      <c r="BB58" s="379"/>
-      <c r="BX58" s="379"/>
-      <c r="CW58" s="379"/>
+      <c r="Z58" s="378"/>
+      <c r="BB58" s="378"/>
+      <c r="BX58" s="378"/>
+      <c r="CW58" s="378"/>
       <c r="CY58" s="344">
         <v>0</v>
       </c>
@@ -22743,7 +22618,7 @@
     </row>
     <row r="59" spans="2:107" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="B59" s="337"/>
-      <c r="Z59" s="379"/>
+      <c r="Z59" s="378"/>
       <c r="AL59" s="399"/>
       <c r="AM59" s="400"/>
       <c r="AN59" s="400"/>
@@ -22755,22 +22630,22 @@
       <c r="AT59" s="400"/>
       <c r="AU59" s="400"/>
       <c r="AV59" s="401"/>
-      <c r="BB59" s="379"/>
-      <c r="BX59" s="379"/>
-      <c r="BY59" s="391"/>
-      <c r="BZ59" s="391"/>
-      <c r="CA59" s="391"/>
-      <c r="CB59" s="391"/>
-      <c r="CC59" s="391"/>
-      <c r="CD59" s="391"/>
-      <c r="CE59" s="391"/>
-      <c r="CF59" s="391"/>
-      <c r="CG59" s="391"/>
-      <c r="CH59" s="391"/>
-      <c r="CI59" s="391"/>
-      <c r="CJ59" s="391"/>
-      <c r="CK59" s="392"/>
-      <c r="CW59" s="379"/>
+      <c r="BB59" s="378"/>
+      <c r="BX59" s="378"/>
+      <c r="BY59" s="387"/>
+      <c r="BZ59" s="387"/>
+      <c r="CA59" s="387"/>
+      <c r="CB59" s="387"/>
+      <c r="CC59" s="387"/>
+      <c r="CD59" s="387"/>
+      <c r="CE59" s="387"/>
+      <c r="CF59" s="387"/>
+      <c r="CG59" s="387"/>
+      <c r="CH59" s="387"/>
+      <c r="CI59" s="387"/>
+      <c r="CJ59" s="387"/>
+      <c r="CK59" s="388"/>
+      <c r="CW59" s="378"/>
       <c r="CY59" s="352">
         <v>0</v>
       </c>
@@ -22783,7 +22658,7 @@
     </row>
     <row r="60" spans="2:107" ht="20.100000000000001" customHeight="1" thickTop="1">
       <c r="B60" s="337"/>
-      <c r="Z60" s="379"/>
+      <c r="Z60" s="378"/>
       <c r="AL60" s="402"/>
       <c r="AM60" s="403"/>
       <c r="AN60" s="403"/>
@@ -22795,56 +22670,56 @@
       <c r="AT60" s="403"/>
       <c r="AU60" s="403"/>
       <c r="AV60" s="404"/>
-      <c r="BB60" s="379"/>
-      <c r="BX60" s="379"/>
-      <c r="BY60" s="396"/>
-      <c r="BZ60" s="396"/>
-      <c r="CA60" s="396"/>
-      <c r="CB60" s="396"/>
-      <c r="CC60" s="396"/>
-      <c r="CD60" s="396"/>
-      <c r="CE60" s="396"/>
-      <c r="CF60" s="396"/>
-      <c r="CG60" s="396"/>
-      <c r="CH60" s="396"/>
-      <c r="CI60" s="396"/>
-      <c r="CJ60" s="396"/>
-      <c r="CK60" s="397"/>
-      <c r="CW60" s="379"/>
+      <c r="BB60" s="378"/>
+      <c r="BX60" s="378"/>
+      <c r="BY60" s="393"/>
+      <c r="BZ60" s="393"/>
+      <c r="CA60" s="393"/>
+      <c r="CB60" s="393"/>
+      <c r="CC60" s="393"/>
+      <c r="CD60" s="393"/>
+      <c r="CE60" s="393"/>
+      <c r="CF60" s="393"/>
+      <c r="CG60" s="393"/>
+      <c r="CH60" s="393"/>
+      <c r="CI60" s="393"/>
+      <c r="CJ60" s="393"/>
+      <c r="CK60" s="394"/>
+      <c r="CW60" s="378"/>
       <c r="CY60" s="405" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="61" spans="2:107" ht="20.100000000000001" customHeight="1">
       <c r="B61" s="337"/>
-      <c r="Z61" s="379"/>
-      <c r="BB61" s="379"/>
-      <c r="BX61" s="379"/>
-      <c r="CW61" s="379"/>
+      <c r="Z61" s="378"/>
+      <c r="BB61" s="378"/>
+      <c r="BX61" s="378"/>
+      <c r="CW61" s="378"/>
       <c r="CY61" s="406" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="62" spans="2:107" ht="20.100000000000001" customHeight="1">
       <c r="B62" s="337"/>
-      <c r="Z62" s="379"/>
-      <c r="BB62" s="379"/>
-      <c r="BX62" s="379"/>
-      <c r="CW62" s="379"/>
+      <c r="Z62" s="378"/>
+      <c r="BB62" s="378"/>
+      <c r="BX62" s="378"/>
+      <c r="CW62" s="378"/>
     </row>
     <row r="63" spans="2:107" ht="20.100000000000001" customHeight="1">
       <c r="B63" s="337"/>
-      <c r="Z63" s="379"/>
-      <c r="BB63" s="379"/>
+      <c r="Z63" s="378"/>
+      <c r="BB63" s="378"/>
       <c r="BY63" s="337"/>
-      <c r="CW63" s="379"/>
+      <c r="CW63" s="378"/>
     </row>
     <row r="64" spans="2:107" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B64" s="337"/>
-      <c r="Z64" s="379"/>
-      <c r="BB64" s="379"/>
+      <c r="Z64" s="378"/>
+      <c r="BB64" s="378"/>
       <c r="BY64" s="337"/>
-      <c r="CW64" s="379"/>
+      <c r="CW64" s="378"/>
     </row>
     <row r="65" spans="2:109" ht="20.100000000000001" customHeight="1">
       <c r="B65" s="372"/>
@@ -22961,27 +22836,27 @@
     </row>
     <row r="66" spans="2:109" ht="20.100000000000001" customHeight="1">
       <c r="B66" s="337"/>
-      <c r="Z66" s="379"/>
-      <c r="BB66" s="379"/>
-      <c r="BX66" s="379"/>
-      <c r="CW66" s="379"/>
+      <c r="Z66" s="378"/>
+      <c r="BB66" s="378"/>
+      <c r="BX66" s="378"/>
+      <c r="CW66" s="378"/>
       <c r="CY66" s="411" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="67" spans="2:109" ht="20.100000000000001" customHeight="1">
       <c r="B67" s="337"/>
-      <c r="Z67" s="379"/>
-      <c r="BB67" s="379"/>
-      <c r="BX67" s="379"/>
-      <c r="CW67" s="379"/>
+      <c r="Z67" s="378"/>
+      <c r="BB67" s="378"/>
+      <c r="BX67" s="378"/>
+      <c r="CW67" s="378"/>
       <c r="CY67" s="412" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="68" spans="2:109" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B68" s="337"/>
-      <c r="Z68" s="379"/>
+      <c r="Z68" s="378"/>
       <c r="AF68" s="413" t="s">
         <v>33</v>
       </c>
@@ -23001,20 +22876,20 @@
       <c r="AT68" s="416"/>
       <c r="AU68" s="416"/>
       <c r="AV68" s="417"/>
-      <c r="BB68" s="379"/>
-      <c r="BH68" s="390"/>
-      <c r="BI68" s="391"/>
-      <c r="BJ68" s="391"/>
-      <c r="BK68" s="391"/>
-      <c r="BL68" s="391"/>
-      <c r="BM68" s="391"/>
-      <c r="BN68" s="391"/>
-      <c r="BO68" s="391"/>
-      <c r="BP68" s="391"/>
-      <c r="BQ68" s="391"/>
-      <c r="BR68" s="391"/>
-      <c r="BS68" s="392"/>
-      <c r="BX68" s="379"/>
+      <c r="BB68" s="378"/>
+      <c r="BH68" s="386"/>
+      <c r="BI68" s="387"/>
+      <c r="BJ68" s="387"/>
+      <c r="BK68" s="387"/>
+      <c r="BL68" s="387"/>
+      <c r="BM68" s="387"/>
+      <c r="BN68" s="387"/>
+      <c r="BO68" s="387"/>
+      <c r="BP68" s="387"/>
+      <c r="BQ68" s="387"/>
+      <c r="BR68" s="387"/>
+      <c r="BS68" s="388"/>
+      <c r="BX68" s="378"/>
       <c r="BY68" s="418"/>
       <c r="BZ68" s="400"/>
       <c r="CA68" s="400"/>
@@ -23027,14 +22902,14 @@
       <c r="CH68" s="400"/>
       <c r="CI68" s="400"/>
       <c r="CJ68" s="401"/>
-      <c r="CW68" s="379"/>
+      <c r="CW68" s="378"/>
       <c r="CY68" s="412" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="69" spans="2:109" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="B69" s="337"/>
-      <c r="Z69" s="379"/>
+      <c r="Z69" s="378"/>
       <c r="AF69" s="419"/>
       <c r="AG69" s="420"/>
       <c r="AH69" s="420"/>
@@ -23052,20 +22927,20 @@
       <c r="AT69" s="423"/>
       <c r="AU69" s="423"/>
       <c r="AV69" s="424"/>
-      <c r="BB69" s="379"/>
-      <c r="BH69" s="395"/>
-      <c r="BI69" s="396"/>
-      <c r="BJ69" s="396"/>
-      <c r="BK69" s="396"/>
-      <c r="BL69" s="396"/>
-      <c r="BM69" s="396"/>
-      <c r="BN69" s="396"/>
-      <c r="BO69" s="396"/>
-      <c r="BP69" s="396"/>
-      <c r="BQ69" s="396"/>
-      <c r="BR69" s="396"/>
-      <c r="BS69" s="397"/>
-      <c r="BX69" s="379"/>
+      <c r="BB69" s="378"/>
+      <c r="BH69" s="392"/>
+      <c r="BI69" s="393"/>
+      <c r="BJ69" s="393"/>
+      <c r="BK69" s="393"/>
+      <c r="BL69" s="393"/>
+      <c r="BM69" s="393"/>
+      <c r="BN69" s="393"/>
+      <c r="BO69" s="393"/>
+      <c r="BP69" s="393"/>
+      <c r="BQ69" s="393"/>
+      <c r="BR69" s="393"/>
+      <c r="BS69" s="394"/>
+      <c r="BX69" s="378"/>
       <c r="BY69" s="425"/>
       <c r="BZ69" s="403"/>
       <c r="CA69" s="403"/>
@@ -23078,7 +22953,7 @@
       <c r="CH69" s="403"/>
       <c r="CI69" s="403"/>
       <c r="CJ69" s="404"/>
-      <c r="CW69" s="379"/>
+      <c r="CW69" s="378"/>
       <c r="CY69" s="344">
         <v>0</v>
       </c>
@@ -23091,10 +22966,10 @@
     </row>
     <row r="70" spans="2:109" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="B70" s="337"/>
-      <c r="Z70" s="379"/>
-      <c r="BB70" s="379"/>
-      <c r="BX70" s="379"/>
-      <c r="CW70" s="379"/>
+      <c r="Z70" s="378"/>
+      <c r="BB70" s="378"/>
+      <c r="BX70" s="378"/>
+      <c r="CW70" s="378"/>
       <c r="CY70" s="352">
         <v>0</v>
       </c>
@@ -23107,30 +22982,30 @@
     </row>
     <row r="71" spans="2:109" ht="20.100000000000001" customHeight="1" thickTop="1">
       <c r="B71" s="337"/>
-      <c r="Z71" s="379"/>
-      <c r="BB71" s="379"/>
-      <c r="BX71" s="379"/>
-      <c r="CW71" s="379"/>
+      <c r="Z71" s="378"/>
+      <c r="BB71" s="378"/>
+      <c r="BX71" s="378"/>
+      <c r="CW71" s="378"/>
       <c r="CY71" s="426" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="72" spans="2:109" ht="20.100000000000001" customHeight="1">
       <c r="B72" s="337"/>
-      <c r="Z72" s="379"/>
-      <c r="BB72" s="379"/>
-      <c r="BX72" s="379"/>
-      <c r="CW72" s="379"/>
+      <c r="Z72" s="378"/>
+      <c r="BB72" s="378"/>
+      <c r="BX72" s="378"/>
+      <c r="CW72" s="378"/>
       <c r="CY72" s="405" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="73" spans="2:109" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B73" s="337"/>
-      <c r="Z73" s="379"/>
-      <c r="BB73" s="379"/>
+      <c r="Z73" s="378"/>
+      <c r="BB73" s="378"/>
       <c r="BX73" s="427"/>
-      <c r="CW73" s="379"/>
+      <c r="CW73" s="378"/>
     </row>
     <row r="74" spans="2:109" ht="20.100000000000001" customHeight="1">
       <c r="B74" s="369"/>
@@ -23238,9 +23113,9 @@
       </c>
     </row>
     <row r="75" spans="2:109" ht="20.100000000000001" customHeight="1">
-      <c r="F75" s="379"/>
-      <c r="Z75" s="379"/>
-      <c r="BB75" s="379"/>
+      <c r="F75" s="378"/>
+      <c r="Z75" s="378"/>
+      <c r="BB75" s="378"/>
       <c r="BY75" s="337"/>
       <c r="CO75" s="337"/>
       <c r="CY75" s="412" t="s">
@@ -23248,8 +23123,8 @@
       </c>
     </row>
     <row r="76" spans="2:109" ht="20.100000000000001" customHeight="1">
-      <c r="F76" s="379"/>
-      <c r="Z76" s="379"/>
+      <c r="F76" s="378"/>
+      <c r="Z76" s="378"/>
       <c r="AF76" s="399" t="s">
         <v>33</v>
       </c>
@@ -23269,7 +23144,7 @@
       <c r="AT76" s="416"/>
       <c r="AU76" s="416"/>
       <c r="AV76" s="417"/>
-      <c r="BB76" s="379"/>
+      <c r="BB76" s="378"/>
       <c r="BE76" s="12"/>
       <c r="BF76" s="12"/>
       <c r="BG76" s="12"/>
@@ -23280,8 +23155,8 @@
       </c>
     </row>
     <row r="77" spans="2:109" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="F77" s="379"/>
-      <c r="Z77" s="379"/>
+      <c r="F77" s="378"/>
+      <c r="Z77" s="378"/>
       <c r="AF77" s="402"/>
       <c r="AG77" s="403"/>
       <c r="AH77" s="403"/>
@@ -23291,15 +23166,15 @@
       <c r="AL77" s="403"/>
       <c r="AM77" s="403"/>
       <c r="AN77" s="404"/>
-      <c r="AO77" s="396"/>
-      <c r="AP77" s="396"/>
-      <c r="AQ77" s="396"/>
-      <c r="AR77" s="396"/>
-      <c r="AS77" s="396"/>
-      <c r="AT77" s="396"/>
-      <c r="AU77" s="396"/>
-      <c r="AV77" s="397"/>
-      <c r="BB77" s="379"/>
+      <c r="AO77" s="393"/>
+      <c r="AP77" s="393"/>
+      <c r="AQ77" s="393"/>
+      <c r="AR77" s="393"/>
+      <c r="AS77" s="393"/>
+      <c r="AT77" s="393"/>
+      <c r="AU77" s="393"/>
+      <c r="AV77" s="394"/>
+      <c r="BB77" s="378"/>
       <c r="BE77" s="12"/>
       <c r="BF77" s="12"/>
       <c r="BG77" s="12"/>
@@ -23329,9 +23204,9 @@
       </c>
     </row>
     <row r="78" spans="2:109" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="F78" s="379"/>
-      <c r="Z78" s="379"/>
-      <c r="BB78" s="379"/>
+      <c r="F78" s="378"/>
+      <c r="Z78" s="378"/>
+      <c r="BB78" s="378"/>
       <c r="BH78" s="402"/>
       <c r="BI78" s="403"/>
       <c r="BJ78" s="403"/>
@@ -23364,9 +23239,9 @@
       </c>
     </row>
     <row r="79" spans="2:109" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
-      <c r="F79" s="379"/>
-      <c r="Z79" s="379"/>
-      <c r="BB79" s="379"/>
+      <c r="F79" s="378"/>
+      <c r="Z79" s="378"/>
+      <c r="BB79" s="378"/>
       <c r="BY79" s="430"/>
       <c r="CO79" s="337"/>
       <c r="CY79" s="352">
@@ -23380,9 +23255,9 @@
       </c>
     </row>
     <row r="80" spans="2:109" ht="20.100000000000001" customHeight="1" thickTop="1">
-      <c r="F80" s="379"/>
-      <c r="Z80" s="379"/>
-      <c r="BB80" s="379"/>
+      <c r="F80" s="378"/>
+      <c r="Z80" s="378"/>
+      <c r="BB80" s="378"/>
       <c r="BY80" s="337"/>
       <c r="CO80" s="337"/>
       <c r="CY80" s="405" t="s">
@@ -23390,9 +23265,9 @@
       </c>
     </row>
     <row r="81" spans="2:109" ht="20.100000000000001" customHeight="1">
-      <c r="F81" s="379"/>
-      <c r="Z81" s="379"/>
-      <c r="BB81" s="379"/>
+      <c r="F81" s="378"/>
+      <c r="Z81" s="378"/>
+      <c r="BB81" s="378"/>
       <c r="BY81" s="337"/>
       <c r="CO81" s="337"/>
       <c r="CY81" s="406" t="s">
@@ -23400,9 +23275,9 @@
       </c>
     </row>
     <row r="82" spans="2:109" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="F82" s="379"/>
-      <c r="Z82" s="379"/>
-      <c r="BB82" s="379"/>
+      <c r="F82" s="378"/>
+      <c r="Z82" s="378"/>
+      <c r="BB82" s="378"/>
       <c r="BY82" s="337"/>
       <c r="CO82" s="337"/>
     </row>
@@ -23515,8 +23390,8 @@
     </row>
     <row r="84" spans="2:109" ht="20.100000000000001" customHeight="1">
       <c r="B84" s="337"/>
-      <c r="Z84" s="379"/>
-      <c r="BB84" s="379"/>
+      <c r="Z84" s="378"/>
+      <c r="BB84" s="378"/>
       <c r="BY84" s="337"/>
       <c r="CQ84" s="337"/>
       <c r="CY84" s="412" t="s">
@@ -23525,8 +23400,8 @@
     </row>
     <row r="85" spans="2:109" ht="20.100000000000001" customHeight="1">
       <c r="B85" s="337"/>
-      <c r="Z85" s="379"/>
-      <c r="BB85" s="379"/>
+      <c r="Z85" s="378"/>
+      <c r="BB85" s="378"/>
       <c r="BY85" s="337"/>
       <c r="CQ85" s="337"/>
       <c r="CY85" s="411" t="s">
@@ -23535,19 +23410,19 @@
     </row>
     <row r="86" spans="2:109" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B86" s="337"/>
-      <c r="Z86" s="379"/>
-      <c r="AC86" s="390"/>
-      <c r="AD86" s="391"/>
-      <c r="AE86" s="391"/>
-      <c r="AF86" s="391"/>
-      <c r="AG86" s="391"/>
-      <c r="AH86" s="391"/>
-      <c r="AI86" s="391"/>
-      <c r="AJ86" s="391"/>
-      <c r="AK86" s="391"/>
-      <c r="AL86" s="391"/>
-      <c r="AM86" s="391"/>
-      <c r="AN86" s="392"/>
+      <c r="Z86" s="378"/>
+      <c r="AC86" s="386"/>
+      <c r="AD86" s="387"/>
+      <c r="AE86" s="387"/>
+      <c r="AF86" s="387"/>
+      <c r="AG86" s="387"/>
+      <c r="AH86" s="387"/>
+      <c r="AI86" s="387"/>
+      <c r="AJ86" s="387"/>
+      <c r="AK86" s="387"/>
+      <c r="AL86" s="387"/>
+      <c r="AM86" s="387"/>
+      <c r="AN86" s="388"/>
       <c r="AO86" s="435"/>
       <c r="AP86" s="423"/>
       <c r="AQ86" s="423"/>
@@ -23556,27 +23431,27 @@
       <c r="AT86" s="423"/>
       <c r="AU86" s="423"/>
       <c r="AV86" s="424"/>
-      <c r="BB86" s="379"/>
-      <c r="BH86" s="390"/>
-      <c r="BI86" s="391"/>
-      <c r="BJ86" s="391"/>
-      <c r="BK86" s="391"/>
-      <c r="BL86" s="391"/>
-      <c r="BM86" s="391"/>
-      <c r="BN86" s="391"/>
-      <c r="BO86" s="391"/>
-      <c r="BP86" s="391"/>
-      <c r="BQ86" s="391"/>
-      <c r="BR86" s="391"/>
-      <c r="BS86" s="392"/>
-      <c r="BT86" s="390"/>
-      <c r="BU86" s="391"/>
-      <c r="BV86" s="391"/>
-      <c r="BW86" s="391"/>
-      <c r="BX86" s="391"/>
+      <c r="BB86" s="378"/>
+      <c r="BH86" s="386"/>
+      <c r="BI86" s="387"/>
+      <c r="BJ86" s="387"/>
+      <c r="BK86" s="387"/>
+      <c r="BL86" s="387"/>
+      <c r="BM86" s="387"/>
+      <c r="BN86" s="387"/>
+      <c r="BO86" s="387"/>
+      <c r="BP86" s="387"/>
+      <c r="BQ86" s="387"/>
+      <c r="BR86" s="387"/>
+      <c r="BS86" s="388"/>
+      <c r="BT86" s="386"/>
+      <c r="BU86" s="387"/>
+      <c r="BV86" s="387"/>
+      <c r="BW86" s="387"/>
+      <c r="BX86" s="387"/>
       <c r="BY86" s="430"/>
-      <c r="BZ86" s="391"/>
-      <c r="CA86" s="392"/>
+      <c r="BZ86" s="387"/>
+      <c r="CA86" s="388"/>
       <c r="CQ86" s="337"/>
       <c r="CY86" s="412" t="s">
         <v>40</v>
@@ -23584,19 +23459,19 @@
     </row>
     <row r="87" spans="2:109" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="B87" s="337"/>
-      <c r="Z87" s="379"/>
-      <c r="AC87" s="395"/>
-      <c r="AD87" s="396"/>
-      <c r="AE87" s="396"/>
-      <c r="AF87" s="396"/>
-      <c r="AG87" s="396"/>
-      <c r="AH87" s="396"/>
-      <c r="AI87" s="396"/>
-      <c r="AJ87" s="396"/>
-      <c r="AK87" s="396"/>
-      <c r="AL87" s="396"/>
-      <c r="AM87" s="396"/>
-      <c r="AN87" s="397"/>
+      <c r="Z87" s="378"/>
+      <c r="AC87" s="392"/>
+      <c r="AD87" s="393"/>
+      <c r="AE87" s="393"/>
+      <c r="AF87" s="393"/>
+      <c r="AG87" s="393"/>
+      <c r="AH87" s="393"/>
+      <c r="AI87" s="393"/>
+      <c r="AJ87" s="393"/>
+      <c r="AK87" s="393"/>
+      <c r="AL87" s="393"/>
+      <c r="AM87" s="393"/>
+      <c r="AN87" s="394"/>
       <c r="AO87" s="436"/>
       <c r="AP87" s="416"/>
       <c r="AQ87" s="416"/>
@@ -23605,27 +23480,27 @@
       <c r="AT87" s="416"/>
       <c r="AU87" s="416"/>
       <c r="AV87" s="417"/>
-      <c r="BB87" s="379"/>
-      <c r="BH87" s="395"/>
-      <c r="BI87" s="396"/>
-      <c r="BJ87" s="396"/>
-      <c r="BK87" s="396"/>
-      <c r="BL87" s="396"/>
-      <c r="BM87" s="396"/>
-      <c r="BN87" s="396"/>
-      <c r="BO87" s="396"/>
-      <c r="BP87" s="396"/>
-      <c r="BQ87" s="396"/>
-      <c r="BR87" s="396"/>
-      <c r="BS87" s="397"/>
-      <c r="BT87" s="395"/>
-      <c r="BU87" s="396"/>
-      <c r="BV87" s="396"/>
-      <c r="BW87" s="396"/>
-      <c r="BX87" s="396"/>
+      <c r="BB87" s="378"/>
+      <c r="BH87" s="392"/>
+      <c r="BI87" s="393"/>
+      <c r="BJ87" s="393"/>
+      <c r="BK87" s="393"/>
+      <c r="BL87" s="393"/>
+      <c r="BM87" s="393"/>
+      <c r="BN87" s="393"/>
+      <c r="BO87" s="393"/>
+      <c r="BP87" s="393"/>
+      <c r="BQ87" s="393"/>
+      <c r="BR87" s="393"/>
+      <c r="BS87" s="394"/>
+      <c r="BT87" s="392"/>
+      <c r="BU87" s="393"/>
+      <c r="BV87" s="393"/>
+      <c r="BW87" s="393"/>
+      <c r="BX87" s="393"/>
       <c r="BY87" s="429"/>
-      <c r="BZ87" s="396"/>
-      <c r="CA87" s="397"/>
+      <c r="BZ87" s="393"/>
+      <c r="CA87" s="394"/>
       <c r="CQ87" s="337"/>
       <c r="CY87" s="344">
         <v>0</v>
@@ -23639,8 +23514,8 @@
     </row>
     <row r="88" spans="2:109" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="B88" s="337"/>
-      <c r="Z88" s="379"/>
-      <c r="BB88" s="379"/>
+      <c r="Z88" s="378"/>
+      <c r="BB88" s="378"/>
       <c r="BY88" s="337"/>
       <c r="CQ88" s="337"/>
       <c r="CY88" s="352">
@@ -23655,8 +23530,8 @@
     </row>
     <row r="89" spans="2:109" ht="20.100000000000001" customHeight="1" thickTop="1">
       <c r="B89" s="337"/>
-      <c r="Z89" s="379"/>
-      <c r="BB89" s="379"/>
+      <c r="Z89" s="378"/>
+      <c r="BB89" s="378"/>
       <c r="BY89" s="337"/>
       <c r="CQ89" s="337"/>
       <c r="CY89" s="405" t="s">
@@ -23665,8 +23540,8 @@
     </row>
     <row r="90" spans="2:109" ht="20.100000000000001" customHeight="1">
       <c r="B90" s="337"/>
-      <c r="Z90" s="379"/>
-      <c r="BB90" s="379"/>
+      <c r="Z90" s="378"/>
+      <c r="BB90" s="378"/>
       <c r="BY90" s="337"/>
       <c r="CQ90" s="337"/>
       <c r="CY90" s="406" t="s">
@@ -23675,8 +23550,8 @@
     </row>
     <row r="91" spans="2:109" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B91" s="337"/>
-      <c r="Z91" s="379"/>
-      <c r="BB91" s="379"/>
+      <c r="Z91" s="378"/>
+      <c r="BB91" s="378"/>
       <c r="BY91" s="337"/>
       <c r="CQ91" s="337"/>
     </row>
@@ -23795,8 +23670,8 @@
       <c r="N93" s="403"/>
       <c r="O93" s="403"/>
       <c r="P93" s="404"/>
-      <c r="Z93" s="379"/>
-      <c r="BB93" s="379"/>
+      <c r="Z93" s="378"/>
+      <c r="BB93" s="378"/>
       <c r="BY93" s="337"/>
       <c r="CQ93" s="337"/>
       <c r="CY93" s="412" t="s">
@@ -23805,8 +23680,8 @@
     </row>
     <row r="94" spans="2:109" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B94" s="337"/>
-      <c r="Z94" s="379"/>
-      <c r="BB94" s="379"/>
+      <c r="Z94" s="378"/>
+      <c r="BB94" s="378"/>
       <c r="BY94" s="337"/>
       <c r="CQ94" s="337"/>
       <c r="CY94" s="411" t="s">
@@ -23815,7 +23690,7 @@
     </row>
     <row r="95" spans="2:109" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B95" s="337"/>
-      <c r="Z95" s="379"/>
+      <c r="Z95" s="378"/>
       <c r="AC95" s="399"/>
       <c r="AD95" s="400"/>
       <c r="AE95" s="400"/>
@@ -23838,7 +23713,7 @@
       <c r="AV95" s="446"/>
       <c r="AW95" s="446"/>
       <c r="AX95" s="447"/>
-      <c r="BB95" s="379"/>
+      <c r="BB95" s="378"/>
       <c r="BH95" s="399"/>
       <c r="BI95" s="400"/>
       <c r="BJ95" s="400"/>
@@ -23854,7 +23729,7 @@
     </row>
     <row r="96" spans="2:109" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="B96" s="337"/>
-      <c r="Z96" s="379"/>
+      <c r="Z96" s="378"/>
       <c r="AC96" s="448"/>
       <c r="AD96" s="449"/>
       <c r="AE96" s="449"/>
@@ -23868,7 +23743,7 @@
       <c r="AM96" s="12"/>
       <c r="AN96" s="12"/>
       <c r="AX96" s="451"/>
-      <c r="BB96" s="379"/>
+      <c r="BB96" s="378"/>
       <c r="BH96" s="448"/>
       <c r="BI96" s="449"/>
       <c r="BJ96" s="449"/>
@@ -23890,7 +23765,7 @@
     </row>
     <row r="97" spans="2:107" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="B97" s="337"/>
-      <c r="Z97" s="379"/>
+      <c r="Z97" s="378"/>
       <c r="AC97" s="402"/>
       <c r="AD97" s="403"/>
       <c r="AE97" s="403"/>
@@ -23913,7 +23788,7 @@
       <c r="AV97" s="453"/>
       <c r="AW97" s="453"/>
       <c r="AX97" s="454"/>
-      <c r="BB97" s="379"/>
+      <c r="BB97" s="378"/>
       <c r="BH97" s="402"/>
       <c r="BI97" s="403"/>
       <c r="BJ97" s="403"/>
@@ -23935,10 +23810,10 @@
     </row>
     <row r="98" spans="2:107" ht="20.100000000000001" customHeight="1">
       <c r="B98" s="337"/>
-      <c r="Z98" s="379"/>
+      <c r="Z98" s="378"/>
       <c r="AH98" s="455"/>
       <c r="AR98" s="456"/>
-      <c r="BB98" s="379"/>
+      <c r="BB98" s="378"/>
       <c r="BI98" s="457"/>
       <c r="BJ98" s="458"/>
       <c r="BK98" s="458"/>
@@ -23958,10 +23833,10 @@
     </row>
     <row r="99" spans="2:107" ht="20.100000000000001" customHeight="1">
       <c r="B99" s="337"/>
-      <c r="Z99" s="379"/>
+      <c r="Z99" s="378"/>
       <c r="AH99" s="455"/>
       <c r="AR99" s="456"/>
-      <c r="BB99" s="379"/>
+      <c r="BB99" s="378"/>
       <c r="BI99" s="455"/>
       <c r="BS99" s="456"/>
       <c r="BY99" s="337"/>
@@ -23972,7 +23847,7 @@
     </row>
     <row r="100" spans="2:107" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B100" s="337"/>
-      <c r="Z100" s="379"/>
+      <c r="Z100" s="378"/>
       <c r="AH100" s="460"/>
       <c r="AI100" s="461"/>
       <c r="AJ100" s="461"/>
@@ -23984,7 +23859,7 @@
       <c r="AP100" s="461"/>
       <c r="AQ100" s="461"/>
       <c r="AR100" s="462"/>
-      <c r="BB100" s="379"/>
+      <c r="BB100" s="378"/>
       <c r="BI100" s="460"/>
       <c r="BJ100" s="461"/>
       <c r="BK100" s="461"/>
@@ -23997,24 +23872,24 @@
       <c r="BR100" s="461"/>
       <c r="BS100" s="462"/>
       <c r="BY100" s="337"/>
-      <c r="CP100" s="379"/>
+      <c r="CP100" s="378"/>
       <c r="CQ100" s="337"/>
     </row>
     <row r="101" spans="2:107" ht="20.100000000000001" customHeight="1">
       <c r="B101" s="337"/>
-      <c r="Z101" s="379"/>
-      <c r="BB101" s="379"/>
+      <c r="Z101" s="378"/>
+      <c r="BB101" s="378"/>
       <c r="BY101" s="337"/>
-      <c r="CP101" s="379"/>
+      <c r="CP101" s="378"/>
       <c r="CQ101" s="337"/>
     </row>
     <row r="102" spans="2:107" ht="20.100000000000001" customHeight="1">
       <c r="B102" s="337"/>
       <c r="Y102" s="399"/>
       <c r="Z102" s="463"/>
-      <c r="BB102" s="379"/>
+      <c r="BB102" s="378"/>
       <c r="BY102" s="337"/>
-      <c r="CP102" s="379"/>
+      <c r="CP102" s="378"/>
       <c r="CQ102" s="337"/>
     </row>
     <row r="103" spans="2:107" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -24052,9 +23927,9 @@
       <c r="AG103" s="467"/>
       <c r="AH103" s="467"/>
       <c r="AI103" s="468"/>
-      <c r="BB103" s="379"/>
+      <c r="BB103" s="378"/>
       <c r="BY103" s="337"/>
-      <c r="CP103" s="379"/>
+      <c r="CP103" s="378"/>
       <c r="CQ103" s="337"/>
     </row>
     <row r="104" spans="2:107" ht="20.100000000000001" customHeight="1">
@@ -24132,59 +24007,53 @@
     </row>
     <row r="105" spans="2:107" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="AA105" s="337"/>
-      <c r="BB105" s="379"/>
+      <c r="BB105" s="378"/>
       <c r="BY105" s="337"/>
-      <c r="CP105" s="379"/>
-      <c r="CY105" s="380" t="s">
+      <c r="CP105" s="378"/>
+      <c r="CY105" s="379" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="106" spans="2:107" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="AA106" s="337"/>
-      <c r="AD106" s="387">
-        <v>45</v>
-      </c>
+      <c r="AD106" s="362"/>
       <c r="AE106" s="362"/>
       <c r="AF106" s="362"/>
       <c r="AG106" s="362"/>
-      <c r="BB106" s="379"/>
+      <c r="BB106" s="378"/>
       <c r="BY106" s="337"/>
-      <c r="CP106" s="379"/>
+      <c r="CP106" s="378"/>
       <c r="CY106" s="344">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="CZ106" s="345"/>
       <c r="DA106" s="345"/>
       <c r="DB106" s="346"/>
       <c r="DC106" s="1">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="2:107" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="AA107" s="337"/>
-      <c r="AD107" s="394">
-        <v>135.30000000000001</v>
-      </c>
+      <c r="AD107" s="362"/>
       <c r="AE107" s="362"/>
       <c r="AF107" s="362"/>
       <c r="AG107" s="362"/>
-      <c r="AV107" s="387">
-        <v>45</v>
-      </c>
+      <c r="AV107" s="362"/>
       <c r="AW107" s="362"/>
       <c r="AX107" s="362"/>
       <c r="AY107" s="362"/>
-      <c r="BB107" s="379"/>
+      <c r="BB107" s="378"/>
       <c r="BY107" s="337"/>
-      <c r="CP107" s="379"/>
+      <c r="CP107" s="378"/>
       <c r="CY107" s="352">
-        <v>270.60000000000002</v>
+        <v>0</v>
       </c>
       <c r="CZ107" s="353"/>
       <c r="DA107" s="353"/>
       <c r="DB107" s="354"/>
       <c r="DC107" s="1">
-        <v>270.60000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="2:107" ht="20.100000000000001" customHeight="1" thickTop="1">
@@ -24200,13 +24069,11 @@
       <c r="AP108" s="400"/>
       <c r="AQ108" s="400"/>
       <c r="AR108" s="401"/>
-      <c r="AV108" s="394">
-        <v>135.30000000000001</v>
-      </c>
+      <c r="AV108" s="362"/>
       <c r="AW108" s="362"/>
       <c r="AX108" s="362"/>
       <c r="AY108" s="362"/>
-      <c r="BB108" s="379"/>
+      <c r="BB108" s="378"/>
       <c r="BI108" s="399"/>
       <c r="BJ108" s="400"/>
       <c r="BK108" s="400"/>
@@ -24219,7 +24086,7 @@
       <c r="BR108" s="400"/>
       <c r="BS108" s="401"/>
       <c r="BY108" s="337"/>
-      <c r="CP108" s="379"/>
+      <c r="CP108" s="378"/>
       <c r="CY108" s="405" t="s">
         <v>41</v>
       </c>
@@ -24237,7 +24104,7 @@
       <c r="AP109" s="403"/>
       <c r="AQ109" s="403"/>
       <c r="AR109" s="404"/>
-      <c r="BB109" s="379"/>
+      <c r="BB109" s="378"/>
       <c r="BI109" s="402"/>
       <c r="BJ109" s="403"/>
       <c r="BK109" s="403"/>
@@ -24250,28 +24117,28 @@
       <c r="BR109" s="403"/>
       <c r="BS109" s="404"/>
       <c r="BY109" s="337"/>
-      <c r="CP109" s="379"/>
+      <c r="CP109" s="378"/>
       <c r="CY109" s="406" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="110" spans="2:107" ht="20.100000000000001" customHeight="1">
       <c r="AA110" s="337"/>
-      <c r="BB110" s="379"/>
+      <c r="BB110" s="378"/>
       <c r="BY110" s="337"/>
-      <c r="CP110" s="379"/>
+      <c r="CP110" s="378"/>
     </row>
     <row r="111" spans="2:107" ht="20.100000000000001" customHeight="1">
       <c r="AA111" s="337"/>
-      <c r="BB111" s="379"/>
+      <c r="BB111" s="378"/>
       <c r="BY111" s="337"/>
-      <c r="CP111" s="379"/>
+      <c r="CP111" s="378"/>
     </row>
     <row r="112" spans="2:107" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="AA112" s="337"/>
-      <c r="BB112" s="379"/>
+      <c r="BB112" s="378"/>
       <c r="BY112" s="337"/>
-      <c r="CP112" s="379"/>
+      <c r="CP112" s="378"/>
     </row>
     <row r="113" spans="27:107" ht="20.100000000000001" customHeight="1">
       <c r="AA113" s="372"/>
@@ -24349,19 +24216,19 @@
     </row>
     <row r="114" spans="27:107" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="AA114" s="337"/>
-      <c r="BB114" s="379"/>
+      <c r="BB114" s="378"/>
       <c r="BY114" s="337"/>
-      <c r="CK114" s="379"/>
+      <c r="CK114" s="378"/>
       <c r="CX114" s="472"/>
-      <c r="CY114" s="380" t="s">
+      <c r="CY114" s="379" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="115" spans="27:107" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="AA115" s="337"/>
-      <c r="BB115" s="379"/>
+      <c r="BB115" s="378"/>
       <c r="BY115" s="337"/>
-      <c r="CK115" s="379"/>
+      <c r="CK115" s="378"/>
       <c r="CX115" s="472"/>
       <c r="CY115" s="344">
         <v>0</v>
@@ -24375,9 +24242,9 @@
     </row>
     <row r="116" spans="27:107" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="AA116" s="337"/>
-      <c r="BB116" s="379"/>
+      <c r="BB116" s="378"/>
       <c r="BY116" s="337"/>
-      <c r="CK116" s="379"/>
+      <c r="CK116" s="378"/>
       <c r="CY116" s="352">
         <v>0</v>
       </c>
@@ -24390,81 +24257,81 @@
     </row>
     <row r="117" spans="27:107" ht="20.100000000000001" customHeight="1" thickTop="1">
       <c r="AA117" s="337"/>
-      <c r="AH117" s="390"/>
-      <c r="AI117" s="391"/>
-      <c r="AJ117" s="391"/>
-      <c r="AK117" s="391"/>
-      <c r="AL117" s="391"/>
-      <c r="AM117" s="391"/>
-      <c r="AN117" s="391"/>
-      <c r="AO117" s="391"/>
-      <c r="AP117" s="391"/>
-      <c r="AQ117" s="391"/>
-      <c r="AR117" s="392"/>
-      <c r="BB117" s="379"/>
-      <c r="BI117" s="390"/>
-      <c r="BJ117" s="391"/>
-      <c r="BK117" s="391"/>
-      <c r="BL117" s="391"/>
-      <c r="BM117" s="391"/>
-      <c r="BN117" s="391"/>
-      <c r="BO117" s="391"/>
-      <c r="BP117" s="391"/>
-      <c r="BQ117" s="391"/>
-      <c r="BR117" s="391"/>
-      <c r="BS117" s="392"/>
+      <c r="AH117" s="386"/>
+      <c r="AI117" s="387"/>
+      <c r="AJ117" s="387"/>
+      <c r="AK117" s="387"/>
+      <c r="AL117" s="387"/>
+      <c r="AM117" s="387"/>
+      <c r="AN117" s="387"/>
+      <c r="AO117" s="387"/>
+      <c r="AP117" s="387"/>
+      <c r="AQ117" s="387"/>
+      <c r="AR117" s="388"/>
+      <c r="BB117" s="378"/>
+      <c r="BI117" s="386"/>
+      <c r="BJ117" s="387"/>
+      <c r="BK117" s="387"/>
+      <c r="BL117" s="387"/>
+      <c r="BM117" s="387"/>
+      <c r="BN117" s="387"/>
+      <c r="BO117" s="387"/>
+      <c r="BP117" s="387"/>
+      <c r="BQ117" s="387"/>
+      <c r="BR117" s="387"/>
+      <c r="BS117" s="388"/>
       <c r="BY117" s="337"/>
-      <c r="CK117" s="379"/>
+      <c r="CK117" s="378"/>
       <c r="CY117" s="405" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="118" spans="27:107" ht="20.100000000000001" customHeight="1">
       <c r="AA118" s="337"/>
-      <c r="AH118" s="395"/>
-      <c r="AI118" s="396"/>
-      <c r="AJ118" s="396"/>
-      <c r="AK118" s="396"/>
-      <c r="AL118" s="396"/>
-      <c r="AM118" s="396"/>
-      <c r="AN118" s="396"/>
-      <c r="AO118" s="396"/>
-      <c r="AP118" s="396"/>
-      <c r="AQ118" s="396"/>
-      <c r="AR118" s="397"/>
-      <c r="BB118" s="379"/>
-      <c r="BI118" s="395"/>
-      <c r="BJ118" s="396"/>
-      <c r="BK118" s="396"/>
-      <c r="BL118" s="396"/>
-      <c r="BM118" s="396"/>
-      <c r="BN118" s="396"/>
-      <c r="BO118" s="396"/>
-      <c r="BP118" s="396"/>
-      <c r="BQ118" s="396"/>
-      <c r="BR118" s="396"/>
-      <c r="BS118" s="397"/>
+      <c r="AH118" s="392"/>
+      <c r="AI118" s="393"/>
+      <c r="AJ118" s="393"/>
+      <c r="AK118" s="393"/>
+      <c r="AL118" s="393"/>
+      <c r="AM118" s="393"/>
+      <c r="AN118" s="393"/>
+      <c r="AO118" s="393"/>
+      <c r="AP118" s="393"/>
+      <c r="AQ118" s="393"/>
+      <c r="AR118" s="394"/>
+      <c r="BB118" s="378"/>
+      <c r="BI118" s="392"/>
+      <c r="BJ118" s="393"/>
+      <c r="BK118" s="393"/>
+      <c r="BL118" s="393"/>
+      <c r="BM118" s="393"/>
+      <c r="BN118" s="393"/>
+      <c r="BO118" s="393"/>
+      <c r="BP118" s="393"/>
+      <c r="BQ118" s="393"/>
+      <c r="BR118" s="393"/>
+      <c r="BS118" s="394"/>
       <c r="BY118" s="337"/>
-      <c r="CK118" s="379"/>
+      <c r="CK118" s="378"/>
       <c r="CY118" s="406" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="119" spans="27:107" ht="20.100000000000001" customHeight="1">
       <c r="AA119" s="337"/>
-      <c r="BB119" s="379"/>
+      <c r="BB119" s="378"/>
       <c r="BY119" s="337"/>
-      <c r="CK119" s="379"/>
+      <c r="CK119" s="378"/>
     </row>
     <row r="120" spans="27:107" ht="20.100000000000001" customHeight="1">
       <c r="AA120" s="337"/>
-      <c r="BB120" s="379"/>
+      <c r="BB120" s="378"/>
       <c r="BY120" s="337"/>
-      <c r="CK120" s="379"/>
+      <c r="CK120" s="378"/>
     </row>
     <row r="121" spans="27:107" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="AA121" s="337"/>
-      <c r="BB121" s="379"/>
+      <c r="BB121" s="378"/>
       <c r="BY121" s="464"/>
       <c r="BZ121" s="465"/>
       <c r="CA121" s="465"/>
@@ -24536,19 +24403,19 @@
     </row>
     <row r="123" spans="27:107" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="AA123" s="337"/>
-      <c r="BB123" s="379"/>
-      <c r="BX123" s="379"/>
+      <c r="BB123" s="378"/>
+      <c r="BX123" s="378"/>
       <c r="CA123" s="473" t="s">
         <v>60</v>
       </c>
-      <c r="CY123" s="380" t="s">
+      <c r="CY123" s="379" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="124" spans="27:107" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="AA124" s="337"/>
-      <c r="BB124" s="379"/>
-      <c r="BX124" s="379"/>
+      <c r="BB124" s="378"/>
+      <c r="BX124" s="378"/>
       <c r="CA124" s="10" t="s">
         <v>61</v>
       </c>
@@ -24564,8 +24431,8 @@
     </row>
     <row r="125" spans="27:107" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="AA125" s="337"/>
-      <c r="BB125" s="379"/>
-      <c r="BX125" s="379"/>
+      <c r="BB125" s="378"/>
+      <c r="BX125" s="378"/>
       <c r="CY125" s="352">
         <v>0</v>
       </c>
@@ -24578,78 +24445,78 @@
     </row>
     <row r="126" spans="27:107" ht="20.100000000000001" customHeight="1" thickTop="1">
       <c r="AA126" s="337"/>
-      <c r="AH126" s="390"/>
-      <c r="AI126" s="391"/>
-      <c r="AJ126" s="391"/>
-      <c r="AK126" s="391"/>
-      <c r="AL126" s="391"/>
-      <c r="AM126" s="391"/>
-      <c r="AN126" s="391"/>
-      <c r="AO126" s="391"/>
-      <c r="AP126" s="391"/>
-      <c r="AQ126" s="391"/>
-      <c r="AR126" s="392"/>
-      <c r="BB126" s="379"/>
-      <c r="BI126" s="390"/>
-      <c r="BJ126" s="391"/>
-      <c r="BK126" s="391"/>
-      <c r="BL126" s="391"/>
-      <c r="BM126" s="391"/>
-      <c r="BN126" s="391"/>
-      <c r="BO126" s="391"/>
-      <c r="BP126" s="391"/>
-      <c r="BQ126" s="391"/>
-      <c r="BR126" s="391"/>
-      <c r="BS126" s="392"/>
-      <c r="BX126" s="379"/>
+      <c r="AH126" s="386"/>
+      <c r="AI126" s="387"/>
+      <c r="AJ126" s="387"/>
+      <c r="AK126" s="387"/>
+      <c r="AL126" s="387"/>
+      <c r="AM126" s="387"/>
+      <c r="AN126" s="387"/>
+      <c r="AO126" s="387"/>
+      <c r="AP126" s="387"/>
+      <c r="AQ126" s="387"/>
+      <c r="AR126" s="388"/>
+      <c r="BB126" s="378"/>
+      <c r="BI126" s="386"/>
+      <c r="BJ126" s="387"/>
+      <c r="BK126" s="387"/>
+      <c r="BL126" s="387"/>
+      <c r="BM126" s="387"/>
+      <c r="BN126" s="387"/>
+      <c r="BO126" s="387"/>
+      <c r="BP126" s="387"/>
+      <c r="BQ126" s="387"/>
+      <c r="BR126" s="387"/>
+      <c r="BS126" s="388"/>
+      <c r="BX126" s="378"/>
       <c r="CY126" s="405" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="127" spans="27:107" ht="20.100000000000001" customHeight="1">
       <c r="AA127" s="337"/>
-      <c r="AH127" s="395"/>
-      <c r="AI127" s="396"/>
-      <c r="AJ127" s="396"/>
-      <c r="AK127" s="396"/>
-      <c r="AL127" s="396"/>
-      <c r="AM127" s="396"/>
-      <c r="AN127" s="396"/>
-      <c r="AO127" s="396"/>
-      <c r="AP127" s="396"/>
-      <c r="AQ127" s="396"/>
-      <c r="AR127" s="397"/>
-      <c r="BB127" s="379"/>
-      <c r="BI127" s="395"/>
-      <c r="BJ127" s="396"/>
-      <c r="BK127" s="396"/>
-      <c r="BL127" s="396"/>
-      <c r="BM127" s="396"/>
-      <c r="BN127" s="396"/>
-      <c r="BO127" s="396"/>
-      <c r="BP127" s="396"/>
-      <c r="BQ127" s="396"/>
-      <c r="BR127" s="396"/>
-      <c r="BS127" s="397"/>
-      <c r="BX127" s="379"/>
+      <c r="AH127" s="392"/>
+      <c r="AI127" s="393"/>
+      <c r="AJ127" s="393"/>
+      <c r="AK127" s="393"/>
+      <c r="AL127" s="393"/>
+      <c r="AM127" s="393"/>
+      <c r="AN127" s="393"/>
+      <c r="AO127" s="393"/>
+      <c r="AP127" s="393"/>
+      <c r="AQ127" s="393"/>
+      <c r="AR127" s="394"/>
+      <c r="BB127" s="378"/>
+      <c r="BI127" s="392"/>
+      <c r="BJ127" s="393"/>
+      <c r="BK127" s="393"/>
+      <c r="BL127" s="393"/>
+      <c r="BM127" s="393"/>
+      <c r="BN127" s="393"/>
+      <c r="BO127" s="393"/>
+      <c r="BP127" s="393"/>
+      <c r="BQ127" s="393"/>
+      <c r="BR127" s="393"/>
+      <c r="BS127" s="394"/>
+      <c r="BX127" s="378"/>
       <c r="CY127" s="406" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="128" spans="27:107" ht="20.100000000000001" customHeight="1">
       <c r="AA128" s="337"/>
-      <c r="BB128" s="379"/>
-      <c r="BX128" s="379"/>
+      <c r="BB128" s="378"/>
+      <c r="BX128" s="378"/>
     </row>
     <row r="129" spans="5:107" ht="20.100000000000001" customHeight="1">
       <c r="AA129" s="337"/>
-      <c r="BB129" s="379"/>
-      <c r="BX129" s="379"/>
+      <c r="BB129" s="378"/>
+      <c r="BX129" s="378"/>
     </row>
     <row r="130" spans="5:107" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="AA130" s="337"/>
-      <c r="BB130" s="379"/>
-      <c r="BX130" s="379"/>
+      <c r="BB130" s="378"/>
+      <c r="BX130" s="378"/>
     </row>
     <row r="131" spans="5:107" ht="20.100000000000001" customHeight="1">
       <c r="AA131" s="372"/>
@@ -24708,16 +24575,16 @@
     </row>
     <row r="132" spans="5:107" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="AA132" s="337"/>
-      <c r="BB132" s="379"/>
-      <c r="BX132" s="379"/>
-      <c r="CY132" s="380" t="s">
+      <c r="BB132" s="378"/>
+      <c r="BX132" s="378"/>
+      <c r="CY132" s="379" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="133" spans="5:107" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="AA133" s="337"/>
-      <c r="BB133" s="379"/>
-      <c r="BX133" s="379"/>
+      <c r="BB133" s="378"/>
+      <c r="BX133" s="378"/>
       <c r="CY133" s="344">
         <v>0</v>
       </c>
@@ -24730,8 +24597,8 @@
     </row>
     <row r="134" spans="5:107" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="AA134" s="337"/>
-      <c r="BB134" s="379"/>
-      <c r="BX134" s="379"/>
+      <c r="BB134" s="378"/>
+      <c r="BX134" s="378"/>
       <c r="CY134" s="352">
         <v>0</v>
       </c>
@@ -24744,73 +24611,73 @@
     </row>
     <row r="135" spans="5:107" ht="20.100000000000001" customHeight="1" thickTop="1">
       <c r="AA135" s="337"/>
-      <c r="AH135" s="390"/>
-      <c r="AI135" s="391"/>
-      <c r="AJ135" s="391"/>
-      <c r="AK135" s="391"/>
-      <c r="AL135" s="391"/>
-      <c r="AM135" s="391"/>
-      <c r="AN135" s="391"/>
-      <c r="AO135" s="391"/>
-      <c r="AP135" s="391"/>
-      <c r="AQ135" s="391"/>
-      <c r="AR135" s="392"/>
-      <c r="BB135" s="379"/>
-      <c r="BI135" s="390"/>
-      <c r="BJ135" s="391"/>
-      <c r="BK135" s="391"/>
-      <c r="BL135" s="391"/>
-      <c r="BM135" s="391"/>
-      <c r="BN135" s="391"/>
-      <c r="BO135" s="391"/>
-      <c r="BP135" s="391"/>
-      <c r="BQ135" s="391"/>
-      <c r="BR135" s="391"/>
-      <c r="BS135" s="392"/>
-      <c r="BX135" s="379"/>
+      <c r="AH135" s="386"/>
+      <c r="AI135" s="387"/>
+      <c r="AJ135" s="387"/>
+      <c r="AK135" s="387"/>
+      <c r="AL135" s="387"/>
+      <c r="AM135" s="387"/>
+      <c r="AN135" s="387"/>
+      <c r="AO135" s="387"/>
+      <c r="AP135" s="387"/>
+      <c r="AQ135" s="387"/>
+      <c r="AR135" s="388"/>
+      <c r="BB135" s="378"/>
+      <c r="BI135" s="386"/>
+      <c r="BJ135" s="387"/>
+      <c r="BK135" s="387"/>
+      <c r="BL135" s="387"/>
+      <c r="BM135" s="387"/>
+      <c r="BN135" s="387"/>
+      <c r="BO135" s="387"/>
+      <c r="BP135" s="387"/>
+      <c r="BQ135" s="387"/>
+      <c r="BR135" s="387"/>
+      <c r="BS135" s="388"/>
+      <c r="BX135" s="378"/>
       <c r="CY135" s="405" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="136" spans="5:107" ht="20.100000000000001" customHeight="1">
       <c r="AA136" s="337"/>
-      <c r="AH136" s="395"/>
-      <c r="AI136" s="396"/>
-      <c r="AJ136" s="396"/>
-      <c r="AK136" s="396"/>
-      <c r="AL136" s="396"/>
-      <c r="AM136" s="396"/>
-      <c r="AN136" s="396"/>
-      <c r="AO136" s="396"/>
-      <c r="AP136" s="396"/>
-      <c r="AQ136" s="396"/>
-      <c r="AR136" s="397"/>
-      <c r="BB136" s="379"/>
-      <c r="BI136" s="395"/>
-      <c r="BJ136" s="396"/>
-      <c r="BK136" s="396"/>
-      <c r="BL136" s="396"/>
-      <c r="BM136" s="396"/>
-      <c r="BN136" s="396"/>
-      <c r="BO136" s="396"/>
-      <c r="BP136" s="396"/>
-      <c r="BQ136" s="396"/>
-      <c r="BR136" s="396"/>
-      <c r="BS136" s="397"/>
-      <c r="BX136" s="379"/>
+      <c r="AH136" s="392"/>
+      <c r="AI136" s="393"/>
+      <c r="AJ136" s="393"/>
+      <c r="AK136" s="393"/>
+      <c r="AL136" s="393"/>
+      <c r="AM136" s="393"/>
+      <c r="AN136" s="393"/>
+      <c r="AO136" s="393"/>
+      <c r="AP136" s="393"/>
+      <c r="AQ136" s="393"/>
+      <c r="AR136" s="394"/>
+      <c r="BB136" s="378"/>
+      <c r="BI136" s="392"/>
+      <c r="BJ136" s="393"/>
+      <c r="BK136" s="393"/>
+      <c r="BL136" s="393"/>
+      <c r="BM136" s="393"/>
+      <c r="BN136" s="393"/>
+      <c r="BO136" s="393"/>
+      <c r="BP136" s="393"/>
+      <c r="BQ136" s="393"/>
+      <c r="BR136" s="393"/>
+      <c r="BS136" s="394"/>
+      <c r="BX136" s="378"/>
       <c r="CY136" s="406" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="137" spans="5:107" ht="20.100000000000001" customHeight="1">
       <c r="AA137" s="337"/>
-      <c r="BB137" s="379"/>
-      <c r="BX137" s="379"/>
+      <c r="BB137" s="378"/>
+      <c r="BX137" s="378"/>
     </row>
     <row r="138" spans="5:107" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="AA138" s="337"/>
-      <c r="BB138" s="379"/>
-      <c r="BX138" s="379"/>
+      <c r="BB138" s="378"/>
+      <c r="BX138" s="378"/>
     </row>
     <row r="139" spans="5:107" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="AA139" s="464"/>
@@ -24878,7 +24745,7 @@
     <row r="140" spans="5:107" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="CR140" s="477"/>
       <c r="CT140" s="478">
-        <v>724</v>
+        <v>207</v>
       </c>
       <c r="CU140" s="479"/>
       <c r="CV140" s="479"/>
@@ -24920,7 +24787,7 @@
       <c r="CK141" s="483"/>
       <c r="CR141" s="477"/>
       <c r="CT141" s="484">
-        <v>1399.7</v>
+        <v>327.2</v>
       </c>
       <c r="CU141" s="485"/>
       <c r="CV141" s="485"/>
@@ -24933,48 +24800,48 @@
     </row>
     <row r="142" spans="5:107" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="K142" s="487">
-        <v>178</v>
+        <v>36</v>
       </c>
       <c r="L142" s="488"/>
       <c r="M142" s="488"/>
       <c r="N142" s="488"/>
       <c r="O142" s="489"/>
       <c r="P142" s="1">
-        <v>178</v>
+        <v>36</v>
       </c>
       <c r="AM142" s="487">
-        <v>247</v>
+        <v>17</v>
       </c>
       <c r="AN142" s="488"/>
       <c r="AO142" s="488"/>
       <c r="AP142" s="488"/>
       <c r="AQ142" s="489"/>
       <c r="AR142" s="1">
-        <v>247</v>
+        <v>17</v>
       </c>
       <c r="BL142" s="487">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="BM142" s="488"/>
       <c r="BN142" s="488"/>
       <c r="BO142" s="488"/>
       <c r="BP142" s="489"/>
       <c r="BQ142" s="1">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="CG142" s="487">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="CH142" s="488"/>
       <c r="CI142" s="488"/>
       <c r="CJ142" s="488"/>
       <c r="CK142" s="489"/>
       <c r="CL142" s="1">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="CR142" s="490"/>
       <c r="CT142" s="491">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="CU142" s="492"/>
       <c r="CV142" s="492"/>
@@ -24991,52 +24858,52 @@
       <c r="G143" s="495"/>
       <c r="H143" s="494"/>
       <c r="K143" s="496">
-        <v>446.1</v>
+        <v>48.9</v>
       </c>
       <c r="L143" s="497"/>
       <c r="M143" s="497"/>
       <c r="N143" s="497"/>
       <c r="O143" s="498"/>
       <c r="P143" s="1">
-        <v>446.1</v>
+        <v>48.9</v>
       </c>
       <c r="V143" s="494"/>
       <c r="W143" s="494"/>
       <c r="X143" s="494"/>
       <c r="Y143" s="494"/>
       <c r="AM143" s="496">
-        <v>770.8</v>
+        <v>94.3</v>
       </c>
       <c r="AN143" s="497"/>
       <c r="AO143" s="497"/>
       <c r="AP143" s="497"/>
       <c r="AQ143" s="498"/>
       <c r="AR143" s="1">
-        <v>770.8</v>
+        <v>94.3</v>
       </c>
       <c r="BL143" s="496">
-        <v>158.19999999999999</v>
+        <v>168.39999999999998</v>
       </c>
       <c r="BM143" s="497"/>
       <c r="BN143" s="497"/>
       <c r="BO143" s="497"/>
       <c r="BP143" s="498"/>
       <c r="BQ143" s="1">
-        <v>158.19999999999999</v>
+        <v>168.39999999999998</v>
       </c>
       <c r="CG143" s="496">
-        <v>24.6</v>
+        <v>15.6</v>
       </c>
       <c r="CH143" s="497"/>
       <c r="CI143" s="497"/>
       <c r="CJ143" s="497"/>
       <c r="CK143" s="498"/>
       <c r="CL143" s="1">
-        <v>24.6</v>
+        <v>15.6</v>
       </c>
       <c r="CR143" s="490"/>
       <c r="CT143" s="484">
-        <v>542.29999999999995</v>
+        <v>72.3</v>
       </c>
       <c r="CU143" s="485"/>
       <c r="CV143" s="485"/>
@@ -25094,7 +24961,8 @@
       <c r="Y145" s="494"/>
     </row>
   </sheetData>
-  <mergeCells count="532">
+  <dataConsolidate/>
+  <mergeCells count="535">
     <mergeCell ref="K142:O142"/>
     <mergeCell ref="AM142:AQ142"/>
     <mergeCell ref="BL142:BP142"/>
@@ -25129,7 +24997,6 @@
     <mergeCell ref="AD107:AG107"/>
     <mergeCell ref="AV107:AY107"/>
     <mergeCell ref="CY107:DB107"/>
-    <mergeCell ref="CY88:DB88"/>
     <mergeCell ref="J92:P93"/>
     <mergeCell ref="T92:Z92"/>
     <mergeCell ref="AA92:AK92"/>
@@ -25137,39 +25004,43 @@
     <mergeCell ref="BH95:BN97"/>
     <mergeCell ref="CY96:DB96"/>
     <mergeCell ref="CY97:DB97"/>
-    <mergeCell ref="CY79:DB79"/>
     <mergeCell ref="J83:N83"/>
     <mergeCell ref="CY83:DB83"/>
     <mergeCell ref="DC83:DE83"/>
     <mergeCell ref="AO87:AV87"/>
     <mergeCell ref="CY87:DB87"/>
-    <mergeCell ref="CY70:DB70"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="J74:N74"/>
+    <mergeCell ref="CY88:DB88"/>
     <mergeCell ref="AF76:AN77"/>
     <mergeCell ref="AO76:AV76"/>
     <mergeCell ref="BH77:BX78"/>
     <mergeCell ref="BY77:CA78"/>
     <mergeCell ref="CY78:DB78"/>
-    <mergeCell ref="J65:N65"/>
-    <mergeCell ref="CY65:DB65"/>
+    <mergeCell ref="CY79:DB79"/>
     <mergeCell ref="DC65:DE65"/>
     <mergeCell ref="AN68:AV68"/>
     <mergeCell ref="BY68:CJ69"/>
     <mergeCell ref="CY69:DB69"/>
-    <mergeCell ref="CA50:CD50"/>
-    <mergeCell ref="CG50:CR51"/>
-    <mergeCell ref="CY50:DB50"/>
+    <mergeCell ref="CY70:DB70"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="J74:N74"/>
     <mergeCell ref="J56:N56"/>
     <mergeCell ref="CY58:DB58"/>
     <mergeCell ref="AL59:AV60"/>
     <mergeCell ref="CY59:DB59"/>
+    <mergeCell ref="J65:N65"/>
+    <mergeCell ref="CY65:DB65"/>
+    <mergeCell ref="J47:N47"/>
+    <mergeCell ref="CA49:CD49"/>
+    <mergeCell ref="CY49:DB49"/>
+    <mergeCell ref="CA50:CD50"/>
+    <mergeCell ref="CG50:CR51"/>
+    <mergeCell ref="CY50:DB50"/>
     <mergeCell ref="H43:K43"/>
     <mergeCell ref="AE43:AG43"/>
     <mergeCell ref="AE44:AG44"/>
-    <mergeCell ref="J47:N47"/>
-    <mergeCell ref="CA49:CD49"/>
-    <mergeCell ref="CY49:DB49"/>
+    <mergeCell ref="BD45:BF45"/>
+    <mergeCell ref="BG45:BI45"/>
+    <mergeCell ref="BO45:BQ45"/>
     <mergeCell ref="P41:S41"/>
     <mergeCell ref="BF41:BI41"/>
     <mergeCell ref="BP41:BS41"/>
@@ -25635,14 +25506,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC5FF56-8B1E-4716-A936-82802384AED8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FEB3FA-9177-423A-9926-8DC867B95666}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B3:Z48"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25708,6 +25579,11 @@
       </c>
       <c r="K4" s="499" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="C5" s="499" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="2:26" ht="15.75" thickBot="1"/>
@@ -25741,7 +25617,7 @@
     <row r="37" spans="2:26" ht="15.75" thickTop="1">
       <c r="B37" s="514"/>
       <c r="C37" s="515" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D37" s="516"/>
       <c r="E37" s="516"/>
@@ -25749,7 +25625,7 @@
       <c r="H37" s="517"/>
       <c r="I37" s="518"/>
       <c r="J37" s="499" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K37" s="516"/>
       <c r="L37" s="516"/>
@@ -25758,7 +25634,7 @@
       <c r="O37" s="519"/>
       <c r="P37" s="520"/>
       <c r="Q37" s="499" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R37" s="516"/>
       <c r="S37" s="515"/>
@@ -25766,7 +25642,7 @@
       <c r="U37" s="519"/>
       <c r="V37" s="520"/>
       <c r="W37" s="499" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X37" s="516"/>
       <c r="Y37" s="515"/>
@@ -26022,14 +25898,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9038FEC-6779-4B7E-AD6C-878FD2C1B66C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D426DECF-C553-4CC9-82D2-00DA336AC958}">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:X25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26040,21 +25916,21 @@
     <row r="2" spans="2:24">
       <c r="B2" s="533"/>
       <c r="C2" s="534" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D2" s="535"/>
     </row>
     <row r="3" spans="2:24">
       <c r="B3" s="536"/>
       <c r="C3" s="534" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D3" s="535"/>
     </row>
     <row r="4" spans="2:24">
       <c r="B4" s="537"/>
       <c r="C4" s="534" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D4" s="535"/>
     </row>
@@ -26096,13 +25972,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAD3992D-3D5B-407B-B47C-4851AEEB45F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90C51FEB-C415-45DB-9D26-407D0A31E2AB}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:BO21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="7" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P8" sqref="P8"/>
+      <selection pane="topRight" activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -26126,7 +26002,7 @@
     <row r="1" spans="1:67" ht="25.5">
       <c r="A1" s="539"/>
       <c r="B1" s="540" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C1" s="541"/>
       <c r="D1" s="542"/>
@@ -26257,7 +26133,7 @@
     <row r="4" spans="1:67" ht="49.5" customHeight="1" thickBot="1">
       <c r="A4" s="539"/>
       <c r="B4" s="552" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C4" s="553"/>
       <c r="D4" s="554" t="s">
@@ -26267,31 +26143,31 @@
       <c r="F4" s="555"/>
       <c r="G4" s="556"/>
       <c r="H4" s="557" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I4" s="558"/>
       <c r="J4" s="558"/>
       <c r="K4" s="559"/>
       <c r="L4" s="560" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M4" s="558"/>
       <c r="N4" s="558"/>
       <c r="O4" s="559"/>
       <c r="P4" s="560" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q4" s="558"/>
       <c r="R4" s="558"/>
       <c r="S4" s="559"/>
       <c r="T4" s="560" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="U4" s="558"/>
       <c r="V4" s="558"/>
       <c r="W4" s="559"/>
       <c r="X4" s="560" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Y4" s="558"/>
       <c r="Z4" s="558"/>
@@ -26346,196 +26222,196 @@
         <v>18</v>
       </c>
       <c r="D5" s="564" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E5" s="564" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F5" s="564" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="564" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="566" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="566" t="s">
-        <v>81</v>
-      </c>
       <c r="I5" s="564" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J5" s="564" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="564" t="s">
+        <v>83</v>
+      </c>
+      <c r="L5" s="564" t="s">
         <v>82</v>
       </c>
-      <c r="L5" s="564" t="s">
-        <v>81</v>
-      </c>
       <c r="M5" s="564" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N5" s="564" t="s">
         <v>22</v>
       </c>
       <c r="O5" s="564" t="s">
+        <v>83</v>
+      </c>
+      <c r="P5" s="564" t="s">
         <v>82</v>
       </c>
-      <c r="P5" s="564" t="s">
-        <v>81</v>
-      </c>
       <c r="Q5" s="564" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R5" s="564" t="s">
         <v>22</v>
       </c>
       <c r="S5" s="564" t="s">
+        <v>83</v>
+      </c>
+      <c r="T5" s="564" t="s">
         <v>82</v>
       </c>
-      <c r="T5" s="564" t="s">
-        <v>81</v>
-      </c>
       <c r="U5" s="564" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V5" s="564" t="s">
         <v>22</v>
       </c>
       <c r="W5" s="564" t="s">
+        <v>83</v>
+      </c>
+      <c r="X5" s="564" t="s">
         <v>82</v>
       </c>
-      <c r="X5" s="564" t="s">
-        <v>81</v>
-      </c>
       <c r="Y5" s="564" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Z5" s="564" t="s">
         <v>22</v>
       </c>
       <c r="AA5" s="564" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB5" s="564" t="s">
         <v>82</v>
       </c>
-      <c r="AB5" s="564" t="s">
-        <v>81</v>
-      </c>
       <c r="AC5" s="564" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AD5" s="564" t="s">
         <v>22</v>
       </c>
       <c r="AE5" s="564" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF5" s="567" t="s">
         <v>82</v>
       </c>
-      <c r="AF5" s="567" t="s">
-        <v>81</v>
-      </c>
       <c r="AG5" s="567" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH5" s="567" t="s">
         <v>22</v>
       </c>
       <c r="AI5" s="567" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ5" s="567" t="s">
         <v>82</v>
       </c>
-      <c r="AJ5" s="567" t="s">
-        <v>81</v>
-      </c>
       <c r="AK5" s="567" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AL5" s="567" t="s">
         <v>22</v>
       </c>
       <c r="AM5" s="567" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN5" s="567" t="s">
         <v>82</v>
       </c>
-      <c r="AN5" s="567" t="s">
-        <v>81</v>
-      </c>
       <c r="AO5" s="567" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AP5" s="567" t="s">
         <v>22</v>
       </c>
       <c r="AQ5" s="567" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR5" s="567" t="s">
         <v>82</v>
       </c>
-      <c r="AR5" s="567" t="s">
-        <v>81</v>
-      </c>
       <c r="AS5" s="567" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AT5" s="567" t="s">
         <v>22</v>
       </c>
       <c r="AU5" s="567" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV5" s="567" t="s">
         <v>82</v>
       </c>
-      <c r="AV5" s="567" t="s">
-        <v>81</v>
-      </c>
       <c r="AW5" s="567" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AX5" s="567" t="s">
         <v>22</v>
       </c>
       <c r="AY5" s="567" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ5" s="567" t="s">
         <v>82</v>
       </c>
-      <c r="AZ5" s="567" t="s">
-        <v>81</v>
-      </c>
       <c r="BA5" s="567" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BB5" s="567" t="s">
         <v>22</v>
       </c>
       <c r="BC5" s="567" t="s">
+        <v>83</v>
+      </c>
+      <c r="BD5" s="567" t="s">
         <v>82</v>
       </c>
-      <c r="BD5" s="567" t="s">
-        <v>81</v>
-      </c>
       <c r="BE5" s="567" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BF5" s="567" t="s">
         <v>22</v>
       </c>
       <c r="BG5" s="567" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH5" s="567" t="s">
         <v>82</v>
       </c>
-      <c r="BH5" s="567" t="s">
-        <v>81</v>
-      </c>
       <c r="BI5" s="567" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BJ5" s="567" t="s">
         <v>22</v>
       </c>
       <c r="BK5" s="567" t="s">
+        <v>83</v>
+      </c>
+      <c r="BL5" s="567" t="s">
         <v>82</v>
       </c>
-      <c r="BL5" s="567" t="s">
-        <v>81</v>
-      </c>
       <c r="BM5" s="567" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BN5" s="567" t="s">
         <v>22</v>
       </c>
       <c r="BO5" s="567" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:67">
@@ -26609,7 +26485,7 @@
     <row r="7" spans="1:67" ht="15.75">
       <c r="A7" s="539"/>
       <c r="B7" s="570" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C7" s="570" t="s">
         <v>19</v>
@@ -26704,7 +26580,7 @@
     <row r="8" spans="1:67" ht="15.75">
       <c r="A8" s="539"/>
       <c r="B8" s="570" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C8" s="570" t="s">
         <v>20</v>
@@ -27810,7 +27686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6918F4-16A7-4D8A-AE92-B4A1796CE8C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3454A4E-90B3-44D0-8B53-5B580F621295}">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -27897,7 +27773,7 @@
       <c r="Q2" s="578"/>
       <c r="R2" s="578"/>
       <c r="S2" s="581" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T2" s="578"/>
       <c r="U2" s="578"/>
@@ -28029,7 +27905,7 @@
       <c r="C5" s="578"/>
       <c r="D5" s="578"/>
       <c r="E5" s="582" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F5" s="583"/>
       <c r="G5" s="583"/>
@@ -28037,7 +27913,7 @@
       <c r="I5" s="583"/>
       <c r="J5" s="583"/>
       <c r="K5" s="584" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L5" s="585"/>
       <c r="M5" s="585"/>
@@ -28087,7 +27963,7 @@
       <c r="I6" s="588"/>
       <c r="J6" s="588"/>
       <c r="K6" s="589" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L6" s="590"/>
       <c r="M6" s="590"/>
@@ -28179,7 +28055,7 @@
       <c r="C8" s="578"/>
       <c r="D8" s="578"/>
       <c r="E8" s="594" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F8" s="595"/>
       <c r="G8" s="595"/>
@@ -28187,7 +28063,7 @@
       <c r="I8" s="595"/>
       <c r="J8" s="596"/>
       <c r="K8" s="597" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L8" s="598"/>
       <c r="M8" s="598"/>
@@ -28237,7 +28113,7 @@
       <c r="I9" s="602"/>
       <c r="J9" s="603"/>
       <c r="K9" s="604" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L9" s="605"/>
       <c r="M9" s="605"/>
@@ -28848,7 +28724,7 @@
       <c r="AL21" s="578"/>
       <c r="AM21" s="578"/>
       <c r="AN21" s="607" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AO21" s="578"/>
       <c r="AP21" s="578"/>
@@ -29107,7 +28983,7 @@
       <c r="AQ26" s="578"/>
       <c r="AR26" s="578"/>
       <c r="AS26" s="607" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AT26" s="578"/>
     </row>
@@ -29207,7 +29083,7 @@
       <c r="AO28" s="578"/>
       <c r="AP28" s="578"/>
       <c r="AQ28" s="609" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AR28" s="578"/>
       <c r="AS28" s="578"/>
@@ -29363,7 +29239,7 @@
       <c r="C32" s="578"/>
       <c r="D32" s="578"/>
       <c r="E32" s="607" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F32" s="578"/>
       <c r="G32" s="578"/>
@@ -29432,7 +29308,7 @@
       <c r="V33" s="578"/>
       <c r="W33" s="578"/>
       <c r="X33" s="607" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Y33" s="578"/>
       <c r="Z33" s="578"/>
@@ -29557,7 +29433,7 @@
       <c r="A36" s="578"/>
       <c r="B36" s="578"/>
       <c r="C36" s="578" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D36" s="578"/>
       <c r="E36" s="578"/>
@@ -29578,7 +29454,7 @@
       <c r="T36" s="578"/>
       <c r="U36" s="578"/>
       <c r="V36" s="578" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="W36" s="578"/>
       <c r="X36" s="578"/>
@@ -29657,7 +29533,7 @@
       <c r="A38" s="578"/>
       <c r="B38" s="578"/>
       <c r="C38" s="578" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D38" s="578"/>
       <c r="E38" s="578"/>
@@ -29678,7 +29554,7 @@
       <c r="T38" s="578"/>
       <c r="U38" s="578"/>
       <c r="V38" s="578" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="W38" s="578"/>
       <c r="X38" s="578"/>
@@ -29709,7 +29585,7 @@
       <c r="A39" s="578"/>
       <c r="B39" s="578"/>
       <c r="C39" s="578" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D39" s="578"/>
       <c r="E39" s="578"/>
@@ -29730,7 +29606,7 @@
       <c r="T39" s="578"/>
       <c r="U39" s="578"/>
       <c r="V39" s="578" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="W39" s="578"/>
       <c r="X39" s="578"/>
@@ -29761,7 +29637,7 @@
       <c r="A40" s="578"/>
       <c r="B40" s="578"/>
       <c r="C40" s="578" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D40" s="578"/>
       <c r="E40" s="578"/>
@@ -29782,7 +29658,7 @@
       <c r="T40" s="578"/>
       <c r="U40" s="578"/>
       <c r="V40" s="578" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="W40" s="578"/>
       <c r="X40" s="578"/>
@@ -29813,7 +29689,7 @@
       <c r="A41" s="578"/>
       <c r="B41" s="578"/>
       <c r="C41" s="578" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D41" s="578"/>
       <c r="E41" s="578"/>
@@ -29834,7 +29710,7 @@
       <c r="T41" s="578"/>
       <c r="U41" s="578"/>
       <c r="V41" s="578" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="W41" s="578"/>
       <c r="X41" s="578"/>
@@ -29884,7 +29760,7 @@
       <c r="T42" s="578"/>
       <c r="U42" s="578"/>
       <c r="V42" s="578" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="W42" s="578"/>
       <c r="X42" s="578"/>
